--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -1506,44 +1506,80 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1560,6 +1596,132 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1577,168 +1739,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2530,9 +2530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,11 +2595,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="str">
+      <c r="A2" s="86" t="str">
         <f>'Detalles plan de riesgo'!A2:A6</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="94" t="str">
+      <c r="B2" s="93" t="str">
         <f>'Detalles plan de riesgo'!B2:B6</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
@@ -2628,8 +2628,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -2655,8 +2655,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -2682,8 +2682,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="95"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -2706,8 +2706,8 @@
       <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="82" t="str">
         <f>'Detalles plan de riesgo'!F6</f>
         <v xml:space="preserve"> </v>
@@ -2730,13 +2730,13 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
-      <c r="B7" s="96" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="72" t="s">
         <v>75</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="O7" s="65"/>
     </row>
     <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="str">
+      <c r="A8" s="86" t="str">
         <f>'Detalles plan de riesgo'!A8:A12</f>
         <v>R7</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="90"/>
       <c r="C9" s="74" t="str">
         <f>'Detalles plan de riesgo'!F9</f>
@@ -2800,7 +2800,7 @@
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="90"/>
       <c r="C10" s="74" t="str">
         <f>'Detalles plan de riesgo'!F10</f>
@@ -2824,7 +2824,7 @@
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="90"/>
       <c r="C11" s="74" t="str">
         <f>'Detalles plan de riesgo'!F11</f>
@@ -2848,7 +2848,7 @@
       <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="90"/>
       <c r="C12" s="74" t="str">
         <f>'Detalles plan de riesgo'!F12</f>
@@ -2868,13 +2868,13 @@
       <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
-      <c r="B13" s="86" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="72" t="s">
         <v>76</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="O13" s="65"/>
     </row>
     <row r="14" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="str">
+      <c r="A14" s="86" t="str">
         <f>'Detalles plan de riesgo'!A14:A18</f>
         <v>R8</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="O14" s="61"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="90"/>
       <c r="C15" s="74" t="str">
         <f>'Detalles plan de riesgo'!F15</f>
@@ -2941,7 +2941,7 @@
       <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="90"/>
       <c r="C16" s="74" t="str">
         <f>'Detalles plan de riesgo'!F16</f>
@@ -2961,7 +2961,7 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="90"/>
       <c r="C17" s="74" t="str">
         <f>'Detalles plan de riesgo'!F17</f>
@@ -2984,7 +2984,7 @@
       <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="90"/>
       <c r="C18" s="74" t="str">
         <f>'Detalles plan de riesgo'!F18</f>
@@ -3008,13 +3008,13 @@
       <c r="O18" s="62"/>
     </row>
     <row r="19" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="93"/>
-      <c r="B19" s="86" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="65"/>
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
@@ -3027,7 +3027,7 @@
       <c r="O19" s="65"/>
     </row>
     <row r="20" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="str">
+      <c r="A20" s="86" t="str">
         <f>'Detalles plan de riesgo'!A20:A24</f>
         <v>R22</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="90"/>
       <c r="C21" s="74" t="str">
         <f>'Detalles plan de riesgo'!F21</f>
@@ -3081,7 +3081,7 @@
       <c r="O21" s="62"/>
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="90"/>
       <c r="C22" s="74" t="str">
         <f>'Detalles plan de riesgo'!F22</f>
@@ -3103,7 +3103,7 @@
       <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="90"/>
       <c r="C23" s="74" t="str">
         <f>'Detalles plan de riesgo'!F23</f>
@@ -3127,7 +3127,7 @@
       <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="90"/>
       <c r="C24" s="74" t="str">
         <f>'Detalles plan de riesgo'!F24</f>
@@ -3151,11 +3151,11 @@
       <c r="O24" s="62"/>
     </row>
     <row r="25" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="93"/>
-      <c r="B25" s="86" t="s">
+      <c r="A25" s="88"/>
+      <c r="B25" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="87"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="85"/>
       <c r="E25" s="83"/>
       <c r="F25" s="65"/>
@@ -3170,7 +3170,7 @@
       <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="str">
+      <c r="A26" s="86" t="str">
         <f>'Detalles plan de riesgo'!A26:A30</f>
         <v>R23</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="90"/>
       <c r="C27" s="74" t="str">
         <f>'Detalles plan de riesgo'!F27</f>
@@ -3224,7 +3224,7 @@
       <c r="O27" s="62"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="90"/>
       <c r="C28" s="74" t="str">
         <f>'Detalles plan de riesgo'!F28</f>
@@ -3248,7 +3248,7 @@
       <c r="O28" s="62"/>
     </row>
     <row r="29" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="90"/>
       <c r="C29" s="74" t="str">
         <f>'Detalles plan de riesgo'!F29</f>
@@ -3272,7 +3272,7 @@
       <c r="O29" s="62"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="90"/>
       <c r="C30" s="74" t="str">
         <f>'Detalles plan de riesgo'!F30</f>
@@ -3292,11 +3292,11 @@
       <c r="O30" s="62"/>
     </row>
     <row r="31" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="93"/>
-      <c r="B31" s="86" t="s">
+      <c r="A31" s="88"/>
+      <c r="B31" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="84"/>
       <c r="E31" s="83"/>
       <c r="F31" s="65"/>
@@ -3695,19 +3695,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="99">
+      <c r="E2" s="111">
         <v>3</v>
       </c>
       <c r="F2" s="57" t="s">
@@ -3731,16 +3731,16 @@
       <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="111" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="58" t="s">
         <v>54</v>
       </c>
@@ -3760,14 +3760,14 @@
       <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="100"/>
+      <c r="M3" s="112"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
@@ -3789,14 +3789,14 @@
       <c r="L4" s="2">
         <v>6</v>
       </c>
-      <c r="M4" s="100"/>
+      <c r="M4" s="112"/>
     </row>
     <row r="5" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="9" t="s">
         <v>52</v>
       </c>
@@ -3818,14 +3818,14 @@
       <c r="L5" s="2">
         <v>9</v>
       </c>
-      <c r="M5" s="100"/>
+      <c r="M5" s="112"/>
     </row>
     <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="10" t="s">
         <v>52</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="L6" s="5">
         <v>27</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -3857,33 +3857,33 @@
       <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
       <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="111">
         <v>2</v>
       </c>
       <c r="F8" s="58" t="s">
@@ -3905,16 +3905,16 @@
       <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="111" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="47" t="s">
         <v>58</v>
       </c>
@@ -3934,14 +3934,14 @@
       <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="100"/>
+      <c r="M9" s="112"/>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="47" t="s">
         <v>84</v>
       </c>
@@ -3961,14 +3961,14 @@
       <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="100"/>
+      <c r="M10" s="112"/>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="48" t="s">
         <v>52</v>
       </c>
@@ -3990,14 +3990,14 @@
       <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="100"/>
+      <c r="M11" s="112"/>
     </row>
     <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="58" t="s">
         <v>52</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="L12" s="5">
         <v>11</v>
       </c>
-      <c r="M12" s="101"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -4025,33 +4025,33 @@
       <c r="C13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
       <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="155">
+      <c r="E14" s="128">
         <v>1</v>
       </c>
       <c r="F14" s="58" t="s">
@@ -4074,16 +4074,16 @@
         <f>K14*E14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="158" t="s">
+      <c r="M14" s="131" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="120"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="156"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="47" t="s">
         <v>64</v>
       </c>
@@ -4104,14 +4104,14 @@
         <f>K15*E14</f>
         <v>0</v>
       </c>
-      <c r="M15" s="159"/>
+      <c r="M15" s="132"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="120"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="156"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="47" t="s">
         <v>52</v>
       </c>
@@ -4129,14 +4129,14 @@
         <f>K16*E14</f>
         <v>2</v>
       </c>
-      <c r="M16" s="159"/>
+      <c r="M16" s="132"/>
     </row>
     <row r="17" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="156"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="48" t="s">
         <v>52</v>
       </c>
@@ -4159,14 +4159,14 @@
         <f>K17*E14</f>
         <v>3</v>
       </c>
-      <c r="M17" s="159"/>
+      <c r="M17" s="132"/>
     </row>
     <row r="18" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="121"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="157"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="130"/>
       <c r="F18" s="58" t="s">
         <v>52</v>
       </c>
@@ -4183,7 +4183,7 @@
         <f>SUM(L14:L17)</f>
         <v>6</v>
       </c>
-      <c r="M18" s="160"/>
+      <c r="M18" s="133"/>
     </row>
     <row r="19" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
@@ -4195,33 +4195,33 @@
       <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="134">
+      <c r="E20" s="102">
         <v>3</v>
       </c>
       <c r="F20" s="58" t="s">
@@ -4241,16 +4241,16 @@
       <c r="L20" s="5">
         <v>6</v>
       </c>
-      <c r="M20" s="149" t="s">
+      <c r="M20" s="122" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="129"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="135"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="103"/>
       <c r="F21" s="47" t="s">
         <v>66</v>
       </c>
@@ -4268,14 +4268,14 @@
       <c r="L21" s="5">
         <v>6</v>
       </c>
-      <c r="M21" s="150"/>
+      <c r="M21" s="123"/>
     </row>
     <row r="22" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="129"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="135"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="47" t="s">
         <v>67</v>
       </c>
@@ -4293,14 +4293,14 @@
       <c r="L22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="150"/>
+      <c r="M22" s="123"/>
     </row>
     <row r="23" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="129"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="135"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="48" t="s">
         <v>52</v>
       </c>
@@ -4320,14 +4320,14 @@
       <c r="L23" s="5">
         <v>6</v>
       </c>
-      <c r="M23" s="150"/>
+      <c r="M23" s="123"/>
     </row>
     <row r="24" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="129"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="136"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="58" t="s">
         <v>52</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="L24" s="5">
         <v>24</v>
       </c>
-      <c r="M24" s="151"/>
+      <c r="M24" s="124"/>
     </row>
     <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
@@ -4357,36 +4357,36 @@
       <c r="C25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="163"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="146">
+      <c r="E26" s="119">
         <v>3</v>
       </c>
       <c r="F26" s="58" t="s">
@@ -4407,7 +4407,7 @@
         <f>E26*K26</f>
         <v>9</v>
       </c>
-      <c r="M26" s="137" t="s">
+      <c r="M26" s="105" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="25"/>
@@ -4415,11 +4415,11 @@
       <c r="P26" s="25"/>
     </row>
     <row r="27" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="147"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="120"/>
       <c r="F27" s="47" t="s">
         <v>69</v>
       </c>
@@ -4438,14 +4438,14 @@
         <f>E26*K27</f>
         <v>6</v>
       </c>
-      <c r="M27" s="138"/>
+      <c r="M27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="147"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="120"/>
       <c r="F28" s="47" t="s">
         <v>52</v>
       </c>
@@ -4466,14 +4466,14 @@
         <f>E26*K28</f>
         <v>9</v>
       </c>
-      <c r="M28" s="138"/>
+      <c r="M28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="147"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="120"/>
       <c r="F29" s="48" t="s">
         <v>52</v>
       </c>
@@ -4494,14 +4494,14 @@
         <f>E26*K29</f>
         <v>9</v>
       </c>
-      <c r="M29" s="138"/>
+      <c r="M29" s="106"/>
     </row>
     <row r="30" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="148"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="58" t="s">
         <v>52</v>
       </c>
@@ -4518,7 +4518,7 @@
         <f>SUM(L26:L29)</f>
         <v>33</v>
       </c>
-      <c r="M30" s="139"/>
+      <c r="M30" s="107"/>
     </row>
     <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
@@ -4530,21 +4530,42 @@
       <c r="C31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="140" t="s">
+      <c r="D31" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="142"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="M26:M30"/>
@@ -4559,27 +4580,6 @@
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="M14:M18"/>
     <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -4,18 +4,91 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3450" windowWidth="20730" windowHeight="4440"/>
+    <workbookView xWindow="-630" yWindow="3510" windowWidth="20730" windowHeight="4380"/>
   </bookViews>
   <sheets>
-    <sheet name="Riesgos" sheetId="6" r:id="rId1"/>
-    <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId2"/>
+    <sheet name="R3" sheetId="7" r:id="rId1"/>
+    <sheet name="R7" sheetId="8" r:id="rId2"/>
+    <sheet name="R8" sheetId="9" r:id="rId3"/>
+    <sheet name="R22" sheetId="10" r:id="rId4"/>
+    <sheet name="R23" sheetId="11" r:id="rId5"/>
+    <sheet name="Riesgos" sheetId="6" r:id="rId6"/>
+    <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriel Martinez</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se verifica por las actualizaciones realizadas en github.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriel Martinez</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se verifica por las actualizaciones realizadas en github.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="105">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -323,13 +396,22 @@
   </si>
   <si>
     <t xml:space="preserve">Revision del historial de commit </t>
+  </si>
+  <si>
+    <t>Falta reporte de tiempos de Felipe</t>
+  </si>
+  <si>
+    <t>Falta reporte de tiempos de GM por perdida de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificar al integrante que reporte los tiempos </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +461,19 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1265,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1545,12 +1640,108 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1581,21 +1772,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1659,92 +1835,35 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="174">
     <dxf>
       <fill>
         <patternFill>
@@ -1790,6 +1909,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1804,6 +1930,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1811,6 +1951,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1818,6 +1972,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1825,6 +1993,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1832,6 +2007,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1916,6 +2140,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1986,6 +2252,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1993,6 +2315,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2000,6 +2336,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2007,6 +2350,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2021,6 +2378,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2028,6 +2392,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2035,6 +2406,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2063,6 +2448,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2070,6 +2462,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2084,6 +2490,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2091,6 +2504,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2098,6 +2525,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2105,6 +2602,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2112,6 +2616,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2126,6 +2644,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2133,6 +2658,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2147,6 +2686,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2154,6 +2707,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2175,6 +2742,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2182,6 +2777,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2196,6 +2798,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2210,7 +2819,252 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2527,12 +3381,1541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="str">
+        <f>'Detalles plan de riesgo'!A2:A6</f>
+        <v>R3</v>
+      </c>
+      <c r="B2" s="93" t="str">
+        <f>'Detalles plan de riesgo'!B2:B6</f>
+        <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
+      </c>
+      <c r="C2" s="78" t="str">
+        <f>'Detalles plan de riesgo'!F2</f>
+        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
+      </c>
+      <c r="D2" s="167"/>
+      <c r="E2" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="61"/>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F3</f>
+        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
+      </c>
+      <c r="D3" s="168"/>
+      <c r="E3" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="62"/>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="165" t="str">
+        <f>'Detalles plan de riesgo'!F4</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="169"/>
+      <c r="F4" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="169"/>
+      <c r="F5" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="62"/>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="169"/>
+      <c r="F6" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="170"/>
+      <c r="F7" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="1:16" ht="155.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
+      <c r="B8" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="56"/>
+      <c r="H8" s="164" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="171" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E4:E7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G2:O7 D2 F8:O8 D4">
+    <cfRule type="cellIs" dxfId="173" priority="12" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="13" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 G2:O4">
+    <cfRule type="cellIs" dxfId="171" priority="11" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="170" priority="10" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:O7">
+    <cfRule type="cellIs" dxfId="169" priority="9" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="166" priority="6" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="cellIs" dxfId="165" priority="5" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F7">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="3" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:O7">
+      <formula1>$P$2:$P$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="61"/>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F2</f>
+        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="62"/>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F3</f>
+        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F4</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="62"/>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:16" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6 H5:O5 G2:O4 F6:O7">
+    <cfRule type="cellIs" dxfId="74" priority="15" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="16" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6 H5:O5 G2:O4 F6:O6">
+    <cfRule type="cellIs" dxfId="72" priority="14" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="71" priority="12" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F4">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F4">
+    <cfRule type="cellIs" dxfId="66" priority="8" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="7" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 F2:O6">
+      <formula1>$P$2:$P$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="78" t="str">
+        <f>'Detalles plan de riesgo'!F1</f>
+        <v>Respuestas Planificadas</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="61"/>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F2</f>
+        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="62"/>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F3</f>
+        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F4</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" s="74" t="str">
+        <f>'Detalles plan de riesgo'!G4</f>
+        <v xml:space="preserve"> Contingencia</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="62"/>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:O6">
+    <cfRule type="cellIs" dxfId="58" priority="17" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="18" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:O7">
+    <cfRule type="cellIs" dxfId="56" priority="15" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="16" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:O6">
+    <cfRule type="cellIs" dxfId="54" priority="14" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:O4">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:O4">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 G2:O6 F2:F4">
+      <formula1>$P$2:$P$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="78" t="str">
+        <f>'Detalles plan de riesgo'!F1</f>
+        <v>Respuestas Planificadas</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="61"/>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F2</f>
+        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="62"/>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F3</f>
+        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F4</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="62"/>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D5:D6 H5:O6 G2:O4">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7 F7:O7">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6 H5:O6 G2:O4">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F4">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F4">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 F2:O6">
+      <formula1>$P$2:$P$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="78" t="str">
+        <f>'Detalles plan de riesgo'!F1</f>
+        <v>Respuestas Planificadas</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="61"/>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F2</f>
+        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="62"/>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F3</f>
+        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F4</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="62"/>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="62"/>
+    </row>
+    <row r="7" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F6 H4:O6 D4:D5 G2:O3">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:O7">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 H4:O6 D4:D5 G2:O3">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F5">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F5">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5 F2:O6">
+      <formula1>$P$2:$P$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +5026,9 @@
       </c>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="J3" s="55"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
@@ -2654,22 +5039,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="87"/>
       <c r="B4" s="94"/>
-      <c r="C4" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F4</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>53</v>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75" t="s">
+        <v>104</v>
       </c>
       <c r="E4" s="81"/>
       <c r="F4" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="H4" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
@@ -2677,19 +5061,16 @@
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
       <c r="O4" s="62"/>
-      <c r="P4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="87"/>
       <c r="B5" s="94"/>
       <c r="C5" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
+        <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="62" t="s">
@@ -2704,18 +5085,21 @@
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
       <c r="O5" s="62"/>
-    </row>
-    <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="87"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="82" t="str">
-        <f>'Detalles plan de riesgo'!F6</f>
+      <c r="B6" s="94"/>
+      <c r="C6" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="83"/>
+      <c r="D6" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="81"/>
       <c r="F6" s="62" t="s">
         <v>49</v>
       </c>
@@ -2729,89 +5113,92 @@
       <c r="N6" s="55"/>
       <c r="O6" s="62"/>
     </row>
-    <row r="7" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="95" t="s">
+    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="82" t="str">
+        <f>'Detalles plan de riesgo'!F6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
+      <c r="B8" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="72" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="65"/>
-    </row>
-    <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="str">
-        <f>'Detalles plan de riesgo'!A8:A12</f>
-        <v>R7</v>
-      </c>
-      <c r="B8" s="89" t="str">
+      <c r="G8" s="56"/>
+      <c r="H8" s="164" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="65"/>
+    </row>
+    <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="89">
         <f>'Detalles plan de riesgo'!B8:B12</f>
-        <v>Fallas de comunicación en el equipo</v>
-      </c>
-      <c r="C8" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="61" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="61"/>
-    </row>
-    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F9</f>
-        <v xml:space="preserve"> Fijar reuniones semanales de seguimiento </v>
-      </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="62"/>
-    </row>
-    <row r="10" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="87"/>
       <c r="B10" s="90"/>
       <c r="C10" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F10</f>
-        <v>Generar archivos de seguimiento al proyecto, formatos por rol  y formato de integración de componentes</v>
+        <f>'Detalles plan de riesgo'!F9</f>
+        <v xml:space="preserve"> Fijar reuniones semanales de seguimiento </v>
       </c>
       <c r="D10" s="75"/>
-      <c r="E10" s="81" t="s">
-        <v>96</v>
-      </c>
+      <c r="E10" s="81"/>
       <c r="F10" s="62" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
@@ -2823,19 +5210,19 @@
       <c r="N10" s="55"/>
       <c r="O10" s="62"/>
     </row>
-    <row r="11" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="87"/>
       <c r="B11" s="90"/>
       <c r="C11" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="81"/>
+        <f>'Detalles plan de riesgo'!F10</f>
+        <v>Generar archivos de seguimiento al proyecto, formatos por rol  y formato de integración de componentes</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="81" t="s">
+        <v>96</v>
+      </c>
       <c r="F11" s="62" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
@@ -2847,16 +5234,20 @@
       <c r="N11" s="55"/>
       <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="87"/>
       <c r="B12" s="90"/>
       <c r="C12" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F12</f>
+        <f>'Detalles plan de riesgo'!F11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="74" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="81"/>
-      <c r="F12" s="62"/>
+      <c r="F12" s="62" t="s">
+        <v>49</v>
+      </c>
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
@@ -2867,89 +5258,87 @@
       <c r="N12" s="55"/>
       <c r="O12" s="62"/>
     </row>
-    <row r="13" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
-      <c r="B13" s="91" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="87"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F12</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="62"/>
+    </row>
+    <row r="14" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="88"/>
+      <c r="B14" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="72" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="65"/>
-    </row>
-    <row r="14" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="str">
-        <f>'Detalles plan de riesgo'!A14:A18</f>
-        <v>R8</v>
-      </c>
-      <c r="B14" s="89" t="str">
-        <f>'Detalles plan de riesgo'!B14:B18</f>
-        <v>No aplicar y mantener una correcta gestión documental del proyecto</v>
-      </c>
-      <c r="C14" s="78" t="str">
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="65"/>
+    </row>
+    <row r="15" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="78" t="str">
         <f>'Detalles plan de riesgo'!F14</f>
         <v xml:space="preserve">Hacer copias de seguridad de archivos criticos: SVN </v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="61" t="s">
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="61"/>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F15</f>
-        <v xml:space="preserve"> Hacer seguimiento al uso del SVN</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="62"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="61"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="87"/>
       <c r="B16" s="90"/>
       <c r="C16" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F16</f>
-        <v xml:space="preserve"> </v>
+        <f>'Detalles plan de riesgo'!F15</f>
+        <v xml:space="preserve"> Hacer seguimiento al uso del SVN</v>
       </c>
       <c r="D16" s="75"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="62"/>
+      <c r="E16" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>77</v>
+      </c>
       <c r="G16" s="55"/>
       <c r="H16" s="55"/>
       <c r="I16" s="55"/>
@@ -2964,15 +5353,12 @@
       <c r="A17" s="87"/>
       <c r="B17" s="90"/>
       <c r="C17" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F17</f>
+        <f>'Detalles plan de riesgo'!F16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D17" s="74" t="str">
-        <f>'Detalles plan de riesgo'!G17</f>
-        <v xml:space="preserve"> Contingencia</v>
-      </c>
+      <c r="D17" s="75"/>
       <c r="E17" s="81"/>
-      <c r="F17" s="73"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="55"/>
       <c r="H17" s="55"/>
       <c r="I17" s="55"/>
@@ -2983,20 +5369,19 @@
       <c r="N17" s="55"/>
       <c r="O17" s="62"/>
     </row>
-    <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="87"/>
       <c r="B18" s="90"/>
       <c r="C18" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F18</f>
+        <f>'Detalles plan de riesgo'!F17</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D18" s="74" t="s">
-        <v>65</v>
+      <c r="D18" s="74" t="str">
+        <f>'Detalles plan de riesgo'!G17</f>
+        <v xml:space="preserve"> Contingencia</v>
       </c>
       <c r="E18" s="81"/>
-      <c r="F18" s="62" t="s">
-        <v>49</v>
-      </c>
+      <c r="F18" s="73"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -3007,90 +5392,90 @@
       <c r="N18" s="55"/>
       <c r="O18" s="62"/>
     </row>
-    <row r="19" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
-      <c r="B19" s="91" t="s">
+    <row r="19" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F18</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="F19" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="88"/>
+      <c r="B20" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="65"/>
-    </row>
-    <row r="20" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="str">
-        <f>'Detalles plan de riesgo'!A20:A24</f>
-        <v>R22</v>
-      </c>
-      <c r="B20" s="89" t="str">
-        <f>'Detalles plan de riesgo'!B20:B24</f>
-        <v>Problemas de Integración de tecnologías</v>
-      </c>
-      <c r="C20" s="78" t="str">
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="65"/>
+    </row>
+    <row r="21" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="78" t="str">
         <f>'Detalles plan de riesgo'!F20</f>
         <v>Comunicación inicial para planear el trabajo y entender el flujo de cada operación por tecnología / documento de integracion</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F21" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="61"/>
-    </row>
-    <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F21</f>
-        <v>Realizar pruebas iniciales con datos de ejemplo para identificar alcance</v>
-      </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="62"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="87"/>
       <c r="B22" s="90"/>
       <c r="C22" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F22</f>
-        <v xml:space="preserve"> 2 personas deben conocer de un componente tecnologico </v>
+        <f>'Detalles plan de riesgo'!F21</f>
+        <v>Realizar pruebas iniciales con datos de ejemplo para identificar alcance</v>
       </c>
       <c r="D22" s="75"/>
-      <c r="E22" s="81"/>
+      <c r="E22" s="81" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" s="62" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
@@ -3102,19 +5487,17 @@
       <c r="N22" s="55"/>
       <c r="O22" s="62"/>
     </row>
-    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="87"/>
       <c r="B23" s="90"/>
       <c r="C23" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F23</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D23" s="76" t="s">
-        <v>89</v>
-      </c>
+        <f>'Detalles plan de riesgo'!F22</f>
+        <v xml:space="preserve"> 2 personas deben conocer de un componente tecnologico </v>
+      </c>
+      <c r="D23" s="75"/>
       <c r="E23" s="81"/>
       <c r="F23" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
@@ -3126,15 +5509,15 @@
       <c r="N23" s="55"/>
       <c r="O23" s="62"/>
     </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="87"/>
       <c r="B24" s="90"/>
       <c r="C24" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F24</f>
+        <f>'Detalles plan de riesgo'!F23</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="62" t="s">
@@ -3150,92 +5533,90 @@
       <c r="N24" s="55"/>
       <c r="O24" s="62"/>
     </row>
-    <row r="25" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="91" t="s">
+    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="87"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F24</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="81"/>
+      <c r="F25" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="62"/>
+    </row>
+    <row r="26" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="88"/>
+      <c r="B26" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="65"/>
-    </row>
-    <row r="26" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="str">
-        <f>'Detalles plan de riesgo'!A26:A30</f>
-        <v>R23</v>
-      </c>
-      <c r="B26" s="89" t="str">
-        <f>'Detalles plan de riesgo'!B26:B30</f>
-        <v>Baja disponibilidad de los integrantes del grupo para cumpir con tareas puntuales.</v>
-      </c>
-      <c r="C26" s="78" t="str">
+      <c r="C26" s="92"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="65"/>
+    </row>
+    <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+      <c r="A27" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="78" t="str">
         <f>'Detalles plan de riesgo'!F26</f>
         <v>Tener en cuenta horarios de no disponibilidad previemente notificados por los integrantes al momento de realizar la planeacion de tareas</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80" t="s">
+      <c r="D27" s="79"/>
+      <c r="E27" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F27" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="61"/>
-    </row>
-    <row r="27" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F27</f>
-        <v>Si un miembro sabe que no va a estar disponible en una fecha dada, que en lo posible adelante su aporte al trabajo grupal</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="62"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="61"/>
+    </row>
+    <row r="28" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A28" s="87"/>
       <c r="B28" s="90"/>
       <c r="C28" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F28</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="81"/>
+        <f>'Detalles plan de riesgo'!F27</f>
+        <v>Si un miembro sabe que no va a estar disponible en una fecha dada, que en lo posible adelante su aporte al trabajo grupal</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="81" t="s">
+        <v>99</v>
+      </c>
       <c r="F28" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
@@ -3247,15 +5628,15 @@
       <c r="N28" s="55"/>
       <c r="O28" s="62"/>
     </row>
-    <row r="29" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
       <c r="B29" s="90"/>
       <c r="C29" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F29</f>
+        <f>'Detalles plan de riesgo'!F28</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" s="81"/>
       <c r="F29" s="62" t="s">
@@ -3271,16 +5652,20 @@
       <c r="N29" s="55"/>
       <c r="O29" s="62"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="87"/>
       <c r="B30" s="90"/>
       <c r="C30" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F30</f>
+        <f>'Detalles plan de riesgo'!F29</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="77" t="s">
+        <v>70</v>
+      </c>
       <c r="E30" s="81"/>
-      <c r="F30" s="62"/>
+      <c r="F30" s="62" t="s">
+        <v>49</v>
+      </c>
       <c r="G30" s="55"/>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
@@ -3291,354 +5676,380 @@
       <c r="N30" s="55"/>
       <c r="O30" s="62"/>
     </row>
-    <row r="31" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
-      <c r="B31" s="91" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="74" t="str">
+        <f>'Detalles plan de riesgo'!F30</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D31" s="75"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="62"/>
+    </row>
+    <row r="32" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="88"/>
+      <c r="B32" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="65"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:O6 D2:D3 F7:O7">
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+  <conditionalFormatting sqref="G2:O7 D2:D4 F8:O8">
+    <cfRule type="cellIs" dxfId="160" priority="77" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="78" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 H11:O11 H17:O18 D23:D24 H23:O24 F30 H28:O30 D28:D29 G8:O10 G20:O22 G26:O27 F12:O13">
-    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
+  <conditionalFormatting sqref="D13 H12:O12 H18:O19 D24:D25 H24:O25 F31 H29:O31 D29:D30 G9:O11 G21:O23 G27:O28 F13:O14">
+    <cfRule type="cellIs" dxfId="158" priority="75" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="76" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:O19">
-    <cfRule type="cellIs" dxfId="64" priority="72" operator="equal">
+  <conditionalFormatting sqref="F20:O20">
+    <cfRule type="cellIs" dxfId="156" priority="73" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="74" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 F25:O25">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+  <conditionalFormatting sqref="D26 F26:O26">
+    <cfRule type="cellIs" dxfId="154" priority="71" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="72" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:O31">
-    <cfRule type="cellIs" dxfId="60" priority="68" operator="equal">
+  <conditionalFormatting sqref="F32:O32">
+    <cfRule type="cellIs" dxfId="152" priority="69" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="70" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D12 H11:O11 H17:O18 D23:D24 H23:O24 F30 H28:O30 D28:D29 G2:O3 G8:O10 G20:O22 G26:O27 F12:O12">
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:O6">
-    <cfRule type="cellIs" dxfId="56" priority="63" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:O16">
-    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
+  <conditionalFormatting sqref="D2 D13 H12:O12 H18:O19 D24:D25 H24:O25 F31 H29:O31 D29:D30 G2:O4 G9:O11 G21:O23 G27:O28 F13:O13">
+    <cfRule type="cellIs" dxfId="150" priority="66" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="149" priority="65" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:O7">
+    <cfRule type="cellIs" dxfId="148" priority="64" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:O17">
+    <cfRule type="cellIs" dxfId="147" priority="59" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="60" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:O16">
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
-      <formula>$P$4</formula>
+  <conditionalFormatting sqref="F15:O17">
+    <cfRule type="cellIs" dxfId="145" priority="58" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="144" priority="53" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="54" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="142" priority="52" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="141" priority="50" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="51" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="139" priority="49" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="cellIs" dxfId="138" priority="47" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="48" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19">
+    <cfRule type="cellIs" dxfId="136" priority="46" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="cellIs" dxfId="135" priority="44" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="45" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G31">
+    <cfRule type="cellIs" dxfId="132" priority="41" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="42" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G31">
+    <cfRule type="cellIs" dxfId="130" priority="40" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F7">
+    <cfRule type="cellIs" dxfId="129" priority="38" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="39" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="127" priority="37" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="cellIs" dxfId="126" priority="36" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F7">
+    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="cellIs" dxfId="124" priority="33" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="34" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="cellIs" dxfId="122" priority="32" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="121" priority="30" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="31" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="119" priority="29" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="118" priority="27" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="28" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="116" priority="26" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F23">
+    <cfRule type="cellIs" dxfId="115" priority="24" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="25" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F23">
+    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="cellIs" dxfId="112" priority="21" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="22" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="cellIs" dxfId="110" priority="20" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F28">
+    <cfRule type="cellIs" dxfId="109" priority="18" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="19" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F28">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="cellIs" dxfId="106" priority="15" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="16" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="cellIs" dxfId="104" priority="14" operator="equal">
+      <formula>$P$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="13" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D17">
+    <cfRule type="cellIs" dxfId="101" priority="10" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="11" operator="equal">
+      <formula>$P$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D23">
+    <cfRule type="cellIs" dxfId="99" priority="8" operator="equal">
+      <formula>$P$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="9" operator="equal">
+      <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="7" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+  <conditionalFormatting sqref="D31:D32">
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+  <conditionalFormatting sqref="E2:E7 E21:E32 E9:E13 E15:E19">
+    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G18">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G24">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G24">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G30">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G30">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F6">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F6">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F10">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F10">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F22">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F22">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>$P$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D10">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D22">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D31">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6 E20:E31 E8:E12 E14:E18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>$P$2</formula>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+      <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D24 D12 F8:O12 F14:F16 F2:O6 G14:O18 F18 F20:O24 F26:O30 D27:D29">
-      <formula1>$P$2:$P$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D28:D30 F27:O31 F21:O25 F19 G15:O19 D13 F15:F17 F9:O13 F2:O7">
+      <formula1>$P$2:$P$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B18"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,19 +6106,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="111">
+      <c r="E2" s="99">
         <v>3</v>
       </c>
       <c r="F2" s="57" t="s">
@@ -3731,16 +6142,16 @@
       <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="99" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="58" t="s">
         <v>54</v>
       </c>
@@ -3760,14 +6171,14 @@
       <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="112"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
@@ -3789,14 +6200,14 @@
       <c r="L4" s="2">
         <v>6</v>
       </c>
-      <c r="M4" s="112"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="9" t="s">
         <v>52</v>
       </c>
@@ -3818,14 +6229,14 @@
       <c r="L5" s="2">
         <v>9</v>
       </c>
-      <c r="M5" s="112"/>
+      <c r="M5" s="100"/>
     </row>
     <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="10" t="s">
         <v>52</v>
       </c>
@@ -3845,7 +6256,7 @@
       <c r="L6" s="5">
         <v>27</v>
       </c>
-      <c r="M6" s="113"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -3857,33 +6268,33 @@
       <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
       <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="99">
         <v>2</v>
       </c>
       <c r="F8" s="58" t="s">
@@ -3905,16 +6316,16 @@
       <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="111" t="s">
+      <c r="M8" s="99" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="47" t="s">
         <v>58</v>
       </c>
@@ -3934,14 +6345,14 @@
       <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="112"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="47" t="s">
         <v>84</v>
       </c>
@@ -3961,14 +6372,14 @@
       <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="112"/>
+      <c r="M10" s="100"/>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="48" t="s">
         <v>52</v>
       </c>
@@ -3990,14 +6401,14 @@
       <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="112"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="58" t="s">
         <v>52</v>
       </c>
@@ -4013,7 +6424,7 @@
       <c r="L12" s="5">
         <v>11</v>
       </c>
-      <c r="M12" s="113"/>
+      <c r="M12" s="101"/>
     </row>
     <row r="13" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -4025,33 +6436,33 @@
       <c r="C13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
       <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="155">
         <v>1</v>
       </c>
       <c r="F14" s="58" t="s">
@@ -4074,16 +6485,16 @@
         <f>K14*E14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="131" t="s">
+      <c r="M14" s="158" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="129"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="47" t="s">
         <v>64</v>
       </c>
@@ -4104,14 +6515,14 @@
         <f>K15*E14</f>
         <v>0</v>
       </c>
-      <c r="M15" s="132"/>
+      <c r="M15" s="159"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="147"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="129"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="156"/>
       <c r="F16" s="47" t="s">
         <v>52</v>
       </c>
@@ -4129,14 +6540,14 @@
         <f>K16*E14</f>
         <v>2</v>
       </c>
-      <c r="M16" s="132"/>
+      <c r="M16" s="159"/>
     </row>
     <row r="17" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="147"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="129"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="48" t="s">
         <v>52</v>
       </c>
@@ -4159,14 +6570,14 @@
         <f>K17*E14</f>
         <v>3</v>
       </c>
-      <c r="M17" s="132"/>
+      <c r="M17" s="159"/>
     </row>
     <row r="18" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="130"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="157"/>
       <c r="F18" s="58" t="s">
         <v>52</v>
       </c>
@@ -4183,7 +6594,7 @@
         <f>SUM(L14:L17)</f>
         <v>6</v>
       </c>
-      <c r="M18" s="133"/>
+      <c r="M18" s="160"/>
     </row>
     <row r="19" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
@@ -4195,33 +6606,33 @@
       <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="134">
         <v>3</v>
       </c>
       <c r="F20" s="58" t="s">
@@ -4241,16 +6652,16 @@
       <c r="L20" s="5">
         <v>6</v>
       </c>
-      <c r="M20" s="122" t="s">
+      <c r="M20" s="149" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="156"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="103"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="47" t="s">
         <v>66</v>
       </c>
@@ -4268,14 +6679,14 @@
       <c r="L21" s="5">
         <v>6</v>
       </c>
-      <c r="M21" s="123"/>
+      <c r="M21" s="150"/>
     </row>
     <row r="22" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="103"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="135"/>
       <c r="F22" s="47" t="s">
         <v>67</v>
       </c>
@@ -4293,14 +6704,14 @@
       <c r="L22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="123"/>
+      <c r="M22" s="150"/>
     </row>
     <row r="23" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="103"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="135"/>
       <c r="F23" s="48" t="s">
         <v>52</v>
       </c>
@@ -4320,14 +6731,14 @@
       <c r="L23" s="5">
         <v>6</v>
       </c>
-      <c r="M23" s="123"/>
+      <c r="M23" s="150"/>
     </row>
     <row r="24" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="104"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="136"/>
       <c r="F24" s="58" t="s">
         <v>52</v>
       </c>
@@ -4345,7 +6756,7 @@
       <c r="L24" s="5">
         <v>24</v>
       </c>
-      <c r="M24" s="124"/>
+      <c r="M24" s="151"/>
     </row>
     <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
@@ -4357,36 +6768,36 @@
       <c r="C25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="134" t="s">
+      <c r="D25" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="136"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="163"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="143" t="s">
+      <c r="C26" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="119">
+      <c r="E26" s="146">
         <v>3</v>
       </c>
       <c r="F26" s="58" t="s">
@@ -4407,7 +6818,7 @@
         <f>E26*K26</f>
         <v>9</v>
       </c>
-      <c r="M26" s="105" t="s">
+      <c r="M26" s="137" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="25"/>
@@ -4415,11 +6826,11 @@
       <c r="P26" s="25"/>
     </row>
     <row r="27" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="120"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="147"/>
       <c r="F27" s="47" t="s">
         <v>69</v>
       </c>
@@ -4438,14 +6849,14 @@
         <f>E26*K27</f>
         <v>6</v>
       </c>
-      <c r="M27" s="106"/>
+      <c r="M27" s="138"/>
     </row>
     <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="120"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="147"/>
       <c r="F28" s="47" t="s">
         <v>52</v>
       </c>
@@ -4466,14 +6877,14 @@
         <f>E26*K28</f>
         <v>9</v>
       </c>
-      <c r="M28" s="106"/>
+      <c r="M28" s="138"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="138"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="120"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="147"/>
       <c r="F29" s="48" t="s">
         <v>52</v>
       </c>
@@ -4494,14 +6905,14 @@
         <f>E26*K29</f>
         <v>9</v>
       </c>
-      <c r="M29" s="106"/>
+      <c r="M29" s="138"/>
     </row>
     <row r="30" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="139"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="121"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="58" t="s">
         <v>52</v>
       </c>
@@ -4518,7 +6929,7 @@
         <f>SUM(L26:L29)</f>
         <v>33</v>
       </c>
-      <c r="M30" s="107"/>
+      <c r="M30" s="139"/>
     </row>
     <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
@@ -4530,42 +6941,21 @@
       <c r="C31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="110"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="M26:M30"/>
@@ -4580,6 +6970,27 @@
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="M14:M18"/>
     <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-630" yWindow="3510" windowWidth="20730" windowHeight="4380"/>
@@ -12,8 +12,8 @@
     <sheet name="R8" sheetId="9" r:id="rId3"/>
     <sheet name="R22" sheetId="10" r:id="rId4"/>
     <sheet name="R23" sheetId="11" r:id="rId5"/>
-    <sheet name="Riesgos" sheetId="6" r:id="rId6"/>
-    <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId7"/>
+    <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId6"/>
+    <sheet name="Riesgos" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -25,6 +25,299 @@
     <author>Gabriel Martinez</author>
   </authors>
   <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+septiembre 1 - septiembre 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep8-sep14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep15-sep21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep22-sep28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep29-oct5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 6- oct 13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 14- oct 19
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 20 - oct 26</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 27 - nov 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 3 - nov 9
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 17 - 27</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E3" authorId="0">
       <text>
         <r>
@@ -59,6 +352,1218 @@
     <author>Gabriel Martinez</author>
   </authors>
   <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+septiembre 1 - septiembre 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep8-sep14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep15-sep21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep22-sep28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep29-oct5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 6- oct 13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 14- oct 19
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 20 - oct 26</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 27 - nov 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 3 - nov 9
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 17 - 27</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriel Martinez</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+septiembre 1 - septiembre 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep8-sep14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep15-sep21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep22-sep28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep29-oct5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 6- oct 13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 14- oct 19
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 20 - oct 26</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 27 - nov 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 3 - nov 9
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 17 - 27</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriel Martinez</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+septiembre 1 - septiembre 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep8-sep14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep15-sep21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep22-sep28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep29-oct5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 6- oct 13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 14- oct 19
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 20 - oct 26</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 27 - nov 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 3 - nov 9
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 17 - 27</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriel Martinez</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+septiembre 1 - septiembre 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep8-sep14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep15-sep21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep22-sep28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sep29-oct5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 6- oct 13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 14- oct 19
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 20 - oct 26</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 27 - nov 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 3 - nov 9
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 17 - 27</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriel Martinez</author>
+  </authors>
+  <commentList>
     <comment ref="E3" authorId="0">
       <text>
         <r>
@@ -88,7 +1593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="113">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -405,13 +1910,37 @@
   </si>
   <si>
     <t xml:space="preserve">Notificar al integrante que reporte los tiempos </t>
+  </si>
+  <si>
+    <t>Ciclo 2 Semana 6</t>
+  </si>
+  <si>
+    <t>Ciclo 3 Semana 6</t>
+  </si>
+  <si>
+    <t>Ciclo 2    Semana 5</t>
+  </si>
+  <si>
+    <t>Falta reporte de tiempos de GM por perdida de datos. Se sugiere guardar tiempos con más frecuencia, para en caso de perdida de información esta sea pequeña.</t>
+  </si>
+  <si>
+    <t>Ciclo2   Semana 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubo un error de comunicación que retraso un día el avance en el desarrollo del frontend (entresemana) . GM hizo limpieza de datos y considero que ya había dejado los datos como los necesitaba DA y FF, ya que fue notificado del error justo despues que realizo la operacion de liempieza.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentarios </t>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +2004,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1360,7 +2902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1601,6 +3143,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1610,6 +3158,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1619,27 +3203,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1655,6 +3257,132 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1673,197 +3401,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="158">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1909,6 +3469,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2000,6 +3602,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2007,6 +3616,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2021,6 +3637,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2028,6 +3658,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2042,6 +3693,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2084,6 +3742,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2091,6 +3756,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2098,6 +3770,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2105,6 +3784,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2112,6 +3798,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2119,6 +3812,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2126,6 +3826,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2154,6 +3868,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2175,6 +3896,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2182,6 +3910,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2210,6 +3980,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2217,6 +3994,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2392,6 +4183,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2399,6 +4197,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2448,6 +4253,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2455,6 +4267,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2469,6 +4295,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2483,6 +4316,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2490,6 +4358,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -2497,6 +4372,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2525,469 +4414,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3087,9 +4528,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3382,10 +4820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,12 +4832,16 @@
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="10" max="11" width="16" customWidth="1"/>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="174" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -3415,43 +4857,52 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="175" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="53" t="s">
+      <c r="J1" s="176" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="176" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="P1" s="175" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="str">
+      <c r="Q1" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="172" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="str">
         <f>'Detalles plan de riesgo'!A2:A6</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="91" t="str">
         <f>'Detalles plan de riesgo'!B2:B6</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
@@ -3459,7 +4910,7 @@
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
       </c>
-      <c r="D2" s="167"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="80" t="s">
         <v>94</v>
       </c>
@@ -3474,19 +4925,22 @@
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
-      <c r="O2" s="61"/>
-      <c r="P2" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="94"/>
+    <row r="3" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="89"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="81" t="s">
         <v>95</v>
       </c>
@@ -3494,56 +4948,62 @@
         <v>77</v>
       </c>
       <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
-        <v>77</v>
-      </c>
+      <c r="H3" s="55"/>
       <c r="I3" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="55"/>
+      <c r="J3" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
-      <c r="O3" s="62"/>
-      <c r="P3" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="165" t="str">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="97" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="169"/>
+      <c r="E4" s="101"/>
       <c r="F4" s="62" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="55"/>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="55"/>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
-      <c r="O4" s="62"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="165"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="169"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="62" t="s">
         <v>49</v>
       </c>
@@ -3555,19 +5015,22 @@
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
-      <c r="O5" s="62"/>
-      <c r="P5" t="s">
+      <c r="O5" s="55"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="165"/>
+    <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="169"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="62" t="s">
         <v>49</v>
       </c>
@@ -3579,16 +5042,19 @@
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="166"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="170"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="62" t="s">
         <v>49</v>
       </c>
@@ -3600,32 +5066,38 @@
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
       <c r="N7" s="55"/>
-      <c r="O7" s="62"/>
-    </row>
-    <row r="8" spans="1:16" ht="155.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="95" t="s">
+      <c r="O7" s="55"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90"/>
+      <c r="B8" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="72" t="s">
         <v>75</v>
       </c>
       <c r="G8" s="56"/>
-      <c r="H8" s="164" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="171" t="s">
+      <c r="H8" s="86"/>
+      <c r="I8" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
       <c r="M8" s="56"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="65"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3636,68 +5108,68 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E4:E7"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:O7 D2 F8:O8 D4">
-    <cfRule type="cellIs" dxfId="173" priority="12" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="13" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 G2:O4">
-    <cfRule type="cellIs" dxfId="171" priority="11" operator="equal">
-      <formula>$P$5</formula>
+  <conditionalFormatting sqref="G2:R7 D2 F8:R8 D4">
+    <cfRule type="cellIs" dxfId="157" priority="12" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="13" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 G2:R4">
+    <cfRule type="cellIs" dxfId="155" priority="11" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="170" priority="10" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:O7">
-    <cfRule type="cellIs" dxfId="169" priority="9" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="154" priority="10" operator="equal">
+      <formula>$S$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:R7">
+    <cfRule type="cellIs" dxfId="153" priority="9" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="168" priority="7" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="8" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="152" priority="7" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="8" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="166" priority="6" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="165" priority="5" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E4">
-    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="3" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="147" priority="2" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="3" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="145" priority="1" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:O7">
-      <formula1>$P$2:$P$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:R7">
+      <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3707,11 +5179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,9 +5193,16 @@
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="174" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -3739,42 +5218,51 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="53" t="s">
+      <c r="J1" s="176" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="176" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="P1" s="175" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="Q1" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="172" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="103" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="78" t="s">
@@ -3785,22 +5273,33 @@
       <c r="F2" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="G2" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>47</v>
+      </c>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
-      <c r="O2" s="61"/>
-      <c r="P2" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
+    <row r="3" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="89"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
@@ -3818,14 +5317,17 @@
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
-      <c r="O3" s="62"/>
-      <c r="P3" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
+    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -3845,11 +5347,14 @@
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
-      <c r="O4" s="62"/>
-    </row>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -3869,14 +5374,17 @@
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
-      <c r="O5" s="62"/>
-      <c r="P5" t="s">
+      <c r="O5" s="55"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -3892,28 +5400,36 @@
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:16" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="91" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="98"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="106"/>
       <c r="F7" s="72" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="J7" s="87" t="s">
+        <v>110</v>
+      </c>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="65"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3921,95 +5437,100 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:E7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6 H5:O5 G2:O4 F6:O7">
-    <cfRule type="cellIs" dxfId="74" priority="15" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="16" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6 H5:O5 G2:O4 F6:O6">
-    <cfRule type="cellIs" dxfId="72" priority="14" operator="equal">
-      <formula>$P$5</formula>
+  <conditionalFormatting sqref="D6 H5:R5 G2:R4 F6:R7">
+    <cfRule type="cellIs" dxfId="144" priority="15" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="16" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6 H5:R5 G2:R4 F6:R6">
+    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="13" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="141" priority="12" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="13" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="139" priority="11" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="66" priority="8" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="136" priority="8" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="7" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="133" priority="5" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="132" priority="3" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 F2:O6">
-      <formula1>$P$2:$P$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 F2:R6">
+      <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="174"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -4025,42 +5546,49 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="53" t="s">
+      <c r="J1" s="176" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="176" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="P1" s="175" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="Q1" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="172"/>
+    </row>
+    <row r="2" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="103" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="78" t="str">
@@ -4080,14 +5608,17 @@
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
-      <c r="O2" s="61"/>
-      <c r="P2" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
+    <row r="3" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="89"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
@@ -4107,14 +5638,17 @@
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
-      <c r="O3" s="62"/>
-      <c r="P3" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
+    <row r="4" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -4130,11 +5664,14 @@
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
-      <c r="O4" s="62"/>
-    </row>
-    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -4153,14 +5690,17 @@
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
-      <c r="O5" s="62"/>
-      <c r="P5" t="s">
+      <c r="O5" s="55"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
+    <row r="6" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -4180,16 +5720,19 @@
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="91" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="98"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="106"/>
       <c r="F7" s="65"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
@@ -4199,7 +5742,10 @@
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="65"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4207,103 +5753,108 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:E7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:O6">
-    <cfRule type="cellIs" dxfId="58" priority="17" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="18" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:O7">
-    <cfRule type="cellIs" dxfId="56" priority="15" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="16" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:O6">
-    <cfRule type="cellIs" dxfId="54" priority="14" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:O4">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:O4">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
-      <formula>$P$5</formula>
+  <conditionalFormatting sqref="H5:R6">
+    <cfRule type="cellIs" dxfId="128" priority="17" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="18" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:R7">
+    <cfRule type="cellIs" dxfId="126" priority="15" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:R6">
+    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
+      <formula>$S$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:R4">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:R4">
+    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 G2:O6 F2:F4">
-      <formula1>$P$2:$P$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F2:F4 G2:R6">
+      <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="174"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -4319,42 +5870,49 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="53" t="s">
+      <c r="J1" s="176" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="176" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="P1" s="175" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="Q1" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="172"/>
+    </row>
+    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="103" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="78" t="str">
@@ -4376,14 +5934,17 @@
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
-      <c r="O2" s="61"/>
-      <c r="P2" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
+    <row r="3" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="89"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
@@ -4403,14 +5964,17 @@
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
-      <c r="O3" s="62"/>
-      <c r="P3" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
+    <row r="4" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -4428,11 +5992,14 @@
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
-      <c r="O4" s="62"/>
-    </row>
-    <row r="5" spans="1:16" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -4452,14 +6019,17 @@
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
-      <c r="O5" s="62"/>
-      <c r="P5" t="s">
+      <c r="O5" s="55"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
+    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -4479,14 +6049,17 @@
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="91" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="85"/>
       <c r="E7" s="83"/>
       <c r="F7" s="65"/>
@@ -4498,7 +6071,10 @@
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="65"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4506,103 +6082,108 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D6 H5:O6 G2:O4">
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7 F7:O7">
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 H5:O6 G2:O4">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
-      <formula>$P$5</formula>
+  <conditionalFormatting sqref="D5:D6 H5:R6 G2:R4 F7:R7">
+    <cfRule type="cellIs" dxfId="110" priority="17" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="18" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="108" priority="15" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6 H5:R6 G2:R4">
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="105" priority="12" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="103" priority="11" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="102" priority="9" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="10" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 F2:O6">
-      <formula1>$P$2:$P$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 F2:R6">
+      <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="174"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -4618,42 +6199,49 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="53" t="s">
+      <c r="J1" s="176" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="176" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="M1" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="P1" s="175" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="Q1" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="172"/>
+    </row>
+    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="103" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="78" t="str">
@@ -4675,14 +6263,17 @@
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
-      <c r="O2" s="61"/>
-      <c r="P2" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
+    <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="89"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
@@ -4702,14 +6293,17 @@
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
-      <c r="O3" s="62"/>
-      <c r="P3" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
+    <row r="4" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -4729,11 +6323,14 @@
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
-      <c r="O4" s="62"/>
-    </row>
-    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -4753,14 +6350,17 @@
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
-      <c r="O5" s="62"/>
-      <c r="P5" t="s">
+      <c r="O5" s="55"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -4776,14 +6376,17 @@
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="91" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="84"/>
       <c r="E7" s="83"/>
       <c r="F7" s="65"/>
@@ -4795,7 +6398,10 @@
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
       <c r="N7" s="56"/>
-      <c r="O7" s="65"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4803,118 +6409,1072 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 H4:O6 D4:D5 G2:O3">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:O7">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 H4:O6 D4:D5 G2:O3">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>$P$5</formula>
+  <conditionalFormatting sqref="F6 H4:R6 D4:D5 G2:R3">
+    <cfRule type="cellIs" dxfId="92" priority="22" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="23" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:R7">
+    <cfRule type="cellIs" dxfId="90" priority="20" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 H4:R6 D4:D5 G2:R3">
+    <cfRule type="cellIs" dxfId="88" priority="19" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="87" priority="17" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="18" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="85" priority="16" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="84" priority="14" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="15" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="81" priority="11" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="12" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>$P$5</formula>
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+      <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>$P$2</formula>
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5 F2:O6">
-      <formula1>$P$2:$P$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5 F2:R6">
+      <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="169" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="119">
+        <v>3</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9</v>
+      </c>
+      <c r="M2" s="119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="120"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="120"/>
+    </row>
+    <row r="4" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="120"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6</v>
+      </c>
+      <c r="M4" s="120"/>
+    </row>
+    <row r="5" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9</v>
+      </c>
+      <c r="M5" s="120"/>
+    </row>
+    <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="121"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5">
+        <v>27</v>
+      </c>
+      <c r="M6" s="121"/>
+    </row>
+    <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="166" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="119">
+        <v>2</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="120"/>
+    </row>
+    <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="120"/>
+    </row>
+    <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="120"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="120"/>
+    </row>
+    <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="121"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5">
+        <v>11</v>
+      </c>
+      <c r="M12" s="121"/>
+    </row>
+    <row r="13" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="160" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="136">
+        <v>1</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="20">
+        <v>1</v>
+      </c>
+      <c r="L14" s="20">
+        <f>K14*E14</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="155"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <f>K15*E14</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="140"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="155"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="J16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="13">
+        <v>2</v>
+      </c>
+      <c r="L16" s="13">
+        <f>K16*E14</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="140"/>
+    </row>
+    <row r="17" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="155"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="13">
+        <v>3</v>
+      </c>
+      <c r="L17" s="13">
+        <f>K17*E14</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="140"/>
+    </row>
+    <row r="18" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="156"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16">
+        <f>SUM(L14:L17)</f>
+        <v>6</v>
+      </c>
+      <c r="M18" s="141"/>
+    </row>
+    <row r="19" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+    </row>
+    <row r="20" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="163" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="165" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="110">
+        <v>3</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5">
+        <v>6</v>
+      </c>
+      <c r="M20" s="130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="164"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5">
+        <v>6</v>
+      </c>
+      <c r="M21" s="131"/>
+    </row>
+    <row r="22" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="164"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>6</v>
+      </c>
+      <c r="M22" s="131"/>
+    </row>
+    <row r="23" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="164"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2</v>
+      </c>
+      <c r="L23" s="5">
+        <v>6</v>
+      </c>
+      <c r="M23" s="131"/>
+    </row>
+    <row r="24" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="164"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5">
+        <v>24</v>
+      </c>
+      <c r="M24" s="132"/>
+    </row>
+    <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="142" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+    </row>
+    <row r="26" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="145" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="127">
+        <v>3</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="27">
+        <v>3</v>
+      </c>
+      <c r="L26" s="28">
+        <f>E26*K26</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+    </row>
+    <row r="27" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="146"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="30">
+        <v>2</v>
+      </c>
+      <c r="L27" s="31">
+        <f>E26*K27</f>
+        <v>6</v>
+      </c>
+      <c r="M27" s="114"/>
+    </row>
+    <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="146"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="33">
+        <v>3</v>
+      </c>
+      <c r="L28" s="34">
+        <f>E26*K28</f>
+        <v>9</v>
+      </c>
+      <c r="M28" s="114"/>
+    </row>
+    <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="146"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="35">
+        <v>3</v>
+      </c>
+      <c r="L29" s="31">
+        <f>E26*K29</f>
+        <v>9</v>
+      </c>
+      <c r="M29" s="114"/>
+    </row>
+    <row r="30" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="147"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38">
+        <f>SUM(L26:L29)</f>
+        <v>33</v>
+      </c>
+      <c r="M30" s="115"/>
+    </row>
+    <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="M26:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="M8:M12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="D25:M25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -4978,11 +7538,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="str">
+      <c r="A2" s="88" t="str">
         <f>'Detalles plan de riesgo'!A2:A6</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="91" t="str">
         <f>'Detalles plan de riesgo'!B2:B6</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
@@ -5011,8 +7571,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="94"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -5040,8 +7600,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75" t="s">
         <v>104</v>
@@ -5063,8 +7623,8 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -5090,8 +7650,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="94"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -5114,8 +7674,8 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="82" t="str">
         <f>'Detalles plan de riesgo'!F6</f>
         <v xml:space="preserve"> </v>
@@ -5138,18 +7698,18 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="95" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="72" t="s">
         <v>75</v>
       </c>
       <c r="G8" s="56"/>
-      <c r="H8" s="164" t="s">
+      <c r="H8" s="86" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="56" t="s">
@@ -5163,10 +7723,10 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="89">
+      <c r="B9" s="103">
         <f>'Detalles plan de riesgo'!B8:B12</f>
         <v>0</v>
       </c>
@@ -5189,8 +7749,8 @@
       <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="74" t="str">
         <f>'Detalles plan de riesgo'!F9</f>
         <v xml:space="preserve"> Fijar reuniones semanales de seguimiento </v>
@@ -5211,8 +7771,8 @@
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="90"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="74" t="str">
         <f>'Detalles plan de riesgo'!F10</f>
         <v>Generar archivos de seguimiento al proyecto, formatos por rol  y formato de integración de componentes</v>
@@ -5235,8 +7795,8 @@
       <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="74" t="str">
         <f>'Detalles plan de riesgo'!F11</f>
         <v xml:space="preserve"> </v>
@@ -5259,8 +7819,8 @@
       <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="90"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="74" t="str">
         <f>'Detalles plan de riesgo'!F12</f>
         <v xml:space="preserve"> </v>
@@ -5279,13 +7839,13 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="91" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="98"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="72" t="s">
         <v>76</v>
       </c>
@@ -5300,10 +7860,10 @@
       <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="103" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="78" t="str">
@@ -5326,8 +7886,8 @@
       <c r="O15" s="61"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="74" t="str">
         <f>'Detalles plan de riesgo'!F15</f>
         <v xml:space="preserve"> Hacer seguimiento al uso del SVN</v>
@@ -5350,8 +7910,8 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="74" t="str">
         <f>'Detalles plan de riesgo'!F16</f>
         <v xml:space="preserve"> </v>
@@ -5370,8 +7930,8 @@
       <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="74" t="str">
         <f>'Detalles plan de riesgo'!F17</f>
         <v xml:space="preserve"> </v>
@@ -5393,8 +7953,8 @@
       <c r="O18" s="62"/>
     </row>
     <row r="19" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="74" t="str">
         <f>'Detalles plan de riesgo'!F18</f>
         <v xml:space="preserve"> </v>
@@ -5417,13 +7977,13 @@
       <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88"/>
-      <c r="B20" s="91" t="s">
+      <c r="A20" s="90"/>
+      <c r="B20" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="98"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="106"/>
       <c r="F20" s="65"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
@@ -5435,11 +7995,11 @@
       <c r="N20" s="56"/>
       <c r="O20" s="65"/>
     </row>
-    <row r="21" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+    <row r="21" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="103" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="78" t="str">
@@ -5464,8 +8024,8 @@
       <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="74" t="str">
         <f>'Detalles plan de riesgo'!F21</f>
         <v>Realizar pruebas iniciales con datos de ejemplo para identificar alcance</v>
@@ -5488,8 +8048,8 @@
       <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="74" t="str">
         <f>'Detalles plan de riesgo'!F22</f>
         <v xml:space="preserve"> 2 personas deben conocer de un componente tecnologico </v>
@@ -5510,8 +8070,8 @@
       <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="74" t="str">
         <f>'Detalles plan de riesgo'!F23</f>
         <v xml:space="preserve"> </v>
@@ -5534,8 +8094,8 @@
       <c r="O24" s="62"/>
     </row>
     <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="90"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="74" t="str">
         <f>'Detalles plan de riesgo'!F24</f>
         <v xml:space="preserve"> </v>
@@ -5558,11 +8118,11 @@
       <c r="O25" s="62"/>
     </row>
     <row r="26" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
-      <c r="B26" s="91" t="s">
+      <c r="A26" s="90"/>
+      <c r="B26" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="85"/>
       <c r="E26" s="83"/>
       <c r="F26" s="65"/>
@@ -5576,11 +8136,11 @@
       <c r="N26" s="56"/>
       <c r="O26" s="65"/>
     </row>
-    <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="103" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="78" t="str">
@@ -5605,8 +8165,8 @@
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="90"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="74" t="str">
         <f>'Detalles plan de riesgo'!F27</f>
         <v>Si un miembro sabe que no va a estar disponible en una fecha dada, que en lo posible adelante su aporte al trabajo grupal</v>
@@ -5629,8 +8189,8 @@
       <c r="O28" s="62"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="90"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="74" t="str">
         <f>'Detalles plan de riesgo'!F28</f>
         <v xml:space="preserve"> </v>
@@ -5653,8 +8213,8 @@
       <c r="O29" s="62"/>
     </row>
     <row r="30" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="90"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="74" t="str">
         <f>'Detalles plan de riesgo'!F29</f>
         <v xml:space="preserve"> </v>
@@ -5677,8 +8237,8 @@
       <c r="O30" s="62"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="74" t="str">
         <f>'Detalles plan de riesgo'!F30</f>
         <v xml:space="preserve"> </v>
@@ -5697,11 +8257,11 @@
       <c r="O31" s="62"/>
     </row>
     <row r="32" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
-      <c r="B32" s="91" t="s">
+      <c r="A32" s="90"/>
+      <c r="B32" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="84"/>
       <c r="E32" s="83"/>
       <c r="F32" s="65"/>
@@ -5734,302 +8294,302 @@
     <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:O7 D2:D4 F8:O8">
-    <cfRule type="cellIs" dxfId="160" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="77" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="78" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 H12:O12 H18:O19 D24:D25 H24:O25 F31 H29:O31 D29:D30 G9:O11 G21:O23 G27:O28 F13:O14">
-    <cfRule type="cellIs" dxfId="158" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:O20">
-    <cfRule type="cellIs" dxfId="156" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26 F26:O26">
-    <cfRule type="cellIs" dxfId="154" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:O32">
-    <cfRule type="cellIs" dxfId="152" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D13 H12:O12 H18:O19 D24:D25 H24:O25 F31 H29:O31 D29:D30 G2:O4 G9:O11 G21:O23 G27:O28 F13:O13">
-    <cfRule type="cellIs" dxfId="150" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="149" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:O7">
-    <cfRule type="cellIs" dxfId="148" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:O17">
-    <cfRule type="cellIs" dxfId="147" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:O17">
-    <cfRule type="cellIs" dxfId="145" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="144" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="142" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="141" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="139" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="138" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="136" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="cellIs" dxfId="135" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G31">
-    <cfRule type="cellIs" dxfId="132" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G31">
-    <cfRule type="cellIs" dxfId="130" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="129" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="127" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="126" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="124" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="122" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="121" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="119" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="118" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="116" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F23">
-    <cfRule type="cellIs" dxfId="115" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F23">
-    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="cellIs" dxfId="112" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="cellIs" dxfId="110" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="109" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="cellIs" dxfId="106" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="cellIs" dxfId="104" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="cellIs" dxfId="101" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D23">
-    <cfRule type="cellIs" dxfId="99" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="97" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D32">
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7 E21:E32 E9:E13 E15:E19">
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6042,957 +8602,4 @@
   <pageSetup paperSize="119" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="99">
-        <v>3</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2">
-        <v>9</v>
-      </c>
-      <c r="M2" s="99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>3</v>
-      </c>
-      <c r="M3" s="100"/>
-    </row>
-    <row r="4" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>6</v>
-      </c>
-      <c r="M4" s="100"/>
-    </row>
-    <row r="5" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2">
-        <v>3</v>
-      </c>
-      <c r="L5" s="2">
-        <v>9</v>
-      </c>
-      <c r="M5" s="100"/>
-    </row>
-    <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5">
-        <v>27</v>
-      </c>
-      <c r="M6" s="101"/>
-    </row>
-    <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-    </row>
-    <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="99">
-        <v>2</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>3</v>
-      </c>
-      <c r="M8" s="99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2</v>
-      </c>
-      <c r="M9" s="100"/>
-    </row>
-    <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10" s="100"/>
-    </row>
-    <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2">
-        <v>3</v>
-      </c>
-      <c r="M11" s="100"/>
-    </row>
-    <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5">
-        <v>11</v>
-      </c>
-      <c r="M12" s="101"/>
-    </row>
-    <row r="13" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="122" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="125" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="155">
-        <v>1</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="20">
-        <v>1</v>
-      </c>
-      <c r="L14" s="20">
-        <f>K14*E14</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="158" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="120"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <f>K15*E14</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="159"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="120"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="J16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="13">
-        <v>2</v>
-      </c>
-      <c r="L16" s="13">
-        <f>K16*E14</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="159"/>
-    </row>
-    <row r="17" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="13">
-        <v>3</v>
-      </c>
-      <c r="L17" s="13">
-        <f>K17*E14</f>
-        <v>3</v>
-      </c>
-      <c r="M17" s="159"/>
-    </row>
-    <row r="18" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="121"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16">
-        <f>SUM(L14:L17)</f>
-        <v>6</v>
-      </c>
-      <c r="M18" s="160"/>
-    </row>
-    <row r="19" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="132" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="134">
-        <v>3</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7">
-        <v>2</v>
-      </c>
-      <c r="L20" s="5">
-        <v>6</v>
-      </c>
-      <c r="M20" s="149" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="129"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" s="5">
-        <v>6</v>
-      </c>
-      <c r="M21" s="150"/>
-    </row>
-    <row r="22" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="129"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="7">
-        <v>2</v>
-      </c>
-      <c r="L22" s="5">
-        <v>6</v>
-      </c>
-      <c r="M22" s="150"/>
-    </row>
-    <row r="23" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="129"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7">
-        <v>2</v>
-      </c>
-      <c r="L23" s="5">
-        <v>6</v>
-      </c>
-      <c r="M23" s="150"/>
-    </row>
-    <row r="24" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="129"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5">
-        <v>24</v>
-      </c>
-      <c r="M24" s="151"/>
-    </row>
-    <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="161" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-    </row>
-    <row r="26" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="146">
-        <v>3</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="27">
-        <v>3</v>
-      </c>
-      <c r="L26" s="28">
-        <f>E26*K26</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="137" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-    </row>
-    <row r="27" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="30">
-        <v>2</v>
-      </c>
-      <c r="L27" s="31">
-        <f>E26*K27</f>
-        <v>6</v>
-      </c>
-      <c r="M27" s="138"/>
-    </row>
-    <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="33">
-        <v>3</v>
-      </c>
-      <c r="L28" s="34">
-        <f>E26*K28</f>
-        <v>9</v>
-      </c>
-      <c r="M28" s="138"/>
-    </row>
-    <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="35">
-        <v>3</v>
-      </c>
-      <c r="L29" s="31">
-        <f>E26*K29</f>
-        <v>9</v>
-      </c>
-      <c r="M29" s="138"/>
-    </row>
-    <row r="30" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38">
-        <f>SUM(L26:L29)</f>
-        <v>33</v>
-      </c>
-      <c r="M30" s="139"/>
-    </row>
-    <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="140" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="142"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="M8:M12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="M20:M24"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3510" windowWidth="20730" windowHeight="4380"/>
+    <workbookView xWindow="-630" yWindow="3570" windowWidth="20730" windowHeight="4320" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -93,7 +93,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-sep15-sep21</t>
+sep15-sep21 Semana de trabajo individual</t>
         </r>
       </text>
     </comment>
@@ -1593,7 +1593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="120">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -1930,10 +1930,31 @@
     <t xml:space="preserve">Hubo un error de comunicación que retraso un día el avance en el desarrollo del frontend (entresemana) . GM hizo limpieza de datos y considero que ya había dejado los datos como los necesitaba DA y FF, ya que fue notificado del error justo despues que realizo la operacion de liempieza.   </t>
   </si>
   <si>
-    <t xml:space="preserve">Comentarios </t>
-  </si>
-  <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Hemos tenido como medio de comunicación Skype, Hangouts y reuniones presenciales. Y como soportes de la comunicación documentación generada Alojada en Github y Google Drive</t>
+  </si>
+  <si>
+    <t>No fue necesario</t>
+  </si>
+  <si>
+    <t>El documento de integración siempre que se necesito,estuvo creado.</t>
+  </si>
+  <si>
+    <t>Establecer una charla entre los direactamente implicados</t>
+  </si>
+  <si>
+    <t>Hacer copias de seguridad de archivos criticos: SVN</t>
+  </si>
+  <si>
+    <t>Se realizo una copia del estado actual de los archivos importantes de las 3 máquinas</t>
+  </si>
+  <si>
+    <t>No se hizo el adecuado seguimiento de esta tarea, porque no se capacito al equipo en el uso de Tortoise, era algo complejo hacerle seguimiento a todos los repositorios, y al finalizar el ciclo (semana 5) hubo problemas de almacenamiento de los commit, probablemente se llego al topo de espacio permitido en el reporsitorio. Se manejo activamente para el proyecto de Sugarcallout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar copias de seguridad preventivas </t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2040,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2059,6 +2080,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2902,7 +2929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -3149,257 +3176,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -3412,11 +3193,267 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="158">
+  <dxfs count="200">
     <dxf>
       <fill>
         <patternFill>
@@ -3441,6 +3478,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3455,6 +3499,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3469,6 +3520,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3483,6 +3541,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3497,6 +3562,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3532,6 +3604,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3539,6 +3681,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3546,6 +3695,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4323,6 +4486,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4337,6 +4507,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4379,6 +4556,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4393,6 +4577,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4463,6 +4668,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4470,6 +4689,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4477,6 +4710,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4499,6 +4746,90 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4822,8 +5153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4838,7 +5169,7 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="174" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -4857,52 +5188,52 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="176" t="s">
+      <c r="K1" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="176" t="s">
+      <c r="L1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="176" t="s">
+      <c r="M1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="176" t="s">
+      <c r="N1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="176" t="s">
+      <c r="O1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="175" t="s">
+      <c r="P1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="172" t="s">
-        <v>112</v>
+      <c r="R1" s="90" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="str">
+      <c r="A2" s="95" t="str">
         <f>'Detalles plan de riesgo'!A2:A6</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="98" t="str">
         <f>'Detalles plan de riesgo'!B2:B6</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
@@ -4910,7 +5241,7 @@
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
       </c>
-      <c r="D2" s="99"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="80" t="s">
         <v>94</v>
       </c>
@@ -4928,19 +5259,18 @@
       <c r="O2" s="54"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
       <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="81" t="s">
         <v>95</v>
       </c>
@@ -4948,7 +5278,9 @@
         <v>77</v>
       </c>
       <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="H3" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="I3" s="55" t="s">
         <v>77</v>
       </c>
@@ -4962,22 +5294,21 @@
       <c r="O3" s="55"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
       <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="97" t="str">
+      <c r="A4" s="96"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="104" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="101"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="62" t="s">
         <v>47</v>
       </c>
@@ -4994,16 +5325,15 @@
       <c r="O4" s="55"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="97"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="62" t="s">
         <v>49</v>
       </c>
@@ -5018,19 +5348,18 @@
       <c r="O5" s="55"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
       <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="97"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="62" t="s">
         <v>49</v>
       </c>
@@ -5045,16 +5374,15 @@
       <c r="O6" s="55"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="98"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="102"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="62" t="s">
         <v>49</v>
       </c>
@@ -5069,16 +5397,15 @@
       <c r="O7" s="55"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:19" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
-      <c r="B8" s="94" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="72" t="s">
         <v>75</v>
       </c>
@@ -5096,8 +5423,7 @@
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
       <c r="P8" s="65"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
+      <c r="Q8" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5108,67 +5434,67 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E4:E7"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:R7 D2 F8:R8 D4">
-    <cfRule type="cellIs" dxfId="157" priority="12" operator="equal">
+  <conditionalFormatting sqref="D2 F8:Q8 D4 G2:Q7">
+    <cfRule type="cellIs" dxfId="187" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 G2:R4">
-    <cfRule type="cellIs" dxfId="155" priority="11" operator="equal">
+  <conditionalFormatting sqref="D2 G2:Q4">
+    <cfRule type="cellIs" dxfId="185" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="154" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="10" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:R7">
-    <cfRule type="cellIs" dxfId="153" priority="9" operator="equal">
+  <conditionalFormatting sqref="G5:Q7">
+    <cfRule type="cellIs" dxfId="183" priority="9" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="152" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="8" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="6" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="149" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="4" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E4">
-    <cfRule type="cellIs" dxfId="147" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="2" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="3" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="145" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:R7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:Q7">
       <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5182,9 +5508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5199,7 +5523,7 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="174" customWidth="1"/>
+    <col min="18" max="18" width="37.140625" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -5218,51 +5542,51 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="176" t="s">
+      <c r="K1" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="176" t="s">
+      <c r="L1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="176" t="s">
+      <c r="M1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="176" t="s">
+      <c r="N1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="176" t="s">
+      <c r="O1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="175" t="s">
+      <c r="P1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="172" t="s">
+      <c r="R1" s="90" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="110" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="78" t="s">
@@ -5285,52 +5609,63 @@
       <c r="J2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="54"/>
+      <c r="K2" s="54" t="s">
+        <v>47</v>
+      </c>
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="R2" s="92" t="s">
+        <v>112</v>
+      </c>
       <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F2</f>
-        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
+      <c r="A3" s="96"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="74" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="81"/>
       <c r="F3" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
       <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F3</f>
-        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
+    <row r="4" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="96"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="74" t="s">
+        <v>84</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="81" t="s">
@@ -5339,22 +5674,37 @@
       <c r="F4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="G4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
       <c r="O4" s="55"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="R4" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -5366,53 +5716,75 @@
       <c r="F5" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
+      <c r="G5" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="180" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>49</v>
+      </c>
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
       <c r="O5" s="55"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
       <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="104"/>
+    <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="96"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="88" t="s">
+        <v>115</v>
+      </c>
       <c r="E6" s="81"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
+      <c r="F6" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="180" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>49</v>
+      </c>
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
       <c r="O6" s="55"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="106"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="113"/>
       <c r="F7" s="72" t="s">
         <v>76</v>
       </c>
@@ -5428,8 +5800,7 @@
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
       <c r="P7" s="65"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
+      <c r="Q7" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5437,76 +5808,128 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:E7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6 H5:R5 G2:R4 F6:R7">
-    <cfRule type="cellIs" dxfId="144" priority="15" operator="equal">
+  <conditionalFormatting sqref="G2:Q4 F7:Q7 L5:Q6">
+    <cfRule type="cellIs" dxfId="174" priority="27" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="28" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6 H5:R5 G2:R4 F6:R6">
-    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
+  <conditionalFormatting sqref="G2:Q4 L5:Q6">
+    <cfRule type="cellIs" dxfId="172" priority="26" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="141" priority="12" operator="equal">
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="cellIs" dxfId="171" priority="24" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="25" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="139" priority="11" operator="equal">
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="cellIs" dxfId="169" priority="23" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="21" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="22" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="136" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="20" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="cellIs" dxfId="165" priority="18" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="19" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="133" priority="5" operator="equal">
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="cellIs" dxfId="163" priority="17" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="132" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="13" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="14" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="cellIs" dxfId="158" priority="11" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="12" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H6">
+    <cfRule type="cellIs" dxfId="156" priority="10" operator="equal">
+      <formula>$S$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I6">
+    <cfRule type="cellIs" dxfId="155" priority="8" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="9" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I6">
+    <cfRule type="cellIs" dxfId="153" priority="7" operator="equal">
+      <formula>$S$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6">
+    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J6">
+    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
+      <formula>$S$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="cellIs" dxfId="149" priority="2" operator="equal">
+      <formula>$S$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="3" operator="equal">
+      <formula>$S$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
+      <formula>$S$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 F2:R6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:Q6">
       <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5520,14 +5943,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="174"/>
+    <col min="18" max="18" width="33.5703125" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5546,54 +5974,55 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="176" t="s">
+      <c r="K1" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="176" t="s">
+      <c r="L1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="176" t="s">
+      <c r="M1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="176" t="s">
+      <c r="N1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="176" t="s">
+      <c r="O1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="175" t="s">
+      <c r="P1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="172"/>
+      <c r="R1" s="90" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="78" t="str">
-        <f>'Detalles plan de riesgo'!F1</f>
-        <v>Respuestas Planificadas</v>
+      <c r="C2" s="78" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="80"/>
@@ -5611,17 +6040,15 @@
       <c r="O2" s="54"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
       <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F2</f>
-        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="96"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="74" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="81" t="s">
@@ -5630,29 +6057,38 @@
       <c r="F3" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="G3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="R3" s="146" t="s">
+        <v>118</v>
+      </c>
       <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F3</f>
-        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
-      </c>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="96"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="75"/>
       <c r="E4" s="81"/>
       <c r="F4" s="62"/>
@@ -5667,19 +6103,16 @@
       <c r="O4" s="55"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="104"/>
+      <c r="R4" s="146"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="74" t="str">
-        <f>'Detalles plan de riesgo'!G4</f>
-        <v xml:space="preserve"> Contingencia</v>
-      </c>
+      <c r="D5" s="74"/>
       <c r="E5" s="81"/>
       <c r="F5" s="73"/>
       <c r="G5" s="55"/>
@@ -5693,14 +6126,14 @@
       <c r="O5" s="55"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="R5" s="146"/>
       <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="104"/>
+    <row r="6" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="96"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -5723,17 +6156,18 @@
       <c r="O6" s="55"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="105" t="s">
+    </row>
+    <row r="7" spans="1:19" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="97"/>
+      <c r="B7" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="65"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="72" t="s">
+        <v>117</v>
+      </c>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -5744,93 +6178,93 @@
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
       <c r="P7" s="65"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
+      <c r="Q7" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="R3:R5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:R6">
-    <cfRule type="cellIs" dxfId="128" priority="17" operator="equal">
+  <conditionalFormatting sqref="H5:Q6">
+    <cfRule type="cellIs" dxfId="146" priority="17" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="18" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:R7">
-    <cfRule type="cellIs" dxfId="126" priority="15" operator="equal">
+  <conditionalFormatting sqref="F7:Q7">
+    <cfRule type="cellIs" dxfId="144" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:R6">
-    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
+  <conditionalFormatting sqref="H5:Q6">
+    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:R4">
-    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
+  <conditionalFormatting sqref="F2:Q4">
+    <cfRule type="cellIs" dxfId="141" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:R4">
-    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
+  <conditionalFormatting sqref="F2:Q4">
+    <cfRule type="cellIs" dxfId="139" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="8" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F2:F4 G2:R6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F2:F4 G2:Q6">
       <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5844,14 +6278,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="174"/>
+    <col min="18" max="18" width="12.85546875" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5870,49 +6312,51 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="176" t="s">
+      <c r="K1" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="176" t="s">
+      <c r="L1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="176" t="s">
+      <c r="M1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="176" t="s">
+      <c r="N1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="176" t="s">
+      <c r="O1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="175" t="s">
+      <c r="P1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="172"/>
+      <c r="R1" s="90" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="110" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="78" t="str">
@@ -5937,14 +6381,13 @@
       <c r="O2" s="54"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
       <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
@@ -5967,14 +6410,13 @@
       <c r="O3" s="55"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
       <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="104"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -5995,11 +6437,10 @@
       <c r="O4" s="55"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -6022,14 +6463,13 @@
       <c r="O5" s="55"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
       <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -6052,14 +6492,13 @@
       <c r="O6" s="55"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="85"/>
       <c r="E7" s="83"/>
       <c r="F7" s="65"/>
@@ -6073,8 +6512,7 @@
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
       <c r="P7" s="65"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
+      <c r="Q7" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6082,84 +6520,84 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D6 H5:R6 G2:R4 F7:R7">
-    <cfRule type="cellIs" dxfId="110" priority="17" operator="equal">
+  <conditionalFormatting sqref="D5:D6 H5:Q6 G2:Q4 F7:Q7">
+    <cfRule type="cellIs" dxfId="128" priority="17" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="18" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="108" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 H5:R6 G2:R4">
-    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
+  <conditionalFormatting sqref="D5:D6 H5:Q6 G2:Q4">
+    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="105" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="103" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="102" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 F2:R6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 F2:Q6">
       <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -6174,13 +6612,13 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="174"/>
+    <col min="18" max="18" width="12.85546875" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6199,54 +6637,55 @@
       <c r="E1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="176" t="s">
+      <c r="J1" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="176" t="s">
+      <c r="K1" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="176" t="s">
+      <c r="L1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="176" t="s">
+      <c r="M1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="176" t="s">
+      <c r="N1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="176" t="s">
+      <c r="O1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="175" t="s">
+      <c r="P1" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="175" t="s">
+      <c r="Q1" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="172"/>
-    </row>
-    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="R1" s="90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="78" t="str">
-        <f>'Detalles plan de riesgo'!F1</f>
-        <v>Respuestas Planificadas</v>
+      <c r="C2" s="78" t="s">
+        <v>116</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="80" t="s">
@@ -6266,14 +6705,13 @@
       <c r="O2" s="54"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
       <c r="S2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
@@ -6296,14 +6734,13 @@
       <c r="O3" s="55"/>
       <c r="P3" s="62"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
       <c r="S3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="104"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -6326,11 +6763,10 @@
       <c r="O4" s="55"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -6353,14 +6789,13 @@
       <c r="O5" s="55"/>
       <c r="P5" s="62"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
       <c r="S5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -6379,14 +6814,13 @@
       <c r="O6" s="55"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="105" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="84"/>
       <c r="E7" s="83"/>
       <c r="F7" s="65"/>
@@ -6400,8 +6834,7 @@
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
       <c r="P7" s="65"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
+      <c r="Q7" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6409,105 +6842,105 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 H4:R6 D4:D5 G2:R3">
-    <cfRule type="cellIs" dxfId="92" priority="22" operator="equal">
+  <conditionalFormatting sqref="F6 H4:Q6 D4:D5 G2:Q3">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:R7">
-    <cfRule type="cellIs" dxfId="90" priority="20" operator="equal">
+  <conditionalFormatting sqref="F7:Q7">
+    <cfRule type="cellIs" dxfId="108" priority="20" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="21" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 H4:R6 D4:D5 G2:R3">
-    <cfRule type="cellIs" dxfId="88" priority="19" operator="equal">
+  <conditionalFormatting sqref="F6 H4:Q6 D4:D5 G2:Q3">
+    <cfRule type="cellIs" dxfId="106" priority="19" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="87" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="17" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="18" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="85" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="16" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="84" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="13" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="81" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="11" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="12" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="10" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="9" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5 F2:R6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5 F2:Q6">
       <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -6520,8 +6953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6578,19 +7011,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="119">
+      <c r="E2" s="114">
         <v>3</v>
       </c>
       <c r="F2" s="57" t="s">
@@ -6614,16 +7047,16 @@
       <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="119" t="s">
+      <c r="M2" s="114" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="58" t="s">
         <v>54</v>
       </c>
@@ -6643,14 +7076,14 @@
       <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="120"/>
+      <c r="M3" s="115"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
@@ -6672,14 +7105,14 @@
       <c r="L4" s="2">
         <v>6</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="115"/>
     </row>
     <row r="5" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="9" t="s">
         <v>52</v>
       </c>
@@ -6701,14 +7134,14 @@
       <c r="L5" s="2">
         <v>9</v>
       </c>
-      <c r="M5" s="120"/>
+      <c r="M5" s="115"/>
     </row>
     <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="10" t="s">
         <v>52</v>
       </c>
@@ -6728,7 +7161,7 @@
       <c r="L6" s="5">
         <v>27</v>
       </c>
-      <c r="M6" s="121"/>
+      <c r="M6" s="116"/>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -6740,33 +7173,33 @@
       <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
       <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="119">
+      <c r="E8" s="114">
         <v>2</v>
       </c>
       <c r="F8" s="58" t="s">
@@ -6788,16 +7221,16 @@
       <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="119" t="s">
+      <c r="M8" s="114" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
       <c r="F9" s="47" t="s">
         <v>58</v>
       </c>
@@ -6817,14 +7250,14 @@
       <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="120"/>
+      <c r="M9" s="115"/>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="47" t="s">
         <v>84</v>
       </c>
@@ -6844,14 +7277,14 @@
       <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="120"/>
+      <c r="M10" s="115"/>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
       <c r="F11" s="48" t="s">
         <v>52</v>
       </c>
@@ -6873,14 +7306,14 @@
       <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="120"/>
+      <c r="M11" s="115"/>
     </row>
     <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="58" t="s">
         <v>52</v>
       </c>
@@ -6896,7 +7329,7 @@
       <c r="L12" s="5">
         <v>11</v>
       </c>
-      <c r="M12" s="121"/>
+      <c r="M12" s="116"/>
     </row>
     <row r="13" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -6908,33 +7341,33 @@
       <c r="C13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
       <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="133" t="s">
+      <c r="D14" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="170">
         <v>1</v>
       </c>
       <c r="F14" s="58" t="s">
@@ -6957,16 +7390,16 @@
         <f>K14*E14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="139" t="s">
+      <c r="M14" s="173" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="155"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="137"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="171"/>
       <c r="F15" s="47" t="s">
         <v>64</v>
       </c>
@@ -6987,21 +7420,23 @@
         <f>K15*E14</f>
         <v>0</v>
       </c>
-      <c r="M15" s="140"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="137"/>
+      <c r="M15" s="174"/>
+    </row>
+    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="135"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="171"/>
       <c r="F16" s="47" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>61</v>
+      </c>
       <c r="J16" s="12" t="s">
         <v>13</v>
       </c>
@@ -7012,26 +7447,20 @@
         <f>K16*E14</f>
         <v>2</v>
       </c>
-      <c r="M16" s="140"/>
-    </row>
-    <row r="17" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="155"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="137"/>
+      <c r="M16" s="174"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="135"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="171"/>
       <c r="F17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="12" t="s">
         <v>14</v>
       </c>
@@ -7042,14 +7471,14 @@
         <f>K17*E14</f>
         <v>3</v>
       </c>
-      <c r="M17" s="140"/>
+      <c r="M17" s="174"/>
     </row>
     <row r="18" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="156"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="138"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="172"/>
       <c r="F18" s="58" t="s">
         <v>52</v>
       </c>
@@ -7066,7 +7495,7 @@
         <f>SUM(L14:L17)</f>
         <v>6</v>
       </c>
-      <c r="M18" s="141"/>
+      <c r="M18" s="175"/>
     </row>
     <row r="19" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
@@ -7078,33 +7507,33 @@
       <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="165" t="s">
+      <c r="B20" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="149">
         <v>3</v>
       </c>
       <c r="F20" s="58" t="s">
@@ -7124,16 +7553,16 @@
       <c r="L20" s="5">
         <v>6</v>
       </c>
-      <c r="M20" s="130" t="s">
+      <c r="M20" s="164" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="164"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="111"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="150"/>
       <c r="F21" s="47" t="s">
         <v>66</v>
       </c>
@@ -7151,14 +7580,14 @@
       <c r="L21" s="5">
         <v>6</v>
       </c>
-      <c r="M21" s="131"/>
+      <c r="M21" s="165"/>
     </row>
     <row r="22" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="164"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="111"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="150"/>
       <c r="F22" s="47" t="s">
         <v>67</v>
       </c>
@@ -7176,14 +7605,14 @@
       <c r="L22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="131"/>
+      <c r="M22" s="165"/>
     </row>
     <row r="23" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="111"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="150"/>
       <c r="F23" s="48" t="s">
         <v>52</v>
       </c>
@@ -7203,14 +7632,14 @@
       <c r="L23" s="5">
         <v>6</v>
       </c>
-      <c r="M23" s="131"/>
+      <c r="M23" s="165"/>
     </row>
     <row r="24" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="112"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="151"/>
       <c r="F24" s="58" t="s">
         <v>52</v>
       </c>
@@ -7228,7 +7657,7 @@
       <c r="L24" s="5">
         <v>24</v>
       </c>
-      <c r="M24" s="132"/>
+      <c r="M24" s="166"/>
     </row>
     <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
@@ -7240,36 +7669,36 @@
       <c r="C25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="142" t="s">
+      <c r="D25" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="144"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="178"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="145" t="s">
+      <c r="A26" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="151" t="s">
+      <c r="C26" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="127">
+      <c r="E26" s="161">
         <v>3</v>
       </c>
       <c r="F26" s="58" t="s">
@@ -7290,7 +7719,7 @@
         <f>E26*K26</f>
         <v>9</v>
       </c>
-      <c r="M26" s="113" t="s">
+      <c r="M26" s="152" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="25"/>
@@ -7298,11 +7727,11 @@
       <c r="P26" s="25"/>
     </row>
     <row r="27" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="146"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="128"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="162"/>
       <c r="F27" s="47" t="s">
         <v>69</v>
       </c>
@@ -7321,14 +7750,14 @@
         <f>E26*K27</f>
         <v>6</v>
       </c>
-      <c r="M27" s="114"/>
+      <c r="M27" s="153"/>
     </row>
     <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="149"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="128"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="162"/>
       <c r="F28" s="47" t="s">
         <v>52</v>
       </c>
@@ -7349,14 +7778,14 @@
         <f>E26*K28</f>
         <v>9</v>
       </c>
-      <c r="M28" s="114"/>
+      <c r="M28" s="153"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="146"/>
-      <c r="B29" s="149"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="128"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="162"/>
       <c r="F29" s="48" t="s">
         <v>52</v>
       </c>
@@ -7377,14 +7806,14 @@
         <f>E26*K29</f>
         <v>9</v>
       </c>
-      <c r="M29" s="114"/>
+      <c r="M29" s="153"/>
     </row>
     <row r="30" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="129"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="163"/>
       <c r="F30" s="58" t="s">
         <v>52</v>
       </c>
@@ -7401,7 +7830,7 @@
         <f>SUM(L26:L29)</f>
         <v>33</v>
       </c>
-      <c r="M30" s="115"/>
+      <c r="M30" s="154"/>
     </row>
     <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
@@ -7413,42 +7842,21 @@
       <c r="C31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="116" t="s">
+      <c r="D31" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="118"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="M26:M30"/>
@@ -7463,6 +7871,27 @@
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="M14:M18"/>
     <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7538,11 +7967,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="str">
+      <c r="A2" s="95" t="str">
         <f>'Detalles plan de riesgo'!A2:A6</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="98" t="str">
         <f>'Detalles plan de riesgo'!B2:B6</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
@@ -7571,8 +8000,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="74" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
@@ -7600,8 +8029,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="74"/>
       <c r="D4" s="75" t="s">
         <v>104</v>
@@ -7623,8 +8052,8 @@
       <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="74" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -7650,8 +8079,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="74" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -7674,8 +8103,8 @@
       <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="93"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="82" t="str">
         <f>'Detalles plan de riesgo'!F6</f>
         <v xml:space="preserve"> </v>
@@ -7698,13 +8127,13 @@
       <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
-      <c r="B8" s="94" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="72" t="s">
         <v>75</v>
       </c>
@@ -7723,10 +8152,10 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="103">
+      <c r="B9" s="110">
         <f>'Detalles plan de riesgo'!B8:B12</f>
         <v>0</v>
       </c>
@@ -7749,8 +8178,8 @@
       <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="74" t="str">
         <f>'Detalles plan de riesgo'!F9</f>
         <v xml:space="preserve"> Fijar reuniones semanales de seguimiento </v>
@@ -7771,8 +8200,8 @@
       <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="74" t="str">
         <f>'Detalles plan de riesgo'!F10</f>
         <v>Generar archivos de seguimiento al proyecto, formatos por rol  y formato de integración de componentes</v>
@@ -7795,8 +8224,8 @@
       <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="74" t="str">
         <f>'Detalles plan de riesgo'!F11</f>
         <v xml:space="preserve"> </v>
@@ -7819,8 +8248,8 @@
       <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="74" t="str">
         <f>'Detalles plan de riesgo'!F12</f>
         <v xml:space="preserve"> </v>
@@ -7839,13 +8268,13 @@
       <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="105" t="s">
+      <c r="A14" s="97"/>
+      <c r="B14" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="106"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="72" t="s">
         <v>76</v>
       </c>
@@ -7860,10 +8289,10 @@
       <c r="O14" s="65"/>
     </row>
     <row r="15" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="110" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="78" t="str">
@@ -7886,8 +8315,8 @@
       <c r="O15" s="61"/>
     </row>
     <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="74" t="str">
         <f>'Detalles plan de riesgo'!F15</f>
         <v xml:space="preserve"> Hacer seguimiento al uso del SVN</v>
@@ -7910,11 +8339,11 @@
       <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="104"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="74" t="str">
         <f>'Detalles plan de riesgo'!F16</f>
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">Realizar copias de seguridad preventivas </v>
       </c>
       <c r="D17" s="75"/>
       <c r="E17" s="81"/>
@@ -7930,15 +8359,15 @@
       <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="104"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="74" t="str">
         <f>'Detalles plan de riesgo'!F17</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D18" s="74" t="str">
+      <c r="D18" s="74">
         <f>'Detalles plan de riesgo'!G17</f>
-        <v xml:space="preserve"> Contingencia</v>
+        <v>0</v>
       </c>
       <c r="E18" s="81"/>
       <c r="F18" s="73"/>
@@ -7953,8 +8382,8 @@
       <c r="O18" s="62"/>
     </row>
     <row r="19" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="74" t="str">
         <f>'Detalles plan de riesgo'!F18</f>
         <v xml:space="preserve"> </v>
@@ -7977,13 +8406,13 @@
       <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="105" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="106"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="65"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
@@ -7996,10 +8425,10 @@
       <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="110" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="78" t="str">
@@ -8024,8 +8453,8 @@
       <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="104"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="74" t="str">
         <f>'Detalles plan de riesgo'!F21</f>
         <v>Realizar pruebas iniciales con datos de ejemplo para identificar alcance</v>
@@ -8048,8 +8477,8 @@
       <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="74" t="str">
         <f>'Detalles plan de riesgo'!F22</f>
         <v xml:space="preserve"> 2 personas deben conocer de un componente tecnologico </v>
@@ -8070,8 +8499,8 @@
       <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="104"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="74" t="str">
         <f>'Detalles plan de riesgo'!F23</f>
         <v xml:space="preserve"> </v>
@@ -8094,8 +8523,8 @@
       <c r="O24" s="62"/>
     </row>
     <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="74" t="str">
         <f>'Detalles plan de riesgo'!F24</f>
         <v xml:space="preserve"> </v>
@@ -8118,11 +8547,11 @@
       <c r="O25" s="62"/>
     </row>
     <row r="26" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="105" t="s">
+      <c r="A26" s="97"/>
+      <c r="B26" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="93"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="85"/>
       <c r="E26" s="83"/>
       <c r="F26" s="65"/>
@@ -8137,10 +8566,10 @@
       <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="110" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="78" t="str">
@@ -8165,8 +8594,8 @@
       <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="104"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="74" t="str">
         <f>'Detalles plan de riesgo'!F27</f>
         <v>Si un miembro sabe que no va a estar disponible en una fecha dada, que en lo posible adelante su aporte al trabajo grupal</v>
@@ -8189,8 +8618,8 @@
       <c r="O28" s="62"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="74" t="str">
         <f>'Detalles plan de riesgo'!F28</f>
         <v xml:space="preserve"> </v>
@@ -8213,8 +8642,8 @@
       <c r="O29" s="62"/>
     </row>
     <row r="30" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="74" t="str">
         <f>'Detalles plan de riesgo'!F29</f>
         <v xml:space="preserve"> </v>
@@ -8237,8 +8666,8 @@
       <c r="O30" s="62"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="104"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="74" t="str">
         <f>'Detalles plan de riesgo'!F30</f>
         <v xml:space="preserve"> </v>
@@ -8257,11 +8686,11 @@
       <c r="O31" s="62"/>
     </row>
     <row r="32" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90"/>
-      <c r="B32" s="105" t="s">
+      <c r="A32" s="97"/>
+      <c r="B32" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="93"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="84"/>
       <c r="E32" s="83"/>
       <c r="F32" s="65"/>
@@ -8294,302 +8723,302 @@
     <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:O7 D2:D4 F8:O8">
-    <cfRule type="cellIs" dxfId="69" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 H12:O12 H18:O19 D24:D25 H24:O25 F31 H29:O31 D29:D30 G9:O11 G21:O23 G27:O28 F13:O14">
-    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="75" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:O20">
-    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26 F26:O26">
-    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:O32">
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D13 H12:O12 H18:O19 D24:D25 H24:O25 F31 H29:O31 D29:D30 G2:O4 G9:O11 G21:O23 G27:O28 F13:O13">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:O7">
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:O17">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:O17">
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="53" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="54" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="52" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="51" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="46" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="44" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="45" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G25">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G31">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G31">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="40" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F23">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F23">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D23">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D32">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7 E21:E32 E9:E13 E15:E19">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>$P$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>$P$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>$P$5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3570" windowWidth="20730" windowHeight="4320" activeTab="5"/>
+    <workbookView xWindow="-630" yWindow="3630" windowWidth="20730" windowHeight="4260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="R22" sheetId="10" r:id="rId4"/>
     <sheet name="R23" sheetId="11" r:id="rId5"/>
     <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId6"/>
-    <sheet name="Riesgos" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -339,6 +338,54 @@
           </rPr>
           <t xml:space="preserve">
 Se verifica por las actualizaciones realizadas en github.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No se hizo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No se hizo</t>
         </r>
       </text>
     </comment>
@@ -1558,42 +1605,8 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Gabriel Martinez</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gabriel Martinez:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Se verifica por las actualizaciones realizadas en github.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="124">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -1704,9 +1717,6 @@
   </si>
   <si>
     <t>Ciclo 2 Semana 4</t>
-  </si>
-  <si>
-    <t>Ciclo 2 Semana 5</t>
   </si>
   <si>
     <t>Ciclo 3 Semana 1</t>
@@ -1906,9 +1916,6 @@
     <t>Falta reporte de tiempos de Felipe</t>
   </si>
   <si>
-    <t>Falta reporte de tiempos de GM por perdida de datos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notificar al integrante que reporte los tiempos </t>
   </si>
   <si>
@@ -1939,15 +1946,9 @@
     <t>No fue necesario</t>
   </si>
   <si>
-    <t>El documento de integración siempre que se necesito,estuvo creado.</t>
-  </si>
-  <si>
     <t>Establecer una charla entre los direactamente implicados</t>
   </si>
   <si>
-    <t>Hacer copias de seguridad de archivos criticos: SVN</t>
-  </si>
-  <si>
     <t>Se realizo una copia del estado actual de los archivos importantes de las 3 máquinas</t>
   </si>
   <si>
@@ -1955,6 +1956,30 @@
   </si>
   <si>
     <t xml:space="preserve">Realizar copias de seguridad preventivas </t>
+  </si>
+  <si>
+    <t>La mayoria de los integrantes del grupo reporto semanalmente los tiempos</t>
+  </si>
+  <si>
+    <t>El documento de integración siempre que se necesito,estuvo creado. Los de rol se crearon y se publicaron a tiempo</t>
+  </si>
+  <si>
+    <t>Hubo una reunión grupal para limar asperesas</t>
+  </si>
+  <si>
+    <t>Se utilizo para recuperar datos originales</t>
+  </si>
+  <si>
+    <t>Se pidio soporte para reiniciar las máquinas</t>
+  </si>
+  <si>
+    <t>No hubo docuemnto de disponibilidad, pero se informo oportunamente las ausencias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corregir los fallos presentados </t>
+  </si>
+  <si>
+    <t>Cuando se presentaron fallos de inetragración estos se corrigieron</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -3084,9 +3109,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
@@ -3142,9 +3164,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3193,6 +3212,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3250,6 +3282,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3265,6 +3333,132 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3283,177 +3477,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="132">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3485,6 +3642,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3492,6 +3656,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3506,6 +3684,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3520,6 +3705,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3548,6 +3768,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3555,6 +3782,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3562,6 +3803,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3569,6 +3824,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3576,6 +3838,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3583,6 +3852,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3604,6 +3901,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3611,6 +3922,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3618,6 +3943,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3625,6 +3964,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3653,6 +3999,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3702,6 +4055,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3709,6 +4069,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3723,6 +4097,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3737,6 +4118,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3744,6 +4132,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3751,6 +4146,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3758,6 +4160,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3800,6 +4209,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3807,6 +4244,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3814,6 +4258,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3828,6 +4286,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3835,6 +4307,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3863,6 +4349,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3884,952 +4384,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5153,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5169,261 +4724,317 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="11" width="16" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="92" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" style="90" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="88" t="s">
         <v>109</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="90" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="str">
+      <c r="A2" s="98" t="str">
         <f>'Detalles plan de riesgo'!A2:A6</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="98" t="str">
+      <c r="B2" s="101" t="str">
         <f>'Detalles plan de riesgo'!B2:B6</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
-      <c r="C2" s="78" t="str">
+      <c r="C2" s="76" t="str">
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="61"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="60"/>
       <c r="Q2" s="25"/>
+      <c r="R2" s="96"/>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="74" t="str">
+    <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="73" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="62"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="61"/>
       <c r="Q3" s="25"/>
+      <c r="R3" s="96" t="s">
+        <v>116</v>
+      </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="104" t="str">
+      <c r="A4" s="99"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="107" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="62"/>
+      <c r="D4" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="61"/>
       <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="62"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="111"/>
+      <c r="F5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="61"/>
       <c r="Q5" s="25"/>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="62"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="111"/>
+      <c r="F6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="62"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="112"/>
+      <c r="F7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="61"/>
       <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:19" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="91"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5435,61 +5046,61 @@
     <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="D2 F8:Q8 D4 G2:Q7">
-    <cfRule type="cellIs" dxfId="187" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 G2:Q4">
-    <cfRule type="cellIs" dxfId="185" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="184" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="10" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:Q7">
-    <cfRule type="cellIs" dxfId="183" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="9" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="8" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="180" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="6" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="179" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="178" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E4">
-    <cfRule type="cellIs" dxfId="177" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5508,7 +5119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5523,284 +5136,286 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" style="92" customWidth="1"/>
+    <col min="18" max="18" width="45.140625" style="90" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="61"/>
+      <c r="G2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="60"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="92" t="s">
-        <v>112</v>
+      <c r="R2" s="96" t="s">
+        <v>110</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="62"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="61"/>
       <c r="Q3" s="25"/>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="62"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="61"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="179" t="s">
-        <v>114</v>
+      <c r="R4" s="96" t="s">
+        <v>117</v>
       </c>
       <c r="S4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="74" t="str">
+      <c r="A5" s="99"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="73" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="180" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="62"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="61"/>
       <c r="Q5" s="25"/>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="74" t="str">
+      <c r="A6" s="99"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="73" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="180" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="62"/>
+      <c r="D6" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="91"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5809,122 +5424,122 @@
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:Q4 F7:Q7 L5:Q6">
-    <cfRule type="cellIs" dxfId="174" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="27" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="28" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:Q4 L5:Q6">
-    <cfRule type="cellIs" dxfId="172" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="26" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="171" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="24" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="25" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="169" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="168" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="21" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="22" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="166" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="20" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="165" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="18" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="19" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="163" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="162" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="160" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="14" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="158" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="11" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="12" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="156" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I6">
-    <cfRule type="cellIs" dxfId="155" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="8" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="9" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I6">
-    <cfRule type="cellIs" dxfId="153" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J6">
-    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J6">
-    <cfRule type="cellIs" dxfId="150" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="149" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5944,7 +5559,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5955,230 +5570,252 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="33.5703125" style="92" customWidth="1"/>
+    <col min="18" max="18" width="33.5703125" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="F1" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="94" t="s">
+      <c r="J1" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="K1" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="N1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="O1" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="94" t="s">
+      <c r="P1" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="90" t="s">
-        <v>111</v>
+      <c r="Q1" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="88" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="60"/>
       <c r="Q2" s="25"/>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="62"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="61"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="146" t="s">
-        <v>118</v>
+      <c r="R3" s="117" t="s">
+        <v>114</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="62"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="61"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="146"/>
+      <c r="R4" s="117"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="74" t="str">
+      <c r="A5" s="99"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="73" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="62"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="61"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="146"/>
+      <c r="R5" s="117"/>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="74" t="str">
+      <c r="A6" s="99"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="73" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="62"/>
+      <c r="D6" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="91"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6187,79 +5824,79 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="R3:R5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:Q6">
-    <cfRule type="cellIs" dxfId="146" priority="17" operator="equal">
+  <conditionalFormatting sqref="H5:Q5 L6:Q6">
+    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:Q7">
-    <cfRule type="cellIs" dxfId="144" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:Q6">
-    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
+  <conditionalFormatting sqref="H5:Q5 L6:Q6">
+    <cfRule type="cellIs" dxfId="86" priority="14" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:Q4">
-    <cfRule type="cellIs" dxfId="141" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:Q4">
-    <cfRule type="cellIs" dxfId="139" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
+  <conditionalFormatting sqref="G5:G6 H6:K6">
+    <cfRule type="cellIs" dxfId="82" priority="9" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="10" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="136" priority="8" operator="equal">
+  <conditionalFormatting sqref="G5:G6 H6:K6">
+    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="7" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="133" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="132" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="130" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6276,10 +5913,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6293,311 +5930,378 @@
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="92" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" style="90" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="102" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="182" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="78" t="str">
-        <f>'Detalles plan de riesgo'!F1</f>
-        <v>Respuestas Planificadas</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="61"/>
+      <c r="G2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="60"/>
       <c r="Q2" s="25"/>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F2</f>
-        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="62"/>
+    <row r="3" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="99"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="61"/>
       <c r="Q3" s="25"/>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F3</f>
-        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="62"/>
+    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="99"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="61"/>
       <c r="Q4" s="25"/>
     </row>
-    <row r="5" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F4</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="62"/>
+    <row r="5" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="61"/>
       <c r="Q5" s="25"/>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="62"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="25"/>
+      <c r="R6" s="96" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="112" t="s">
+    <row r="7" spans="1:19" s="90" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="99"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="91"/>
+      <c r="G7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="100"/>
+      <c r="B8" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D6 H5:Q6 G2:Q4 F7:Q7">
-    <cfRule type="cellIs" dxfId="128" priority="17" operator="equal">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="126" priority="15" operator="equal">
+  <conditionalFormatting sqref="G5:K7">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 H5:Q6 G2:Q4">
-    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
+  <conditionalFormatting sqref="G5:K7">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
+  <conditionalFormatting sqref="F2:F4 G4:K4">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
+  <conditionalFormatting sqref="F2:F4 G4:K4">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
+  <conditionalFormatting sqref="F5:F7">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+  <conditionalFormatting sqref="F5:F7">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 F2:Q6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:Q7">
       <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -6612,229 +6316,269 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="92" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="90" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="61"/>
+      <c r="G2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="60"/>
       <c r="Q2" s="25"/>
+      <c r="R2" s="96" t="s">
+        <v>121</v>
+      </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F2</f>
-        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
+      <c r="A3" s="99"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="95" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="62"/>
+      <c r="E3" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="61"/>
       <c r="Q3" s="25"/>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F3</f>
-        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="62"/>
+    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="99"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="79"/>
+      <c r="F4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="61"/>
       <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="74" t="str">
+      <c r="A5" s="99"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="73" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="62"/>
+      <c r="D5" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="61"/>
       <c r="Q5" s="25"/>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="74" t="str">
+      <c r="A6" s="99"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="73" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="62"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="91"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6842,100 +6586,100 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 H4:Q6 D4:D5 G2:Q3">
-    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
+  <conditionalFormatting sqref="F6 D4:D5 H6:Q6 L2:Q5">
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:Q7">
-    <cfRule type="cellIs" dxfId="108" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 H4:Q6 D4:D5 G2:Q3">
-    <cfRule type="cellIs" dxfId="106" priority="19" operator="equal">
+  <conditionalFormatting sqref="F6 D4:D5 H6:Q6 L2:Q5">
+    <cfRule type="cellIs" dxfId="68" priority="19" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="105" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="103" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
+  <conditionalFormatting sqref="G5:G6 H5:K5">
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="100" priority="13" operator="equal">
+  <conditionalFormatting sqref="G5:G6 H5:K5">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="99" priority="11" operator="equal">
+  <conditionalFormatting sqref="F2:K3">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="cellIs" dxfId="97" priority="10" operator="equal">
+  <conditionalFormatting sqref="F2:K3">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
+  <conditionalFormatting sqref="F4:F5 G4:K4">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F5">
-    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
+  <conditionalFormatting sqref="F4:F5 G4:K4">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6953,8 +6697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,16 +6730,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>45</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>5</v>
@@ -7011,32 +6755,32 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="122" t="s">
+      <c r="B2" s="176" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="129">
+        <v>3</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="114">
-        <v>3</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>82</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -7047,26 +6791,26 @@
       <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="129" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="58" t="s">
-        <v>54</v>
+      <c r="A3" s="130"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="57" t="s">
+        <v>53</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="58"/>
+        <v>55</v>
+      </c>
+      <c r="I3" s="57"/>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
@@ -7076,25 +6820,25 @@
       <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="115"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="57" t="s">
         <v>52</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
@@ -7105,25 +6849,25 @@
       <c r="L4" s="2">
         <v>6</v>
       </c>
-      <c r="M4" s="115"/>
+      <c r="M4" s="130"/>
     </row>
     <row r="5" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>78</v>
+        <v>51</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>77</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
@@ -7134,25 +6878,25 @@
       <c r="L5" s="2">
         <v>9</v>
       </c>
-      <c r="M5" s="115"/>
+      <c r="M5" s="130"/>
     </row>
     <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="116"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="67" t="s">
         <v>56</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>15</v>
@@ -7161,7 +6905,7 @@
       <c r="L6" s="5">
         <v>27</v>
       </c>
-      <c r="M6" s="116"/>
+      <c r="M6" s="131"/>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -7173,43 +6917,43 @@
       <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
+      <c r="D7" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
       <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="114" t="s">
+      <c r="B8" s="176" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="129">
         <v>2</v>
       </c>
-      <c r="F8" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>80</v>
+      <c r="F8" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>79</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="1" t="s">
@@ -7221,24 +6965,24 @@
       <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="114" t="s">
+      <c r="M8" s="129" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="1" t="s">
@@ -7250,22 +6994,22 @@
       <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="115"/>
+      <c r="M9" s="130"/>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="1" t="s">
@@ -7277,22 +7021,22 @@
       <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="115"/>
+      <c r="M10" s="130"/>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
       <c r="F11" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>24</v>
@@ -7306,19 +7050,19 @@
       <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="115"/>
+      <c r="M11" s="130"/>
     </row>
     <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="116"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>52</v>
+      <c r="A12" s="131"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -7329,7 +7073,7 @@
       <c r="L12" s="5">
         <v>11</v>
       </c>
-      <c r="M12" s="116"/>
+      <c r="M12" s="131"/>
     </row>
     <row r="13" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -7341,43 +7085,43 @@
       <c r="C13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
+      <c r="D13" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
       <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="170">
+      <c r="E14" s="146">
         <v>1</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>80</v>
+      <c r="F14" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>79</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="19" t="s">
@@ -7390,24 +7134,24 @@
         <f>K14*E14</f>
         <v>1</v>
       </c>
-      <c r="M14" s="173" t="s">
+      <c r="M14" s="149" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="135"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="171"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="12" t="s">
@@ -7420,22 +7164,22 @@
         <f>K15*E14</f>
         <v>0</v>
       </c>
-      <c r="M15" s="174"/>
+      <c r="M15" s="150"/>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="135"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="171"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="89" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="H16" s="87" t="s">
+        <v>60</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>13</v>
@@ -7447,18 +7191,18 @@
         <f>K16*E14</f>
         <v>2</v>
       </c>
-      <c r="M16" s="174"/>
+      <c r="M16" s="150"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="171"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="147"/>
       <c r="F17" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="60"/>
+        <v>51</v>
+      </c>
+      <c r="G17" s="59"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="12" t="s">
@@ -7471,19 +7215,19 @@
         <f>K17*E14</f>
         <v>3</v>
       </c>
-      <c r="M17" s="174"/>
+      <c r="M17" s="150"/>
     </row>
     <row r="18" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>52</v>
+      <c r="A18" s="166"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -7495,7 +7239,7 @@
         <f>SUM(L14:L17)</f>
         <v>6</v>
       </c>
-      <c r="M18" s="175"/>
+      <c r="M18" s="151"/>
     </row>
     <row r="19" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
@@ -7507,40 +7251,40 @@
       <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
+      <c r="D19" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="146" t="s">
+      <c r="B20" s="175" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="147" t="s">
+      <c r="D20" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="149">
+      <c r="E20" s="120">
         <v>3</v>
       </c>
-      <c r="F20" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>80</v>
+      <c r="F20" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>79</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -7553,21 +7297,21 @@
       <c r="L20" s="5">
         <v>6</v>
       </c>
-      <c r="M20" s="164" t="s">
+      <c r="M20" s="140" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="150"/>
+      <c r="A21" s="174"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -7580,19 +7324,19 @@
       <c r="L21" s="5">
         <v>6</v>
       </c>
-      <c r="M21" s="165"/>
+      <c r="M21" s="141"/>
     </row>
     <row r="22" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="150"/>
+      <c r="A22" s="174"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -7605,23 +7349,23 @@
       <c r="L22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="165"/>
+      <c r="M22" s="141"/>
     </row>
     <row r="23" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="144"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="150"/>
+      <c r="A23" s="174"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>14</v>
@@ -7632,23 +7376,23 @@
       <c r="L23" s="5">
         <v>6</v>
       </c>
-      <c r="M23" s="165"/>
+      <c r="M23" s="141"/>
     </row>
     <row r="24" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="144"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70" t="s">
-        <v>72</v>
+      <c r="A24" s="174"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69" t="s">
+        <v>71</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>15</v>
@@ -7657,7 +7401,7 @@
       <c r="L24" s="5">
         <v>24</v>
       </c>
-      <c r="M24" s="166"/>
+      <c r="M24" s="142"/>
     </row>
     <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
@@ -7669,43 +7413,43 @@
       <c r="C25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="178"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="154"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="158" t="s">
+      <c r="C26" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="161">
+      <c r="E26" s="137">
         <v>3</v>
       </c>
-      <c r="F26" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>80</v>
+      <c r="F26" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>79</v>
       </c>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
@@ -7719,7 +7463,7 @@
         <f>E26*K26</f>
         <v>9</v>
       </c>
-      <c r="M26" s="152" t="s">
+      <c r="M26" s="123" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="25"/>
@@ -7727,16 +7471,16 @@
       <c r="P26" s="25"/>
     </row>
     <row r="27" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="126"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="162"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="138"/>
       <c r="F27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
@@ -7750,23 +7494,23 @@
         <f>E26*K27</f>
         <v>6</v>
       </c>
-      <c r="M27" s="153"/>
+      <c r="M27" s="124"/>
     </row>
     <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="126"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="162"/>
+      <c r="A28" s="156"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="138"/>
       <c r="F28" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>79</v>
+        <v>51</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>78</v>
       </c>
       <c r="H28" s="44"/>
-      <c r="I28" s="71" t="s">
-        <v>71</v>
+      <c r="I28" s="70" t="s">
+        <v>70</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>13</v>
@@ -7778,23 +7522,23 @@
         <f>E26*K28</f>
         <v>9</v>
       </c>
-      <c r="M28" s="153"/>
+      <c r="M28" s="124"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="162"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="138"/>
       <c r="F29" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>79</v>
+        <v>51</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>78</v>
       </c>
       <c r="H29" s="44"/>
-      <c r="I29" s="71" t="s">
-        <v>70</v>
+      <c r="I29" s="70" t="s">
+        <v>69</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>14</v>
@@ -7806,19 +7550,19 @@
         <f>E26*K29</f>
         <v>9</v>
       </c>
-      <c r="M29" s="153"/>
+      <c r="M29" s="124"/>
     </row>
     <row r="30" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>52</v>
+      <c r="A30" s="157"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
@@ -7830,33 +7574,54 @@
         <f>SUM(L26:L29)</f>
         <v>33</v>
       </c>
-      <c r="M30" s="154"/>
+      <c r="M30" s="125"/>
     </row>
     <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="157"/>
+      <c r="D31" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="M26:M30"/>
@@ -7871,1164 +7636,8 @@
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="M14:M18"/>
     <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="str">
-        <f>'Detalles plan de riesgo'!A2:A6</f>
-        <v>R3</v>
-      </c>
-      <c r="B2" s="98" t="str">
-        <f>'Detalles plan de riesgo'!B2:B6</f>
-        <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
-      </c>
-      <c r="C2" s="78" t="str">
-        <f>'Detalles plan de riesgo'!F2</f>
-        <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="61"/>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F3</f>
-        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="62"/>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="62"/>
-    </row>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F4</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="62"/>
-      <c r="P5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="62"/>
-    </row>
-    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="82" t="str">
-        <f>'Detalles plan de riesgo'!F6</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="62"/>
-    </row>
-    <row r="8" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="65"/>
-    </row>
-    <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="110">
-        <f>'Detalles plan de riesgo'!B8:B12</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="61"/>
-    </row>
-    <row r="10" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F9</f>
-        <v xml:space="preserve"> Fijar reuniones semanales de seguimiento </v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="62"/>
-    </row>
-    <row r="11" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F10</f>
-        <v>Generar archivos de seguimiento al proyecto, formatos por rol  y formato de integración de componentes</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="62"/>
-    </row>
-    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="62"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F12</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="62"/>
-    </row>
-    <row r="14" spans="1:16" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
-      <c r="B14" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="65"/>
-    </row>
-    <row r="15" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="78" t="str">
-        <f>'Detalles plan de riesgo'!F14</f>
-        <v xml:space="preserve">Hacer copias de seguridad de archivos criticos: SVN </v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="61"/>
-    </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F15</f>
-        <v xml:space="preserve"> Hacer seguimiento al uso del SVN</v>
-      </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="62"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F16</f>
-        <v xml:space="preserve">Realizar copias de seguridad preventivas </v>
-      </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="62"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F17</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D18" s="74">
-        <f>'Detalles plan de riesgo'!G17</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="62"/>
-    </row>
-    <row r="19" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F18</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="62"/>
-    </row>
-    <row r="20" spans="1:15" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
-      <c r="B20" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="65"/>
-    </row>
-    <row r="21" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="78" t="str">
-        <f>'Detalles plan de riesgo'!F20</f>
-        <v>Comunicación inicial para planear el trabajo y entender el flujo de cada operación por tecnología / documento de integracion</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="61"/>
-    </row>
-    <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F21</f>
-        <v>Realizar pruebas iniciales con datos de ejemplo para identificar alcance</v>
-      </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="62"/>
-    </row>
-    <row r="23" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F22</f>
-        <v xml:space="preserve"> 2 personas deben conocer de un componente tecnologico </v>
-      </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="62"/>
-    </row>
-    <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F23</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D24" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="62"/>
-    </row>
-    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F24</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="62"/>
-    </row>
-    <row r="26" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="65"/>
-    </row>
-    <row r="27" spans="1:15" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="78" t="str">
-        <f>'Detalles plan de riesgo'!F26</f>
-        <v>Tener en cuenta horarios de no disponibilidad previemente notificados por los integrantes al momento de realizar la planeacion de tareas</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="61"/>
-    </row>
-    <row r="28" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="96"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F27</f>
-        <v>Si un miembro sabe que no va a estar disponible en una fecha dada, que en lo posible adelante su aporte al trabajo grupal</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="62"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="96"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F28</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D29" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="62"/>
-    </row>
-    <row r="30" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F29</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="62"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="74" t="str">
-        <f>'Detalles plan de riesgo'!F30</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="62"/>
-    </row>
-    <row r="32" spans="1:15" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
-      <c r="B32" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B14:E14"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G2:O7 D2:D4 F8:O8">
-    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13 H12:O12 H18:O19 D24:D25 H24:O25 F31 H29:O31 D29:D30 G9:O11 G21:O23 G27:O28 F13:O14">
-    <cfRule type="cellIs" dxfId="85" priority="75" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:O20">
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26 F26:O26">
-    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:O32">
-    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D13 H12:O12 H18:O19 D24:D25 H24:O25 F31 H29:O31 D29:D30 G2:O4 G9:O11 G21:O23 G27:O28 F13:O13">
-    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:O7">
-    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:O17">
-    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:O17">
-    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="71" priority="53" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="54" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="69" priority="52" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="51" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="63" priority="46" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="cellIs" dxfId="62" priority="44" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="45" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G31">
-    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G31">
-    <cfRule type="cellIs" dxfId="57" priority="40" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="31" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F23">
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F23">
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F30">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F30">
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D17">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D23">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7 E21:E32 E9:E13 E15:E19">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
-      <formula>$P$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>$P$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
-      <formula>$P$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D28:D30 F27:O31 F21:O25 F19 G15:O19 D13 F15:F17 F9:O13 F2:O7">
-      <formula1>$P$2:$P$5</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3630" windowWidth="20730" windowHeight="4260" activeTab="1"/>
+    <workbookView xWindow="-630" yWindow="3690" windowWidth="19695" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -1606,7 +1606,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="126">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -1946,9 +1946,6 @@
     <t>No fue necesario</t>
   </si>
   <si>
-    <t>Establecer una charla entre los direactamente implicados</t>
-  </si>
-  <si>
     <t>Se realizo una copia del estado actual de los archivos importantes de las 3 máquinas</t>
   </si>
   <si>
@@ -1980,6 +1977,15 @@
   </si>
   <si>
     <t>Cuando se presentaron fallos de inetragración estos se corrigieron</t>
+  </si>
+  <si>
+    <t>Establecer una charla entre los directamente implicados</t>
+  </si>
+  <si>
+    <t>Se aplico</t>
+  </si>
+  <si>
+    <t>No fue necesario aplicarla</t>
   </si>
 </sst>
 </file>
@@ -2954,7 +2960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -3225,6 +3231,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3476,15 +3491,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="97">
     <dxf>
       <fill>
         <patternFill>
@@ -3530,6 +3542,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3544,6 +3563,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3551,6 +3584,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3558,6 +3605,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3565,6 +3626,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3593,6 +3661,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3671,314 +3746,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4708,8 +4475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4784,11 +4551,11 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="str">
+      <c r="A2" s="101" t="str">
         <f>'Detalles plan de riesgo'!A2:A6</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="101" t="str">
+      <c r="B2" s="104" t="str">
         <f>'Detalles plan de riesgo'!B2:B6</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
@@ -4796,7 +4563,7 @@
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
       </c>
-      <c r="D2" s="109"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="78" t="s">
         <v>93</v>
       </c>
@@ -4830,13 +4597,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="73" t="str">
         <f>'Detalles plan de riesgo'!F3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="79" t="s">
         <v>94</v>
       </c>
@@ -4865,23 +4632,23 @@
       <c r="P3" s="61"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="107" t="str">
+      <c r="A4" s="102"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="110" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="61" t="s">
         <v>46</v>
       </c>
@@ -4908,13 +4675,13 @@
       <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="107"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="61" t="s">
         <v>48</v>
       </c>
@@ -4944,13 +4711,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="107"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="111"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="61" t="s">
         <v>48</v>
       </c>
@@ -4975,15 +4742,18 @@
       <c r="O6" s="54"/>
       <c r="P6" s="61"/>
       <c r="Q6" s="25"/>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="112"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="61" t="s">
         <v>48</v>
       </c>
@@ -5008,15 +4778,18 @@
       <c r="O7" s="54"/>
       <c r="P7" s="61"/>
       <c r="Q7" s="25"/>
+      <c r="S7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="104" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="71" t="s">
         <v>74</v>
       </c>
@@ -5046,61 +4819,61 @@
     <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="D2 F8:Q8 D4 G2:Q7">
-    <cfRule type="cellIs" dxfId="131" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 G2:Q4">
-    <cfRule type="cellIs" dxfId="129" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="128" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:Q7">
-    <cfRule type="cellIs" dxfId="127" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="126" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="8" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="124" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E4">
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5119,8 +4892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5196,10 +4969,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="116" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="76" t="s">
@@ -5239,8 +5012,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="114"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="73" t="s">
         <v>57</v>
       </c>
@@ -5275,8 +5048,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="114"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="73" t="s">
         <v>83</v>
       </c>
@@ -5309,15 +5082,15 @@
       <c r="P4" s="61"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="73" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -5355,14 +5128,14 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="114"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="73" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="61" t="s">
@@ -5391,13 +5164,13 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="115" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="116"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="71" t="s">
         <v>75</v>
       </c>
@@ -5408,7 +5181,7 @@
         <v>108</v>
       </c>
       <c r="K7" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
@@ -5424,122 +5197,122 @@
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:Q4 F7:Q7 L5:Q6">
-    <cfRule type="cellIs" dxfId="118" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="27" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="28" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:Q4 L5:Q6">
-    <cfRule type="cellIs" dxfId="116" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="115" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="112" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="110" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="20" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="109" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="106" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="102" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I6">
-    <cfRule type="cellIs" dxfId="99" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I6">
-    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J6">
-    <cfRule type="cellIs" dxfId="96" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J6">
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5630,10 +5403,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="116" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="76" t="s">
@@ -5670,8 +5443,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="114"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="73" t="s">
         <v>63</v>
       </c>
@@ -5703,16 +5476,16 @@
       <c r="O3" s="54"/>
       <c r="P3" s="61"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="117" t="s">
-        <v>114</v>
+      <c r="R3" s="120" t="s">
+        <v>113</v>
       </c>
       <c r="S3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="114"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
       <c r="E4" s="79"/>
@@ -5728,11 +5501,11 @@
       <c r="O4" s="54"/>
       <c r="P4" s="61"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="117"/>
+      <c r="R4" s="120"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="73" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -5751,14 +5524,14 @@
       <c r="O5" s="54"/>
       <c r="P5" s="61"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="117"/>
+      <c r="R5" s="120"/>
       <c r="S5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="114"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="73" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -5793,22 +5566,22 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="115" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="116"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
@@ -5825,78 +5598,78 @@
     <mergeCell ref="R3:R5"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:Q5 L6:Q6">
-    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="18" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:Q7">
-    <cfRule type="cellIs" dxfId="88" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:Q5 L6:Q6">
-    <cfRule type="cellIs" dxfId="86" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:Q4">
-    <cfRule type="cellIs" dxfId="85" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:Q4">
-    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6 H6:K6">
-    <cfRule type="cellIs" dxfId="82" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6 H6:K6">
-    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5915,8 +5688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5990,13 +5763,13 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="100" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="77"/>
@@ -6032,8 +5805,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="114"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="95" t="s">
         <v>65</v>
       </c>
@@ -6070,8 +5843,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="114"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="95" t="s">
         <v>66</v>
       </c>
@@ -6103,8 +5876,8 @@
       <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="93"/>
       <c r="D5" s="93" t="s">
         <v>88</v>
@@ -6138,9 +5911,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="114"/>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="93"/>
       <c r="D6" s="93" t="s">
         <v>71</v>
@@ -6171,15 +5944,15 @@
       <c r="P6" s="61"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="90" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
+    <row r="7" spans="1:19" s="90" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="102"/>
       <c r="B7" s="94"/>
       <c r="C7" s="93"/>
       <c r="D7" s="93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="61" t="s">
@@ -6207,15 +5980,15 @@
       <c r="P7" s="61"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="115" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="83"/>
       <c r="E8" s="81"/>
       <c r="F8" s="64"/>
@@ -6238,65 +6011,65 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:K7">
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:K7">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4 G4:K4">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4 G4:K4">
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6315,7 +6088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -6383,10 +6156,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="116" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -6421,15 +6194,15 @@
       <c r="P2" s="60"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="114"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="95" t="s">
         <v>68</v>
       </c>
@@ -6466,8 +6239,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="114"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="73"/>
       <c r="D4" s="75" t="s">
         <v>70</v>
@@ -6499,8 +6272,8 @@
       <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="73" t="str">
         <f>'Detalles plan de riesgo'!F4</f>
         <v xml:space="preserve"> </v>
@@ -6538,8 +6311,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="114"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="73" t="str">
         <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
@@ -6560,11 +6333,11 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="115" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="82"/>
       <c r="E7" s="81"/>
       <c r="F7" s="64"/>
@@ -6587,99 +6360,99 @@
     <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="F6 D4:D5 H6:Q6 L2:Q5">
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:Q7">
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 D4:D5 H6:Q6 L2:Q5">
-    <cfRule type="cellIs" dxfId="68" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="67" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6 H5:K5">
-    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G6 H5:K5">
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:K3">
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:K3">
-    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5 G4:K4">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5 G4:K4">
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$S$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6695,10 +6468,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6755,19 +6528,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="129">
+      <c r="E2" s="132">
         <v>3</v>
       </c>
       <c r="F2" s="56" t="s">
@@ -6791,16 +6564,16 @@
       <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="129" t="s">
+      <c r="M2" s="132" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
       <c r="F3" s="57" t="s">
         <v>53</v>
       </c>
@@ -6820,14 +6593,14 @@
       <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="130"/>
+      <c r="M3" s="133"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="9" t="s">
         <v>51</v>
       </c>
@@ -6849,14 +6622,14 @@
       <c r="L4" s="2">
         <v>6</v>
       </c>
-      <c r="M4" s="130"/>
+      <c r="M4" s="133"/>
     </row>
     <row r="5" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="130"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="9" t="s">
         <v>51</v>
       </c>
@@ -6878,14 +6651,14 @@
       <c r="L5" s="2">
         <v>9</v>
       </c>
-      <c r="M5" s="130"/>
+      <c r="M5" s="133"/>
     </row>
     <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="10" t="s">
         <v>51</v>
       </c>
@@ -6905,7 +6678,7 @@
       <c r="L6" s="5">
         <v>27</v>
       </c>
-      <c r="M6" s="131"/>
+      <c r="M6" s="134"/>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -6917,33 +6690,33 @@
       <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
       <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="129">
+      <c r="E8" s="132">
         <v>2</v>
       </c>
       <c r="F8" s="57" t="s">
@@ -6965,16 +6738,16 @@
       <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="129" t="s">
+      <c r="M8" s="132" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="47" t="s">
         <v>57</v>
       </c>
@@ -6994,14 +6767,14 @@
       <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="130"/>
+      <c r="M9" s="133"/>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
       <c r="F10" s="47" t="s">
         <v>83</v>
       </c>
@@ -7021,14 +6794,14 @@
       <c r="L10" s="2">
         <v>3</v>
       </c>
-      <c r="M10" s="130"/>
+      <c r="M10" s="133"/>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="48" t="s">
         <v>51</v>
       </c>
@@ -7050,273 +6823,267 @@
       <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="130"/>
+      <c r="M11" s="133"/>
     </row>
-    <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="57" t="s">
+    <row r="12" spans="1:13" s="90" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="133"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="133"/>
+    </row>
+    <row r="13" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="134"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="3" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5">
+      <c r="K13" s="4"/>
+      <c r="L13" s="5">
         <v>11</v>
       </c>
-      <c r="M12" s="131"/>
+      <c r="M13" s="134"/>
     </row>
-    <row r="13" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="14" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D14" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="164" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="167" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="170" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="146">
-        <v>1</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="20">
-        <v>1</v>
-      </c>
-      <c r="L14" s="20">
-        <f>K14*E14</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="149" t="s">
-        <v>11</v>
-      </c>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="165"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="58" t="s">
+      <c r="A15" s="167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="149">
+        <v>1</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <f>K15*E14</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="150"/>
+      <c r="H15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="20">
+        <v>1</v>
+      </c>
+      <c r="L15" s="20">
+        <f>K15*E15</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="152" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="165"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="147"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="150"/>
       <c r="F16" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <f>K16*E15</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="153"/>
+    </row>
+    <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="168"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H17" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K17" s="13">
         <v>2</v>
       </c>
-      <c r="L16" s="13">
-        <f>K16*E14</f>
+      <c r="L17" s="13">
+        <f>K17*E15</f>
         <v>2</v>
       </c>
-      <c r="M16" s="150"/>
+      <c r="M17" s="153"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="165"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="48" t="s">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="168"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="12" t="s">
+      <c r="G18" s="59"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>3</v>
       </c>
-      <c r="L17" s="13">
-        <f>K17*E14</f>
+      <c r="L18" s="13">
+        <f>K18*E15</f>
         <v>3</v>
       </c>
-      <c r="M17" s="150"/>
+      <c r="M18" s="153"/>
     </row>
-    <row r="18" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="166"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="57" t="s">
+    <row r="19" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="169"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G19" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="14" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16">
-        <f>SUM(L14:L17)</f>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16">
+        <f>SUM(L15:L18)</f>
         <v>6</v>
       </c>
-      <c r="M18" s="151"/>
+      <c r="M19" s="154"/>
     </row>
-    <row r="19" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    <row r="20" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="132" t="s">
+      <c r="D20" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
     </row>
-    <row r="20" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="173" t="s">
+    <row r="21" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="175" t="s">
+      <c r="B21" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C21" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="118" t="s">
+      <c r="D21" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E21" s="123">
         <v>3</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F21" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7">
-        <v>2</v>
-      </c>
-      <c r="L20" s="5">
-        <v>6</v>
-      </c>
-      <c r="M20" s="140" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="57" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7">
         <v>2</v>
@@ -7324,16 +7091,18 @@
       <c r="L21" s="5">
         <v>6</v>
       </c>
-      <c r="M21" s="141"/>
+      <c r="M21" s="143" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="174"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="121"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="58" t="s">
         <v>79</v>
@@ -7341,7 +7110,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7">
         <v>2</v>
@@ -7349,26 +7118,24 @@
       <c r="L22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="141"/>
+      <c r="M22" s="144"/>
     </row>
-    <row r="23" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="174"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69" t="s">
-        <v>88</v>
-      </c>
+    <row r="23" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="177"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7">
         <v>2</v>
@@ -7376,228 +7143,255 @@
       <c r="L23" s="5">
         <v>6</v>
       </c>
-      <c r="M23" s="141"/>
+      <c r="M23" s="144"/>
     </row>
-    <row r="24" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="57" t="s">
+    <row r="24" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="177"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="59" t="s">
         <v>78</v>
       </c>
       <c r="H24" s="69"/>
       <c r="I24" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2</v>
+      </c>
+      <c r="L24" s="5">
+        <v>6</v>
+      </c>
+      <c r="M24" s="144"/>
+    </row>
+    <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="177"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5">
+      <c r="K25" s="4"/>
+      <c r="L25" s="5">
         <v>24</v>
       </c>
-      <c r="M24" s="142"/>
+      <c r="M25" s="145"/>
     </row>
-    <row r="25" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+    <row r="26" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="152" t="s">
+      <c r="D26" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-    </row>
-    <row r="26" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="158" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="161" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="137">
-        <v>3</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="27">
-        <v>3</v>
-      </c>
-      <c r="L26" s="28">
-        <f>E26*K26</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="123" t="s">
-        <v>17</v>
-      </c>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="157"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="156"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="47" t="s">
+    <row r="27" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="161" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="164" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="140">
+        <v>3</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="28">
+        <f>E27*K27</f>
+        <v>9</v>
+      </c>
+      <c r="M27" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="159"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G28" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="29" t="s">
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K28" s="30">
         <v>2</v>
       </c>
-      <c r="L27" s="31">
-        <f>E26*K27</f>
+      <c r="L28" s="31">
+        <f>E27*K28</f>
         <v>6</v>
       </c>
-      <c r="M27" s="124"/>
-    </row>
-    <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="156"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="33">
-        <v>3</v>
-      </c>
-      <c r="L28" s="34">
-        <f>E26*K28</f>
-        <v>9</v>
-      </c>
-      <c r="M28" s="124"/>
+      <c r="M28" s="127"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="156"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="48" t="s">
+      <c r="A29" s="159"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="58" t="s">
         <v>78</v>
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="33">
+        <v>3</v>
+      </c>
+      <c r="L29" s="34">
+        <f>E27*K29</f>
+        <v>9</v>
+      </c>
+      <c r="M29" s="127"/>
+    </row>
+    <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="159"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J30" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K30" s="35">
         <v>3</v>
       </c>
-      <c r="L29" s="31">
-        <f>E26*K29</f>
+      <c r="L30" s="31">
+        <f>E27*K30</f>
         <v>9</v>
       </c>
-      <c r="M29" s="124"/>
+      <c r="M30" s="127"/>
     </row>
-    <row r="30" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="157"/>
-      <c r="B30" s="160"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="57" t="s">
+    <row r="31" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="160"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G31" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="36" t="s">
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38">
-        <f>SUM(L26:L29)</f>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38">
+        <f>SUM(L27:L30)</f>
         <v>33</v>
       </c>
-      <c r="M30" s="125"/>
+      <c r="M31" s="128"/>
     </row>
-    <row r="31" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+    <row r="32" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B32" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="126" t="s">
+      <c r="D32" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="128"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -7608,34 +7402,34 @@
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="M8:M12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="M20:M24"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="M27:M31"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="M15:M19"/>
+    <mergeCell ref="D26:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3690" windowWidth="19695" windowHeight="3810"/>
+    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 septiembre 1 - septiembre 7</t>
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep8-sep14</t>
@@ -80,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep15-sep21 Semana de trabajo individual</t>
@@ -104,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -113,7 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep22-sep28</t>
@@ -128,7 +128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -137,7 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep29-oct5
@@ -153,7 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -162,7 +162,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 oct 6- oct 13
@@ -178,7 +178,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -187,7 +187,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 oct 14- oct 19
@@ -203,7 +203,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -212,7 +212,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 oct 20 - oct 26</t>
@@ -227,7 +227,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -236,7 +236,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 oct 27 - nov 2
@@ -252,7 +252,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -261,7 +261,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nov 3 - nov 9
@@ -277,7 +277,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -286,7 +286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nov 10 - nov 16</t>
@@ -301,7 +301,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -310,14 +310,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nov 17 - 27</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -358,14 +358,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-No se hizo</t>
+La diferencia fue de una hora. Y fue solo para esa semana y no el acumulado</t>
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +373,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -382,10 +382,58 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-No se hizo</t>
+En esta semana el tiempo real fue mayor al planeado para la semana.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En esta semana el tiempo real fue mayor al planeado para la semana.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En esta semana el tiempo real fue mayor al planeado para la semana.</t>
         </r>
       </text>
     </comment>
@@ -407,7 +455,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -416,7 +464,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 septiembre 1 - septiembre 7</t>
@@ -431,7 +479,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -440,7 +488,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep8-sep14</t>
@@ -455,7 +503,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -464,7 +512,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep15-sep21</t>
@@ -479,7 +527,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -488,7 +536,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep22-sep28</t>
@@ -503,7 +551,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -512,7 +560,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep29-oct5
@@ -528,7 +576,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -537,7 +585,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 oct 6- oct 13
@@ -553,7 +601,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -562,10 +610,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 14- oct 19
+oct 6- oct 13
 </t>
         </r>
       </text>
@@ -578,7 +626,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -587,10 +635,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 20 - oct 26</t>
+oct 14- oct 19
+</t>
         </r>
       </text>
     </comment>
@@ -602,7 +651,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -611,11 +660,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 27 - nov 2
-</t>
+oct 20 - oct 26</t>
         </r>
       </text>
     </comment>
@@ -627,7 +675,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -636,10 +684,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-nov 3 - nov 9
+oct 27 - nov 2
 </t>
         </r>
       </text>
@@ -652,7 +700,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -661,10 +709,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-nov 10 - nov 16</t>
+nov 3 - nov 9
+</t>
         </r>
       </text>
     </comment>
@@ -676,7 +725,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -685,7 +734,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nov 17 - 27</t>
@@ -710,7 +783,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -719,7 +792,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 septiembre 1 - septiembre 7</t>
@@ -734,7 +807,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -743,7 +816,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep8-sep14</t>
@@ -758,7 +831,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -767,7 +840,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep15-sep21</t>
@@ -782,7 +855,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -791,7 +864,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep22-sep28</t>
@@ -806,7 +879,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -815,7 +888,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep29-oct5
@@ -831,7 +904,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -840,7 +913,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 oct 6- oct 13
@@ -856,7 +929,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -865,10 +938,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 14- oct 19
+oct 6- oct 13
 </t>
         </r>
       </text>
@@ -881,7 +954,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -890,10 +963,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 20 - oct 26</t>
+oct 14- oct 19
+</t>
         </r>
       </text>
     </comment>
@@ -905,7 +979,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -914,11 +988,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 27 - nov 2
-</t>
+oct 20 - oct 26</t>
         </r>
       </text>
     </comment>
@@ -930,7 +1003,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -939,10 +1012,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-nov 3 - nov 9
+oct 27 - nov 2
 </t>
         </r>
       </text>
@@ -955,7 +1028,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -964,10 +1037,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-nov 10 - nov 16</t>
+nov 3 - nov 9
+</t>
         </r>
       </text>
     </comment>
@@ -979,7 +1053,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -988,7 +1062,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nov 17 - 27</t>
@@ -1013,7 +1111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1022,7 +1120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 septiembre 1 - septiembre 7</t>
@@ -1037,7 +1135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1046,7 +1144,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep8-sep14</t>
@@ -1061,7 +1159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1070,7 +1168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep15-sep21</t>
@@ -1085,7 +1183,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1094,7 +1192,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep22-sep28</t>
@@ -1109,7 +1207,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1118,7 +1216,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep29-oct5
@@ -1134,7 +1232,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1143,7 +1241,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 oct 6- oct 13
@@ -1159,7 +1257,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1168,10 +1266,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 14- oct 19
+oct 6- oct 13
 </t>
         </r>
       </text>
@@ -1184,7 +1282,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1193,10 +1291,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 20 - oct 26</t>
+oct 14- oct 19
+</t>
         </r>
       </text>
     </comment>
@@ -1208,7 +1307,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1217,11 +1316,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 27 - nov 2
-</t>
+oct 20 - oct 26</t>
         </r>
       </text>
     </comment>
@@ -1233,7 +1331,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1242,10 +1340,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-nov 3 - nov 9
+oct 27 - nov 2
 </t>
         </r>
       </text>
@@ -1258,7 +1356,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1267,10 +1365,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-nov 10 - nov 16</t>
+nov 3 - nov 9
+</t>
         </r>
       </text>
     </comment>
@@ -1282,7 +1381,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1291,7 +1390,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nov 17 - 27</t>
@@ -1316,7 +1439,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1325,7 +1448,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 septiembre 1 - septiembre 7</t>
@@ -1340,7 +1463,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1349,7 +1472,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep8-sep14</t>
@@ -1364,7 +1487,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1373,7 +1496,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep15-sep21</t>
@@ -1388,7 +1511,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1397,7 +1520,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep22-sep28</t>
@@ -1412,7 +1535,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1421,7 +1544,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sep29-oct5
@@ -1437,7 +1560,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1446,7 +1569,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 oct 6- oct 13
@@ -1462,7 +1585,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1471,10 +1594,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 14- oct 19
+oct 6- oct 13
 </t>
         </r>
       </text>
@@ -1487,7 +1610,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1496,10 +1619,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 20 - oct 26</t>
+oct 14- oct 19
+</t>
         </r>
       </text>
     </comment>
@@ -1511,7 +1635,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1520,11 +1644,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-oct 27 - nov 2
-</t>
+oct 20 - oct 26</t>
         </r>
       </text>
     </comment>
@@ -1536,7 +1659,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1545,10 +1668,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-nov 3 - nov 9
+oct 27 - nov 2
 </t>
         </r>
       </text>
@@ -1561,7 +1684,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1570,10 +1693,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-nov 10 - nov 16</t>
+nov 3 - nov 9
+</t>
         </r>
       </text>
     </comment>
@@ -1585,7 +1709,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Gabriel Martinez:</t>
         </r>
@@ -1594,7 +1718,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 nov 17 - 27</t>
@@ -1606,7 +1754,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="141">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -1800,18 +1948,12 @@
     <t xml:space="preserve"> Hacer seguimiento al uso del SVN</t>
   </si>
   <si>
-    <t>Realizar copias de seguridad preventivas</t>
-  </si>
-  <si>
     <t>Realizar pruebas iniciales con datos de ejemplo para identificar alcance</t>
   </si>
   <si>
     <t xml:space="preserve"> 2 personas deben conocer de un componente tecnologico </t>
   </si>
   <si>
-    <t>Tener en cuenta horarios de no disponibilidad previemente notificados por los integrantes al momento de realizar la planeacion de tareas</t>
-  </si>
-  <si>
     <t>Si un miembro sabe que no va a estar disponible en una fecha dada, que en lo posible adelante su aporte al trabajo grupal</t>
   </si>
   <si>
@@ -1885,10 +2027,6 @@
   </si>
   <si>
     <t>Verificación</t>
-  </si>
-  <si>
-    <t>- Reporte de horas ejecutadas sobre planeadas
--Reporte de valor ganado sobre planeado</t>
   </si>
   <si>
     <t>- Reporte de tiempos de cada integrante en el Dashboard</t>
@@ -1943,9 +2081,6 @@
     <t>Hemos tenido como medio de comunicación Skype, Hangouts y reuniones presenciales. Y como soportes de la comunicación documentación generada Alojada en Github y Google Drive</t>
   </si>
   <si>
-    <t>No fue necesario</t>
-  </si>
-  <si>
     <t>Se realizo una copia del estado actual de los archivos importantes de las 3 máquinas</t>
   </si>
   <si>
@@ -1955,18 +2090,12 @@
     <t xml:space="preserve">Realizar copias de seguridad preventivas </t>
   </si>
   <si>
-    <t>La mayoria de los integrantes del grupo reporto semanalmente los tiempos</t>
-  </si>
-  <si>
     <t>El documento de integración siempre que se necesito,estuvo creado. Los de rol se crearon y se publicaron a tiempo</t>
   </si>
   <si>
     <t>Hubo una reunión grupal para limar asperesas</t>
   </si>
   <si>
-    <t>Se utilizo para recuperar datos originales</t>
-  </si>
-  <si>
     <t>Se pidio soporte para reiniciar las máquinas</t>
   </si>
   <si>
@@ -1982,17 +2111,80 @@
     <t>Establecer una charla entre los directamente implicados</t>
   </si>
   <si>
-    <t>Se aplico</t>
-  </si>
-  <si>
-    <t>No fue necesario aplicarla</t>
+    <t>-Reporte de valor ganado sobre planeado</t>
+  </si>
+  <si>
+    <t>- Reporte de horas ejecutadas sobre planeadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se pidio soporte a Lina solicitando infromación sobre el proceso de facturacion </t>
+  </si>
+  <si>
+    <t>Se pidio soporte a Lina en dos ocasiones para pedir el reinicio de las máquinas</t>
+  </si>
+  <si>
+    <t>Notificar al integrante que ingrese tiempo</t>
+  </si>
+  <si>
+    <t>Retornar a una versión anterior del archivo o documento</t>
+  </si>
+  <si>
+    <t>Hacer copias de seguridad de archivos criticos: SVN y Gdrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar la planeacion de tareas teniendo en cuenta horarios de no disponibilidad previamente notificados por los integrantes </t>
+  </si>
+  <si>
+    <t>incidentes</t>
+  </si>
+  <si>
+    <t>respuestas</t>
+  </si>
+  <si>
+    <t>Ocurrio el riesgo</t>
+  </si>
+  <si>
+    <t>Riesgo</t>
+  </si>
+  <si>
+    <t>Cierre Ciclo</t>
+  </si>
+  <si>
+    <t>No se hizo y era necesario</t>
+  </si>
+  <si>
+    <t>Hubo c omo mínimo un reporte de tiempos del 66,66% de los  integrantes en el 83,33% del perido del ciclo 2. En semana de receso no hubo registro de tiempos.</t>
+  </si>
+  <si>
+    <t>No se ejecuto el seguimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se utilizo para recuperar datos originales de un elemento del bus back. </t>
+  </si>
+  <si>
+    <t>Cierre ciclo</t>
+  </si>
+  <si>
+    <t>Postmortem</t>
+  </si>
+  <si>
+    <t>Posmortem</t>
+  </si>
+  <si>
+    <t>Cada integrante conocia que el valor de horas planeadas por semana era de 6. El lider del proyecto conocia el estado global del proyecto y podia monitorearlo a travez del Dashboard.</t>
+  </si>
+  <si>
+    <t>No se hizo seguimiento continuo del valor ganado por parte del líder de riesgos.  El lider del proyecto conocia el estado del valor ganado del proyecto y podia monitorearlo a travez del Dashboard..</t>
+  </si>
+  <si>
+    <t>% de tiempo trabajado con respecto al planeado = 118. No horas extras trabajadas = 42. Desde la Semana 3 el tiempo gastado para la semana fue mayor al planeado. En la semana 3 la diferencia fue pequeña, de hay en adelante fue mucho mayor. Solo en la semana final el tiempo acumulado fue mayor al tiempo planeado acumulado del grupo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2057,21 +2249,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2120,8 +2299,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -2956,11 +3147,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -3161,9 +3361,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3230,7 +3427,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3240,6 +3436,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3285,6 +3498,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3297,6 +3513,102 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3333,21 +3645,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3410,135 +3707,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="300">
     <dxf>
       <fill>
         <patternFill>
@@ -3563,6 +3737,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3570,6 +3758,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3626,6 +3849,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3633,62 +3891,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3738,56 +3940,63 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3801,6 +4010,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3892,6 +4136,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3920,6 +4185,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3976,34 +4262,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4011,14 +4269,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4046,6 +4304,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4074,6 +4346,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4116,6 +4409,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4123,6 +4451,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4151,6 +4493,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4158,6 +4514,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4173,6 +4578,1238 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4473,10 +6110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,12 +6126,15 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="11" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" style="90" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="89"/>
+    <col min="19" max="19" width="59.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="22.28515625" style="89" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -4508,82 +6148,94 @@
         <v>45</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="92" t="s">
+      <c r="J1" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="N1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="O1" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>109</v>
+      <c r="Q1" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="str">
-        <f>'Detalles plan de riesgo'!A2:A6</f>
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="str">
+        <f>'Detalles plan de riesgo'!A2:A7</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="104" t="str">
-        <f>'Detalles plan de riesgo'!B2:B6</f>
+      <c r="B2" s="109" t="str">
+        <f>'Detalles plan de riesgo'!B2:B7</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
-      <c r="C2" s="76" t="str">
+      <c r="C2" s="121" t="str">
         <f>'Detalles plan de riesgo'!F2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>76</v>
+      <c r="D2" s="117"/>
+      <c r="E2" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="100" t="s">
+        <v>133</v>
       </c>
       <c r="L2" s="53"/>
       <c r="M2" s="53"/>
@@ -4591,39 +6243,47 @@
       <c r="O2" s="53"/>
       <c r="P2" s="60"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="96"/>
-      <c r="S2" t="s">
+      <c r="R2" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="103" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="102"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="73" t="str">
-        <f>'Detalles plan de riesgo'!F3</f>
-        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
-      </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>76</v>
+    <row r="3" spans="1:22" s="89" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="100" t="s">
+        <v>133</v>
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="54"/>
@@ -4631,41 +6291,50 @@
       <c r="O3" s="54"/>
       <c r="P3" s="61"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R3" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="102" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="110" t="str">
-        <f>'Detalles plan de riesgo'!F4</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>46</v>
+    <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="72" t="str">
+        <f>'Detalles plan de riesgo'!F3</f>
+        <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
+      </c>
+      <c r="D4" s="118"/>
+      <c r="E4" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="100" t="s">
+        <v>74</v>
       </c>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
@@ -4673,213 +6342,495 @@
       <c r="O4" s="54"/>
       <c r="P4" s="61"/>
       <c r="Q4" s="25"/>
+      <c r="R4" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="95"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="110"/>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="115" t="str">
+        <f>'Detalles plan de riesgo'!F5</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="D5" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="119"/>
+      <c r="F5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="25"/>
-      <c r="S5" t="s">
-        <v>76</v>
+      <c r="E6" s="119"/>
+      <c r="F6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="73" t="s">
+    <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="25"/>
-      <c r="S6" t="s">
-        <v>124</v>
+      <c r="E7" s="119"/>
+      <c r="F7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="80" t="s">
+    <row r="8" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="25"/>
-      <c r="S7" t="s">
-        <v>125</v>
+      <c r="E8" s="120"/>
+      <c r="F8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
-      <c r="B8" s="107" t="s">
+    <row r="9" spans="1:22" s="89" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107"/>
+      <c r="B9" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="108"/>
+      <c r="B10" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="89"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E4:E7"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2 F8:Q8 D4 G2:Q7">
-    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="13" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 G2:Q4">
-    <cfRule type="cellIs" dxfId="94" priority="11" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:Q7">
-    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="8" operator="equal">
-      <formula>$S$2</formula>
+  <conditionalFormatting sqref="F2:F9 F2:K4 F5:R8">
+    <cfRule type="cellIs" dxfId="299" priority="42" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="43" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:K3 G2:K4 F3:F4">
+    <cfRule type="cellIs" dxfId="297" priority="41" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="296" priority="35" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:K4">
+    <cfRule type="cellIs" dxfId="295" priority="33" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="34" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:K4">
+    <cfRule type="cellIs" dxfId="293" priority="32" operator="equal">
+      <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
-      <formula>$S$5</formula>
+    <cfRule type="cellIs" dxfId="292" priority="31" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:K2">
+    <cfRule type="cellIs" dxfId="291" priority="30" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:K4">
+    <cfRule type="cellIs" dxfId="290" priority="27" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:K3">
+    <cfRule type="cellIs" dxfId="289" priority="29" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:K4">
+    <cfRule type="cellIs" dxfId="288" priority="28" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:K9">
+    <cfRule type="cellIs" dxfId="287" priority="25" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="26" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="cellIs" dxfId="285" priority="23" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="24" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:K4">
+    <cfRule type="cellIs" dxfId="283" priority="22" operator="equal">
+      <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="88" priority="5" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:Q7">
-      <formula1>$S$2:$S$5</formula1>
+    <cfRule type="cellIs" dxfId="282" priority="21" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="cellIs" dxfId="281" priority="19" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="20" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="cellIs" dxfId="279" priority="18" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="cellIs" dxfId="278" priority="16" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="17" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="cellIs" dxfId="276" priority="15" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="cellIs" dxfId="275" priority="13" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="cellIs" dxfId="274" priority="14" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="cellIs" dxfId="273" priority="12" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="272" priority="10" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="11" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="270" priority="9" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="269" priority="8" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="cellIs" dxfId="268" priority="7" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="cellIs" dxfId="267" priority="5" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="6" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="cellIs" dxfId="265" priority="4" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="cellIs" dxfId="264" priority="3" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="cellIs" dxfId="263" priority="2" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:R8">
+    <cfRule type="cellIs" dxfId="262" priority="1" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3 F10:R10 D5 L3:Q3 G2:R2 E2:E5 G4:R9">
+    <cfRule type="cellIs" dxfId="261" priority="49" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3 L3:Q3 G2:R2 D5 G4:R9">
+    <cfRule type="cellIs" dxfId="259" priority="61" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:K4 R2:R4">
+      <formula1>$T$2:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9 F9:K9">
+      <formula1>$V$2:$V$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:R8">
+      <formula1>$U$2:$U$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:Q9 L2:Q4">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4890,10 +6841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4907,12 +6858,14 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="45.140625" style="90" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="89" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="45.140625" style="89" customWidth="1"/>
+    <col min="20" max="22" width="22.28515625" style="89" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -4926,399 +6879,718 @@
         <v>45</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="92" t="s">
+      <c r="J1" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="N1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="O1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="P1" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>109</v>
+      <c r="R1" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="53"/>
+      <c r="G2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="103" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="102"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="73" t="s">
+    <row r="3" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="54"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="25"/>
-      <c r="S3" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="25"/>
+      <c r="T3" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="102" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="54"/>
+    <row r="4" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="95" t="s">
         <v>111</v>
       </c>
+      <c r="T4" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="95"/>
     </row>
-    <row r="5" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="73" t="str">
-        <f>'Detalles plan de riesgo'!F4</f>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="72" t="str">
+        <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="54"/>
+      <c r="G5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="25"/>
-      <c r="S5" t="s">
-        <v>76</v>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="25"/>
+      <c r="T5" s="103" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="73" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
+    <row r="6" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="72" t="str">
+        <f>'Detalles plan de riesgo'!F6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="79"/>
+      <c r="D6" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="78"/>
       <c r="F6" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="54"/>
+      <c r="G6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>46</v>
+      </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="25"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:19" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="118" t="s">
+    <row r="7" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108"/>
+      <c r="B8" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="89"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B7:E7"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:Q4 F7:Q7 L5:Q6">
-    <cfRule type="cellIs" dxfId="83" priority="27" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="28" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:Q4 L5:Q6">
-    <cfRule type="cellIs" dxfId="81" priority="26" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
-      <formula>$S$2</formula>
+    <cfRule type="cellIs" dxfId="258" priority="92" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="93" operator="equal">
+      <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="75" priority="20" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H6">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
-    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J6">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
-      <formula>$S$5</formula>
+    <cfRule type="cellIs" dxfId="256" priority="91" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="255" priority="29" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="90" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="253" priority="71" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J4 L2:L4">
+    <cfRule type="cellIs" dxfId="252" priority="69" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="70" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J4 L2:L4">
+    <cfRule type="cellIs" dxfId="250" priority="68" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J4 L2:L4">
+    <cfRule type="cellIs" dxfId="249" priority="67" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="cellIs" dxfId="248" priority="66" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:J6 L5:L6">
+    <cfRule type="cellIs" dxfId="247" priority="64" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="65" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:J6 L5:L6">
+    <cfRule type="cellIs" dxfId="245" priority="63" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:J6 L5:L6">
+    <cfRule type="cellIs" dxfId="244" priority="61" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="62" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:J6 L5:L6">
+    <cfRule type="cellIs" dxfId="242" priority="60" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J3 L2:L3">
+    <cfRule type="cellIs" dxfId="241" priority="58" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="59" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J3 L2:L3">
+    <cfRule type="cellIs" dxfId="239" priority="57" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J3 L2:L3">
+    <cfRule type="cellIs" dxfId="238" priority="56" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="cellIs" dxfId="237" priority="55" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:J4 L4">
+    <cfRule type="cellIs" dxfId="236" priority="53" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="54" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:J4 L4">
+    <cfRule type="cellIs" dxfId="234" priority="52" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:J4 L4">
+    <cfRule type="cellIs" dxfId="233" priority="51" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="cellIs" dxfId="232" priority="49" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J4 F8:J8 M5:R7 L8:R8 L2:R4">
+    <cfRule type="cellIs" dxfId="231" priority="110" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="111" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J7 L2:R7">
+    <cfRule type="cellIs" dxfId="229" priority="116" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4 E2:E6 G5:J7 L5:L7">
+    <cfRule type="cellIs" dxfId="228" priority="118" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="119" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="226" priority="44" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="45" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="224" priority="43" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="223" priority="41" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="42" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="221" priority="40" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="220" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="219" priority="47" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="48" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="217" priority="35" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="36" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="215" priority="34" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="214" priority="32" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="33" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="212" priority="31" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="211" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="210" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="39" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:J7 L7">
+    <cfRule type="cellIs" dxfId="208" priority="30" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:J7 L7">
+    <cfRule type="cellIs" dxfId="207" priority="27" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="28" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="cellIs" dxfId="205" priority="20" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="21" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="cellIs" dxfId="203" priority="19" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="cellIs" dxfId="202" priority="18" operator="equal">
+      <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
-      <formula>$S$2</formula>
+    <cfRule type="cellIs" dxfId="201" priority="16" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="17" operator="equal">
+      <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:Q6">
-      <formula1>$S$2:$S$5</formula1>
+    <cfRule type="cellIs" dxfId="199" priority="15" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="cellIs" dxfId="198" priority="13" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="14" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="cellIs" dxfId="196" priority="12" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="cellIs" dxfId="195" priority="10" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="11" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="cellIs" dxfId="193" priority="9" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="cellIs" dxfId="192" priority="8" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="191" priority="6" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="7" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="189" priority="5" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="188" priority="4" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8 K2:K4">
+    <cfRule type="cellIs" dxfId="187" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="23" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K7">
+    <cfRule type="cellIs" dxfId="185" priority="24" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K7">
+    <cfRule type="cellIs" dxfId="184" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L6">
+      <formula1>$U$2:$U$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:L4">
+      <formula1>$T$2:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:L7">
+      <formula1>$V$2:$V$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:R7">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5329,10 +7601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,11 +7614,13 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="33.5703125" style="90" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="89"/>
+    <col min="13" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="33.5703125" style="89" customWidth="1"/>
+    <col min="20" max="22" width="22.28515625" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -5360,322 +7634,358 @@
         <v>45</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="92" t="s">
+      <c r="J1" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="N1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="O1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="P1" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>109</v>
+      <c r="R1" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+    <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="53"/>
+        <v>133</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="25"/>
-      <c r="S2" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="25"/>
+      <c r="T2" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="103" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="102"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="73" t="s">
+    <row r="3" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="54"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="102" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+    <row r="4" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="72" t="str">
+        <f>'Detalles plan de riesgo'!F6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>46</v>
+      </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="120"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="25"/>
+      <c r="T4" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="95"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="73" t="str">
-        <f>'Detalles plan de riesgo'!F4</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+    <row r="5" spans="1:22" s="89" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="120"/>
-      <c r="S5" t="s">
-        <v>76</v>
-      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="25"/>
+      <c r="T5" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="95"/>
     </row>
-    <row r="6" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="73" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="118" t="s">
+    <row r="6" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="108"/>
+      <c r="B6" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="89"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:Q5 L6:Q6">
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="18" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:Q7">
-    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:Q5 L6:Q6">
-    <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:Q4">
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:Q4">
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6 H6:K6">
-    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6 H6:K6">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F2:F4 G2:Q6">
-      <formula1>$S$2:$S$5</formula1>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="cellIs" dxfId="179" priority="13" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:J3 L2:L3">
+    <cfRule type="cellIs" dxfId="178" priority="10" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3 K6">
+    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="cellIs" dxfId="175" priority="7" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K5">
+    <cfRule type="cellIs" dxfId="174" priority="8" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="9" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K3">
+    <cfRule type="cellIs" dxfId="172" priority="4" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:L3">
+    <cfRule type="cellIs" dxfId="171" priority="107" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="108" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="113" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:L4">
+    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="118" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="119" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:L5">
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:R5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:L4">
+      <formula1>$U$2:$U$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:L3">
+      <formula1>$T$2:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L5">
+      <formula1>$V$2:$V$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5686,10 +7996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5701,12 +8011,14 @@
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" style="90" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="89" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" style="89" customWidth="1"/>
+    <col min="20" max="22" width="22.28515625" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -5720,362 +8032,439 @@
         <v>45</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="92" t="s">
+      <c r="J1" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="N1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="O1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="P1" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>109</v>
+      <c r="R1" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+    <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
-        <v>96</v>
+      <c r="C2" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>93</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="53"/>
+      <c r="G2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="25"/>
-      <c r="S2" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="25"/>
+      <c r="T2" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="103" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="102"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="54"/>
+    <row r="3" spans="1:22" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="25"/>
-      <c r="S3" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="25"/>
+      <c r="T3" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="102" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="54"/>
+    <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="25"/>
+      <c r="T4" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="95"/>
     </row>
-    <row r="5" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="79"/>
+    <row r="5" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="78"/>
       <c r="F5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="54"/>
+      <c r="G5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="25"/>
-      <c r="S5" t="s">
-        <v>76</v>
-      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="25"/>
+      <c r="T5" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="95"/>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="79"/>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="78"/>
       <c r="F6" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="54"/>
+      <c r="G6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="96" t="s">
-        <v>119</v>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="95" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="90" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="79"/>
+    <row r="7" spans="1:22" s="89" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="78"/>
       <c r="F7" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="54"/>
+      <c r="G7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>46</v>
+      </c>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
       <c r="O7" s="54"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="96" t="s">
-        <v>122</v>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="95" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
-      <c r="B8" s="118" t="s">
+    <row r="8" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107"/>
+      <c r="B8" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="95"/>
+    </row>
+    <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108"/>
+      <c r="B9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="89"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="84"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:K7">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:K7">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4 G4:K4">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4 G4:K4">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:Q7">
-      <formula1>$S$2:$S$5</formula1>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="cellIs" dxfId="163" priority="5" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:L4">
+    <cfRule type="cellIs" dxfId="162" priority="125" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="126" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="137" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="4" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:L7">
+    <cfRule type="cellIs" dxfId="158" priority="131" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="132" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="3" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:L8">
+    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:R8">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:L4">
+      <formula1>$T$2:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L7">
+      <formula1>$U$2:$U$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:L8">
+      <formula1>$V$2:$V$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6086,20 +8475,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="90" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="89"/>
+    <col min="13" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" style="89" customWidth="1"/>
+    <col min="20" max="22" width="22.28515625" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -6113,61 +8505,73 @@
         <v>45</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="92" t="s">
+      <c r="J1" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="N1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="O1" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="P1" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>109</v>
+      <c r="R1" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+    <row r="2" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="122" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
-        <v>99</v>
+        <v>125</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>96</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>46</v>
@@ -6187,65 +8591,83 @@
       <c r="K2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="53"/>
+      <c r="L2" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="103" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="102"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="95" t="s">
-        <v>68</v>
+    <row r="3" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="94" t="s">
+        <v>66</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="54"/>
+      <c r="E3" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="25"/>
-      <c r="S3" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="25"/>
+      <c r="T3" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="102" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="79"/>
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="78"/>
       <c r="F4" s="61" t="s">
         <v>48</v>
       </c>
@@ -6264,82 +8686,111 @@
       <c r="K4" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="25"/>
+      <c r="T4" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="95"/>
     </row>
-    <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="73" t="str">
-        <f>'Detalles plan de riesgo'!F4</f>
+    <row r="5" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="72" t="str">
+        <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="79"/>
+      <c r="D5" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="78"/>
       <c r="F5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="54"/>
+      <c r="G5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="25"/>
-      <c r="S5" t="s">
-        <v>76</v>
-      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="25"/>
+      <c r="T5" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="95"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="73" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+    <row r="6" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
+      <c r="B6" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>46</v>
+      </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="25"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="25"/>
+      <c r="V6" s="95"/>
     </row>
-    <row r="7" spans="1:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="118" t="s">
+    <row r="7" spans="1:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="108"/>
+      <c r="B7" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="81"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="64"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
@@ -6350,115 +8801,122 @@
       <c r="M7" s="55"/>
       <c r="N7" s="55"/>
       <c r="O7" s="55"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="89"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 D4:D5 H6:Q6 L2:Q5">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:Q7">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 D4:D5 H6:Q6 L2:Q5">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>$S$5</formula>
+  <conditionalFormatting sqref="D4:D5 M2:R6">
+    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:J7 L7:R7">
+    <cfRule type="cellIs" dxfId="57" priority="33" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 M2:R6">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
+      <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>$S$2</formula>
+    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
+      <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6 H5:K5">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6 H5:K5">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:K3">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:K3">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>$S$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F5 G4:K4">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F5 G4:K4">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>$S$5</formula>
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5 D7:E7">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:L5">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+      <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$S$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>$S$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5 F2:Q6">
-      <formula1>$S$2:$S$5</formula1>
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
+      <formula>$W$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:L3">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>$T$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:L6">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5 M2:R6 F2:L3">
+      <formula1>$T$2:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:L5">
+      <formula1>$U$2:$U$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:L6">
+      <formula1>$V$2:$V$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6468,10 +8926,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6528,23 +8986,23 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="179" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="182" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="132" t="s">
+      <c r="B2" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="132">
+      <c r="E2" s="126">
         <v>3</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>23</v>
@@ -6564,16 +9022,16 @@
       <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="126" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="57" t="s">
         <v>53</v>
       </c>
@@ -6593,229 +9051,219 @@
       <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="133"/>
+      <c r="M3" s="127"/>
     </row>
-    <row r="4" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>62</v>
-      </c>
+    <row r="4" spans="1:13" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="99"/>
       <c r="I4" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>6</v>
-      </c>
-      <c r="M4" s="133"/>
+        <v>122</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="127"/>
     </row>
-    <row r="5" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
+    <row r="5" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="127"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>77</v>
+      <c r="G5" s="47" t="s">
+        <v>75</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="66" t="s">
-        <v>54</v>
+      <c r="I5" s="57" t="s">
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2">
-        <v>9</v>
-      </c>
-      <c r="M5" s="133"/>
+        <v>6</v>
+      </c>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="10" t="s">
+      <c r="A6" s="127"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9</v>
+      </c>
+      <c r="M6" s="127"/>
+    </row>
+    <row r="7" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="128"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I7" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5">
+      <c r="K7" s="4"/>
+      <c r="L7" s="5">
         <v>27</v>
       </c>
-      <c r="M6" s="134"/>
+      <c r="M7" s="128"/>
     </row>
-    <row r="7" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+    <row r="8" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-    </row>
-    <row r="8" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="179" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="132">
-        <v>2</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>3</v>
-      </c>
-      <c r="M8" s="132" t="s">
-        <v>17</v>
-      </c>
+      <c r="D8" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="47" t="s">
+      <c r="A9" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="126">
+        <v>2</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="127"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2</v>
-      </c>
-      <c r="M9" s="133"/>
-    </row>
-    <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="47" t="s">
-        <v>83</v>
-      </c>
       <c r="G10" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10" s="133"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="127"/>
     </row>
-    <row r="11" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="133"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>78</v>
+    <row r="11" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>77</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="I11" s="9"/>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="2">
         <v>3</v>
@@ -6823,294 +9271,296 @@
       <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="133"/>
+      <c r="M11" s="127"/>
     </row>
-    <row r="12" spans="1:13" s="90" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="98" t="s">
+    <row r="12" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="127"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="133"/>
+      <c r="I12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="127"/>
     </row>
-    <row r="13" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="57" t="s">
+    <row r="13" spans="1:13" s="89" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="127"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="127"/>
+    </row>
+    <row r="14" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="128"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G14" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="3" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5">
+      <c r="K14" s="4"/>
+      <c r="L14" s="5">
         <v>11</v>
       </c>
-      <c r="M13" s="134"/>
+      <c r="M14" s="128"/>
     </row>
-    <row r="14" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+    <row r="15" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="167" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="170" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="173" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="149">
-        <v>1</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="20">
-        <v>1</v>
-      </c>
-      <c r="L15" s="20">
-        <f>K15*E15</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="152" t="s">
-        <v>11</v>
-      </c>
+      <c r="D15" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="168"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
-        <f>K16*E15</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="153"/>
+      <c r="A16" s="146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="182">
+        <v>1</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="20">
+        <v>1</v>
+      </c>
+      <c r="L16" s="20">
+        <f>K16*E16</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="185" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="168"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="150"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="183"/>
       <c r="F17" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="I17" s="17"/>
       <c r="J17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <f>K17*E16</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="186"/>
+    </row>
+    <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="147"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>2</v>
       </c>
-      <c r="L17" s="13">
-        <f>K17*E15</f>
+      <c r="L18" s="13">
+        <f>K18*E16</f>
         <v>2</v>
       </c>
-      <c r="M17" s="153"/>
+      <c r="M18" s="186"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="168"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="48" t="s">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="147"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="12" t="s">
+      <c r="G19" s="59"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K19" s="13">
         <v>3</v>
       </c>
-      <c r="L18" s="13">
-        <f>K18*E15</f>
+      <c r="L19" s="13">
+        <f>K19*E16</f>
         <v>3</v>
       </c>
-      <c r="M18" s="153"/>
+      <c r="M19" s="186"/>
     </row>
-    <row r="19" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="169"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="57" t="s">
+    <row r="20" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="148"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="14" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16">
-        <f>SUM(L15:L18)</f>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16">
+        <f>SUM(L16:L19)</f>
         <v>6</v>
       </c>
-      <c r="M19" s="154"/>
+      <c r="M20" s="187"/>
     </row>
-    <row r="20" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+    <row r="21" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="135" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
+      <c r="D21" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
     </row>
-    <row r="21" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="176" t="s">
+    <row r="22" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B22" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C22" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D22" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="123">
+      <c r="E22" s="161">
         <v>3</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" s="5">
-        <v>6</v>
-      </c>
-      <c r="M21" s="143" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>79</v>
+      <c r="F22" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7">
         <v>2</v>
@@ -7118,24 +9568,26 @@
       <c r="L22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="144"/>
+      <c r="M22" s="176" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="177"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="124"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="162"/>
       <c r="F23" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" s="7">
         <v>2</v>
@@ -7143,26 +9595,24 @@
       <c r="L23" s="5">
         <v>6</v>
       </c>
-      <c r="M23" s="144"/>
+      <c r="M23" s="177"/>
     </row>
-    <row r="24" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69" t="s">
-        <v>88</v>
-      </c>
+    <row r="24" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="156"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K24" s="7">
         <v>2</v>
@@ -7170,266 +9620,293 @@
       <c r="L24" s="5">
         <v>6</v>
       </c>
-      <c r="M24" s="144"/>
+      <c r="M24" s="177"/>
     </row>
-    <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="57" t="s">
+    <row r="25" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="156"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="57" t="s">
-        <v>78</v>
+      <c r="G25" s="59" t="s">
+        <v>76</v>
       </c>
       <c r="H25" s="69"/>
       <c r="I25" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="7">
+        <v>2</v>
+      </c>
+      <c r="L25" s="5">
+        <v>6</v>
+      </c>
+      <c r="M25" s="177"/>
+    </row>
+    <row r="26" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="156"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5">
+      <c r="K26" s="4"/>
+      <c r="L26" s="5">
         <v>24</v>
       </c>
-      <c r="M25" s="145"/>
+      <c r="M26" s="178"/>
     </row>
-    <row r="26" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+    <row r="27" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="155" t="s">
+      <c r="D27" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-    </row>
-    <row r="27" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="161" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="164" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="140">
-        <v>3</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="27">
-        <v>3</v>
-      </c>
-      <c r="L27" s="28">
-        <f>E27*K27</f>
-        <v>9</v>
-      </c>
-      <c r="M27" s="126" t="s">
-        <v>17</v>
-      </c>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="190"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="29" t="s">
+    <row r="28" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="143" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="173">
+        <v>3</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="27">
+        <v>3</v>
+      </c>
+      <c r="L28" s="28">
+        <f>E28*K28</f>
+        <v>9</v>
+      </c>
+      <c r="M28" s="164" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="138"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K29" s="30">
         <v>2</v>
       </c>
-      <c r="L28" s="31">
-        <f>E27*K28</f>
+      <c r="L29" s="31">
+        <f>E28*K29</f>
         <v>6</v>
       </c>
-      <c r="M28" s="127"/>
-    </row>
-    <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="33">
-        <v>3</v>
-      </c>
-      <c r="L29" s="34">
-        <f>E27*K29</f>
-        <v>9</v>
-      </c>
-      <c r="M29" s="127"/>
+      <c r="M29" s="165"/>
     </row>
     <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="48" t="s">
+      <c r="A30" s="138"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="59" t="s">
-        <v>78</v>
+      <c r="G30" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="H30" s="44"/>
       <c r="I30" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="33">
+        <v>3</v>
+      </c>
+      <c r="L30" s="34">
+        <f>E28*K30</f>
+        <v>9</v>
+      </c>
+      <c r="M30" s="165"/>
+    </row>
+    <row r="31" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="138"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K31" s="35">
         <v>3</v>
       </c>
-      <c r="L30" s="31">
-        <f>E27*K30</f>
+      <c r="L31" s="31">
+        <f>E28*K31</f>
         <v>9</v>
       </c>
-      <c r="M30" s="127"/>
+      <c r="M31" s="165"/>
     </row>
-    <row r="31" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="57" t="s">
+    <row r="32" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="139"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G32" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="36" t="s">
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38">
-        <f>SUM(L27:L30)</f>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38">
+        <f>SUM(L28:L31)</f>
         <v>33</v>
       </c>
-      <c r="M31" s="128"/>
+      <c r="M32" s="166"/>
     </row>
-    <row r="32" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+    <row r="33" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="23" t="s">
+      <c r="B33" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="131"/>
+      <c r="D33" s="167" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="M27:M31"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="M15:M19"/>
-    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="M9:M14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="M22:M26"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="M16:M20"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690" activeTab="1"/>
+    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="R22" sheetId="10" r:id="rId4"/>
     <sheet name="R23" sheetId="11" r:id="rId5"/>
     <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId6"/>
+    <sheet name="leyenda" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1754,7 +1755,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="148">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -2032,152 +2033,173 @@
     <t>- Reporte de tiempos de cada integrante en el Dashboard</t>
   </si>
   <si>
-    <t>-Evidencia de seguimiento semanal de rol.
+    <t>-Documento de integración</t>
+  </si>
+  <si>
+    <t>-Resultado de pruebas</t>
+  </si>
+  <si>
+    <t>-valor ganado del integrante con respecto a la planeacion</t>
+  </si>
+  <si>
+    <t>- documento de disponibilidad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision del historial de commit </t>
+  </si>
+  <si>
+    <t>Falta reporte de tiempos de Felipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificar al integrante que reporte los tiempos </t>
+  </si>
+  <si>
+    <t>Ciclo 2 Semana 6</t>
+  </si>
+  <si>
+    <t>Ciclo 3 Semana 6</t>
+  </si>
+  <si>
+    <t>Ciclo 2    Semana 5</t>
+  </si>
+  <si>
+    <t>Falta reporte de tiempos de GM por perdida de datos. Se sugiere guardar tiempos con más frecuencia, para en caso de perdida de información esta sea pequeña.</t>
+  </si>
+  <si>
+    <t>Ciclo2   Semana 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubo un error de comunicación que retraso un día el avance en el desarrollo del frontend (entresemana) . GM hizo limpieza de datos y considero que ya había dejado los datos como los necesitaba DA y FF, ya que fue notificado del error justo despues que realizo la operacion de liempieza.   </t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Hemos tenido como medio de comunicación Skype, Hangouts y reuniones presenciales. Y como soportes de la comunicación documentación generada Alojada en Github y Google Drive</t>
+  </si>
+  <si>
+    <t>Se realizo una copia del estado actual de los archivos importantes de las 3 máquinas</t>
+  </si>
+  <si>
+    <t>No se hizo el adecuado seguimiento de esta tarea, porque no se capacito al equipo en el uso de Tortoise, era algo complejo hacerle seguimiento a todos los repositorios, y al finalizar el ciclo (semana 5) hubo problemas de almacenamiento de los commit, probablemente se llego al topo de espacio permitido en el reporsitorio. Se manejo activamente para el proyecto de Sugarcallout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar copias de seguridad preventivas </t>
+  </si>
+  <si>
+    <t>El documento de integración siempre que se necesito,estuvo creado. Los de rol se crearon y se publicaron a tiempo</t>
+  </si>
+  <si>
+    <t>Se pidio soporte para reiniciar las máquinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corregir los fallos presentados </t>
+  </si>
+  <si>
+    <t>Establecer una charla entre los directamente implicados</t>
+  </si>
+  <si>
+    <t>-Reporte de valor ganado sobre planeado</t>
+  </si>
+  <si>
+    <t>- Reporte de horas ejecutadas sobre planeadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se pidio soporte a Lina solicitando infromación sobre el proceso de facturacion </t>
+  </si>
+  <si>
+    <t>Se pidio soporte a Lina en dos ocasiones para pedir el reinicio de las máquinas</t>
+  </si>
+  <si>
+    <t>Notificar al integrante que ingrese tiempo</t>
+  </si>
+  <si>
+    <t>Retornar a una versión anterior del archivo o documento</t>
+  </si>
+  <si>
+    <t>Hacer copias de seguridad de archivos criticos: SVN y Gdrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar la planeacion de tareas teniendo en cuenta horarios de no disponibilidad previamente notificados por los integrantes </t>
+  </si>
+  <si>
+    <t>incidentes</t>
+  </si>
+  <si>
+    <t>respuestas</t>
+  </si>
+  <si>
+    <t>Ocurrio el riesgo</t>
+  </si>
+  <si>
+    <t>Riesgo</t>
+  </si>
+  <si>
+    <t>Cierre Ciclo</t>
+  </si>
+  <si>
+    <t>No se hizo y era necesario</t>
+  </si>
+  <si>
+    <t>Hubo c omo mínimo un reporte de tiempos del 66,66% de los  integrantes en el 83,33% del perido del ciclo 2. En semana de receso no hubo registro de tiempos.</t>
+  </si>
+  <si>
+    <t>No se ejecuto el seguimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se utilizo para recuperar datos originales de un elemento del bus back. </t>
+  </si>
+  <si>
+    <t>Cierre ciclo</t>
+  </si>
+  <si>
+    <t>Postmortem</t>
+  </si>
+  <si>
+    <t>Posmortem</t>
+  </si>
+  <si>
+    <t>Cada integrante conocia que el valor de horas planeadas por semana era de 6. El lider del proyecto conocia el estado global del proyecto y podia monitorearlo a travez del Dashboard.</t>
+  </si>
+  <si>
+    <t>No se hizo seguimiento continuo del valor ganado por parte del líder de riesgos.  El lider del proyecto conocia el estado del valor ganado del proyecto y podia monitorearlo a travez del Dashboard..</t>
+  </si>
+  <si>
+    <t>% de tiempo trabajado con respecto al planeado = 118. No horas extras trabajadas = 42. Desde la Semana 3 el tiempo gastado para la semana fue mayor al planeado. En la semana 3 la diferencia fue pequeña, de hay en adelante fue mucho mayor. Solo en la semana final el tiempo acumulado fue mayor al tiempo planeado acumulado del grupo.</t>
+  </si>
+  <si>
+    <t>No hubo documento de disponibilidad, pero se informo oportunamente las ausencias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 -Documento de integración</t>
   </si>
   <si>
-    <t>-Documento de integración</t>
-  </si>
-  <si>
-    <t>-Resultado de pruebas</t>
-  </si>
-  <si>
-    <t>-valor ganado del integrante con respecto a la planeacion</t>
-  </si>
-  <si>
-    <t>- documento de disponibilidad?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision del historial de commit </t>
-  </si>
-  <si>
-    <t>Falta reporte de tiempos de Felipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notificar al integrante que reporte los tiempos </t>
-  </si>
-  <si>
-    <t>Ciclo 2 Semana 6</t>
-  </si>
-  <si>
-    <t>Ciclo 3 Semana 6</t>
-  </si>
-  <si>
-    <t>Ciclo 2    Semana 5</t>
-  </si>
-  <si>
-    <t>Falta reporte de tiempos de GM por perdida de datos. Se sugiere guardar tiempos con más frecuencia, para en caso de perdida de información esta sea pequeña.</t>
-  </si>
-  <si>
-    <t>Ciclo2   Semana 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hubo un error de comunicación que retraso un día el avance en el desarrollo del frontend (entresemana) . GM hizo limpieza de datos y considero que ya había dejado los datos como los necesitaba DA y FF, ya que fue notificado del error justo despues que realizo la operacion de liempieza.   </t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Hemos tenido como medio de comunicación Skype, Hangouts y reuniones presenciales. Y como soportes de la comunicación documentación generada Alojada en Github y Google Drive</t>
-  </si>
-  <si>
-    <t>Se realizo una copia del estado actual de los archivos importantes de las 3 máquinas</t>
-  </si>
-  <si>
-    <t>No se hizo el adecuado seguimiento de esta tarea, porque no se capacito al equipo en el uso de Tortoise, era algo complejo hacerle seguimiento a todos los repositorios, y al finalizar el ciclo (semana 5) hubo problemas de almacenamiento de los commit, probablemente se llego al topo de espacio permitido en el reporsitorio. Se manejo activamente para el proyecto de Sugarcallout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar copias de seguridad preventivas </t>
-  </si>
-  <si>
-    <t>El documento de integración siempre que se necesito,estuvo creado. Los de rol se crearon y se publicaron a tiempo</t>
-  </si>
-  <si>
-    <t>Hubo una reunión grupal para limar asperesas</t>
-  </si>
-  <si>
-    <t>Se pidio soporte para reiniciar las máquinas</t>
-  </si>
-  <si>
-    <t>No hubo docuemnto de disponibilidad, pero se informo oportunamente las ausencias.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corregir los fallos presentados </t>
-  </si>
-  <si>
-    <t>Cuando se presentaron fallos de inetragración estos se corrigieron</t>
-  </si>
-  <si>
-    <t>Establecer una charla entre los directamente implicados</t>
-  </si>
-  <si>
-    <t>-Reporte de valor ganado sobre planeado</t>
-  </si>
-  <si>
-    <t>- Reporte de horas ejecutadas sobre planeadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se pidio soporte a Lina solicitando infromación sobre el proceso de facturacion </t>
-  </si>
-  <si>
-    <t>Se pidio soporte a Lina en dos ocasiones para pedir el reinicio de las máquinas</t>
-  </si>
-  <si>
-    <t>Notificar al integrante que ingrese tiempo</t>
-  </si>
-  <si>
-    <t>Retornar a una versión anterior del archivo o documento</t>
-  </si>
-  <si>
-    <t>Hacer copias de seguridad de archivos criticos: SVN y Gdrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar la planeacion de tareas teniendo en cuenta horarios de no disponibilidad previamente notificados por los integrantes </t>
-  </si>
-  <si>
-    <t>incidentes</t>
-  </si>
-  <si>
-    <t>respuestas</t>
-  </si>
-  <si>
-    <t>Ocurrio el riesgo</t>
-  </si>
-  <si>
-    <t>Riesgo</t>
-  </si>
-  <si>
-    <t>Cierre Ciclo</t>
-  </si>
-  <si>
-    <t>No se hizo y era necesario</t>
-  </si>
-  <si>
-    <t>Hubo c omo mínimo un reporte de tiempos del 66,66% de los  integrantes en el 83,33% del perido del ciclo 2. En semana de receso no hubo registro de tiempos.</t>
-  </si>
-  <si>
-    <t>No se ejecuto el seguimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se utilizo para recuperar datos originales de un elemento del bus back. </t>
-  </si>
-  <si>
-    <t>Cierre ciclo</t>
-  </si>
-  <si>
-    <t>Postmortem</t>
-  </si>
-  <si>
-    <t>Posmortem</t>
-  </si>
-  <si>
-    <t>Cada integrante conocia que el valor de horas planeadas por semana era de 6. El lider del proyecto conocia el estado global del proyecto y podia monitorearlo a travez del Dashboard.</t>
-  </si>
-  <si>
-    <t>No se hizo seguimiento continuo del valor ganado por parte del líder de riesgos.  El lider del proyecto conocia el estado del valor ganado del proyecto y podia monitorearlo a travez del Dashboard..</t>
-  </si>
-  <si>
-    <t>% de tiempo trabajado con respecto al planeado = 118. No horas extras trabajadas = 42. Desde la Semana 3 el tiempo gastado para la semana fue mayor al planeado. En la semana 3 la diferencia fue pequeña, de hay en adelante fue mucho mayor. Solo en la semana final el tiempo acumulado fue mayor al tiempo planeado acumulado del grupo.</t>
+    <t>-Evidencia de seguimiento semanal de rol.</t>
+  </si>
+  <si>
+    <t>Reuniones de seguimiento los domingos</t>
+  </si>
+  <si>
+    <t>No toda la documentación de cada rol se efectuo semananalmente. Pero cada integrante conocia su rol y genero la respectiva documentación.</t>
+  </si>
+  <si>
+    <t>No fue necesario</t>
+  </si>
+  <si>
+    <t>Se ha mantenido una comunicación continúa.</t>
+  </si>
+  <si>
+    <t>Hubo una reunión grupal para limar asperesas y aclarar la situación del grupo con respecto a GM.</t>
+  </si>
+  <si>
+    <t>Al inicio del ciclo se hizo un back de todo lo importante. Durante el transcurso se manejo svn principlamente para sugarcallout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realizo para poder trabajar en sugarcallout en una máquina distinta a los servidores del MP. </t>
+  </si>
+  <si>
+    <t>Hubo una mejora considerable en la integración con respecto al ciclo 1.</t>
   </si>
 </sst>
 </file>
@@ -3160,7 +3182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -3513,6 +3535,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3528,6 +3586,132 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3546,173 +3730,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="300">
+  <dxfs count="172">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3723,6 +3793,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3751,6 +3828,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3772,6 +3863,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3779,6 +3884,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3807,6 +3919,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3814,6 +3954,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3821,6 +3975,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3828,6 +3989,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3835,6 +4024,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3849,6 +4045,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3856,6 +4066,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3863,6 +4087,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3884,6 +4115,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3891,6 +4143,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3898,6 +4171,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3905,6 +4185,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3912,6 +4206,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3919,6 +4220,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3926,6 +4234,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3933,6 +4248,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3954,6 +4283,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -3982,6 +4318,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3996,6 +4346,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4003,6 +4360,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4010,6 +4388,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4017,6 +4409,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4045,6 +4444,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4059,6 +4472,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4066,6 +4486,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4073,6 +4500,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4080,6 +4528,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4087,6 +4542,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4094,6 +4556,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4101,6 +4570,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4122,6 +4612,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4129,6 +4633,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4136,6 +4654,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4157,6 +4682,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4178,6 +4717,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4185,6 +4738,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4199,6 +4759,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4206,6 +4794,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -4220,6 +4815,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4234,6 +4871,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4248,7 +4920,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4270,1546 +4942,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6112,7 +5244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -6151,7 +5283,7 @@
         <v>90</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>34</v>
@@ -6163,10 +5295,10 @@
         <v>36</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="91" t="s">
         <v>37</v>
@@ -6184,22 +5316,22 @@
         <v>41</v>
       </c>
       <c r="Q1" s="104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R1" s="91" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S1" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V1" s="87" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
@@ -6217,25 +5349,25 @@
       </c>
       <c r="D2" s="117"/>
       <c r="E2" s="77" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H2" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J2" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K2" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L2" s="53"/>
       <c r="M2" s="53"/>
@@ -6247,7 +5379,7 @@
         <v>46</v>
       </c>
       <c r="S2" s="95" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="T2" s="102" t="s">
         <v>46</v>
@@ -6265,25 +5397,25 @@
       <c r="C3" s="115"/>
       <c r="D3" s="118"/>
       <c r="E3" s="78" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F3" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H3" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K3" s="100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="54"/>
@@ -6295,7 +5427,7 @@
         <v>46</v>
       </c>
       <c r="S3" s="95" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="T3" s="103" t="s">
         <v>48</v>
@@ -6346,13 +5478,13 @@
         <v>74</v>
       </c>
       <c r="S4" s="95" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="T4" s="101" t="s">
         <v>74</v>
       </c>
       <c r="U4" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V4" s="95"/>
     </row>
@@ -6364,17 +5496,17 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="119"/>
       <c r="F5" s="61" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I5" s="61" t="s">
         <v>46</v>
@@ -6407,7 +5539,7 @@
         <v>46</v>
       </c>
       <c r="T5" s="103" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -6557,7 +5689,7 @@
     <row r="9" spans="1:22" s="89" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="107"/>
       <c r="B9" s="112" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
@@ -6590,7 +5722,7 @@
         <v>46</v>
       </c>
       <c r="S9" s="95" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6607,10 +5739,10 @@
       <c r="G10" s="55"/>
       <c r="H10" s="83"/>
       <c r="I10" s="84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
@@ -6633,189 +5765,189 @@
     <mergeCell ref="B9:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F9 F2:K4 F5:R8">
-    <cfRule type="cellIs" dxfId="299" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="42" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="43" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:K3 G2:K4 F3:F4">
-    <cfRule type="cellIs" dxfId="297" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="41" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="296" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="35" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="cellIs" dxfId="295" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="33" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="34" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="cellIs" dxfId="293" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="32" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="292" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="31" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="291" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="30" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:K4">
-    <cfRule type="cellIs" dxfId="290" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="27" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:K3">
-    <cfRule type="cellIs" dxfId="289" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="29" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:K4">
-    <cfRule type="cellIs" dxfId="288" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="28" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9">
-    <cfRule type="cellIs" dxfId="287" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="25" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="26" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="285" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="23" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="24" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K4">
-    <cfRule type="cellIs" dxfId="283" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="22" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="282" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="21" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="281" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="19" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="20" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="279" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="18" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="278" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="16" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="17" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="276" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="15" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="275" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="13" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="274" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="14" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="273" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="12" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2">
-    <cfRule type="cellIs" dxfId="272" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="10" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="11" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2">
-    <cfRule type="cellIs" dxfId="270" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="9" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2">
-    <cfRule type="cellIs" dxfId="269" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="8" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2">
-    <cfRule type="cellIs" dxfId="268" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="7" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="267" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="265" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="264" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="263" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:R8">
-    <cfRule type="cellIs" dxfId="262" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="1" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 F10:R10 D5 L3:Q3 G2:R2 E2:E5 G4:R9">
-    <cfRule type="cellIs" dxfId="261" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 L3:Q3 G2:R2 D5 G4:R9">
-    <cfRule type="cellIs" dxfId="259" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6841,10 +5973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:V1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6894,13 +6026,13 @@
         <v>36</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="91" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M1" s="91" t="s">
         <v>37</v>
@@ -6918,19 +6050,19 @@
         <v>41</v>
       </c>
       <c r="R1" s="90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S1" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V1" s="87" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
@@ -6973,7 +6105,7 @@
       <c r="Q2" s="60"/>
       <c r="R2" s="25"/>
       <c r="S2" s="95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T2" s="102" t="s">
         <v>46</v>
@@ -7020,6 +6152,9 @@
       <c r="P3" s="54"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="25"/>
+      <c r="S3" s="89" t="s">
+        <v>140</v>
+      </c>
       <c r="T3" s="103" t="s">
         <v>48</v>
       </c>
@@ -7030,15 +6165,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="89" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="107"/>
       <c r="B4" s="123"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="115" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="78" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>74</v>
@@ -7056,7 +6191,7 @@
         <v>74</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="L4" s="60" t="s">
         <v>46</v>
@@ -7068,47 +6203,40 @@
       <c r="Q4" s="61"/>
       <c r="R4" s="25"/>
       <c r="S4" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="T4" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="U4" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="V4" s="95"/>
+        <v>141</v>
+      </c>
+      <c r="T4" s="103"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="107"/>
       <c r="B5" s="123"/>
-      <c r="C5" s="72" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>48</v>
+      <c r="C5" s="115"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>46</v>
       </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
@@ -7116,19 +6244,26 @@
       <c r="P5" s="54"/>
       <c r="Q5" s="61"/>
       <c r="R5" s="25"/>
-      <c r="T5" s="103" t="s">
-        <v>133</v>
-      </c>
+      <c r="S5" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="V5" s="95"/>
     </row>
-    <row r="6" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="107"/>
       <c r="B6" s="123"/>
       <c r="C6" s="72" t="str">
-        <f>'Detalles plan de riesgo'!F6</f>
+        <f>'Detalles plan de riesgo'!F5</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="85" t="s">
-        <v>117</v>
+      <c r="D6" s="72" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="61" t="s">
@@ -7144,13 +6279,13 @@
         <v>48</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -7158,15 +6293,24 @@
       <c r="P6" s="54"/>
       <c r="Q6" s="61"/>
       <c r="R6" s="25"/>
+      <c r="S6" s="191" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="103" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="107"/>
-      <c r="B7" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="114"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="72" t="str">
+        <f>'Detalles plan de riesgo'!F6</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="78"/>
       <c r="F7" s="61" t="s">
         <v>48</v>
       </c>
@@ -7195,401 +6339,438 @@
       <c r="Q7" s="61"/>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:22" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="124" t="s">
+    <row r="8" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107"/>
+      <c r="B8" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="1:22" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108"/>
+      <c r="B9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="71" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="88"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B6"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="258" priority="92" operator="equal">
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="129" priority="92" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="93" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F4">
-    <cfRule type="cellIs" dxfId="256" priority="91" operator="equal">
-      <formula>$T$4</formula>
+  <conditionalFormatting sqref="F2:F5 L2:L5">
+    <cfRule type="cellIs" dxfId="127" priority="91" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="126" priority="29" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="90" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2 L2:L5">
+    <cfRule type="cellIs" dxfId="124" priority="71" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J5 L2:L5">
+    <cfRule type="cellIs" dxfId="123" priority="69" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="70" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J5">
+    <cfRule type="cellIs" dxfId="121" priority="68" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J5">
+    <cfRule type="cellIs" dxfId="120" priority="67" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="cellIs" dxfId="119" priority="66" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:J7 L6:L7">
+    <cfRule type="cellIs" dxfId="118" priority="64" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="65" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:J7 L6:L7">
+    <cfRule type="cellIs" dxfId="116" priority="63" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:J7">
+    <cfRule type="cellIs" dxfId="115" priority="61" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="62" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:J7 L6:L7">
+    <cfRule type="cellIs" dxfId="113" priority="60" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J4 L2:L4">
+    <cfRule type="cellIs" dxfId="112" priority="58" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="59" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J4">
+    <cfRule type="cellIs" dxfId="110" priority="57" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J4">
+    <cfRule type="cellIs" dxfId="109" priority="56" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="cellIs" dxfId="108" priority="55" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:J5 L5">
+    <cfRule type="cellIs" dxfId="107" priority="53" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="54" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:J5">
+    <cfRule type="cellIs" dxfId="105" priority="52" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:J5">
+    <cfRule type="cellIs" dxfId="104" priority="51" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V4">
+    <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J5 F9:J9 M6:R8 L9:R9 L2:R5">
+    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J8 L2:R8">
+    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5 E2:E7 G6:J8 L6:L8">
+    <cfRule type="cellIs" dxfId="99" priority="118" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="119" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="97" priority="44" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="45" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="42" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="91" priority="46" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="90" priority="47" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="48" operator="equal">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="255" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="35" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="36" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="85" priority="32" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="33" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="83" priority="31" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="82" priority="37" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="81" priority="38" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="39" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:J8 L8">
+    <cfRule type="cellIs" dxfId="79" priority="30" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:J8 L8">
+    <cfRule type="cellIs" dxfId="78" priority="27" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="28" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="253" priority="71" operator="equal">
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="cellIs" dxfId="76" priority="20" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J4 L2:L4">
-    <cfRule type="cellIs" dxfId="252" priority="69" operator="equal">
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K7">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K7">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K7">
+    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K7">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J4 L2:L4">
-    <cfRule type="cellIs" dxfId="250" priority="68" operator="equal">
-      <formula>$T$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J4 L2:L4">
-    <cfRule type="cellIs" dxfId="249" priority="67" operator="equal">
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="248" priority="66" operator="equal">
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+      <formula>$T$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+      <formula>$T$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:J6 L5:L6">
-    <cfRule type="cellIs" dxfId="247" priority="64" operator="equal">
-      <formula>$U$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="65" operator="equal">
-      <formula>$U$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:J6 L5:L6">
-    <cfRule type="cellIs" dxfId="245" priority="63" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:J6 L5:L6">
-    <cfRule type="cellIs" dxfId="244" priority="61" operator="equal">
-      <formula>$U$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="62" operator="equal">
-      <formula>$U$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:J6 L5:L6">
-    <cfRule type="cellIs" dxfId="242" priority="60" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J3 L2:L3">
-    <cfRule type="cellIs" dxfId="241" priority="58" operator="equal">
-      <formula>$T$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="59" operator="equal">
-      <formula>$T$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J3 L2:L3">
-    <cfRule type="cellIs" dxfId="239" priority="57" operator="equal">
-      <formula>$T$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J3 L2:L3">
-    <cfRule type="cellIs" dxfId="238" priority="56" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="237" priority="55" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:J4 L4">
-    <cfRule type="cellIs" dxfId="236" priority="53" operator="equal">
-      <formula>$T$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="54" operator="equal">
-      <formula>$T$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:J4 L4">
-    <cfRule type="cellIs" dxfId="234" priority="52" operator="equal">
-      <formula>$T$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:J4 L4">
-    <cfRule type="cellIs" dxfId="233" priority="51" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="232" priority="49" operator="equal">
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+      <formula>$T$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9 K2:K5">
+    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K8">
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K8">
+    <cfRule type="cellIs" dxfId="55" priority="25" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J4 F8:J8 M5:R7 L8:R8 L2:R4">
-    <cfRule type="cellIs" dxfId="231" priority="110" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="111" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J7 L2:R7">
-    <cfRule type="cellIs" dxfId="229" priority="116" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4 E2:E6 G5:J7 L5:L7">
-    <cfRule type="cellIs" dxfId="228" priority="118" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="119" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="226" priority="44" operator="equal">
-      <formula>$U$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="45" operator="equal">
-      <formula>$U$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="224" priority="43" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="223" priority="41" operator="equal">
-      <formula>$U$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="42" operator="equal">
-      <formula>$U$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="221" priority="40" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="220" priority="46" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="219" priority="47" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="48" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="217" priority="35" operator="equal">
-      <formula>$U$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="36" operator="equal">
-      <formula>$U$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="215" priority="34" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="214" priority="32" operator="equal">
-      <formula>$U$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="33" operator="equal">
-      <formula>$U$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="212" priority="31" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="211" priority="37" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="210" priority="38" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="39" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:J7 L7">
-    <cfRule type="cellIs" dxfId="208" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:J7 L7">
-    <cfRule type="cellIs" dxfId="207" priority="27" operator="equal">
-      <formula>$V$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="28" operator="equal">
-      <formula>$V$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
-    <cfRule type="cellIs" dxfId="205" priority="20" operator="equal">
-      <formula>$T$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="21" operator="equal">
-      <formula>$T$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
-    <cfRule type="cellIs" dxfId="203" priority="19" operator="equal">
-      <formula>$T$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
-    <cfRule type="cellIs" dxfId="202" priority="18" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="201" priority="16" operator="equal">
-      <formula>$U$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="17" operator="equal">
-      <formula>$U$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="199" priority="15" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="198" priority="13" operator="equal">
-      <formula>$U$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="14" operator="equal">
-      <formula>$U$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
-    <cfRule type="cellIs" dxfId="196" priority="12" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
-    <cfRule type="cellIs" dxfId="195" priority="10" operator="equal">
-      <formula>$T$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="11" operator="equal">
-      <formula>$T$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
-    <cfRule type="cellIs" dxfId="193" priority="9" operator="equal">
-      <formula>$T$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K3">
-    <cfRule type="cellIs" dxfId="192" priority="8" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="191" priority="6" operator="equal">
-      <formula>$T$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="7" operator="equal">
-      <formula>$T$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="189" priority="5" operator="equal">
-      <formula>$T$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="188" priority="4" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8 K2:K4">
-    <cfRule type="cellIs" dxfId="187" priority="22" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="23" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K7">
-    <cfRule type="cellIs" dxfId="185" priority="24" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K7">
-    <cfRule type="cellIs" dxfId="184" priority="25" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="26" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="182" priority="3" operator="equal">
-      <formula>$V$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
-      <formula>$V$3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
-      <formula>$V$2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:L6">
-      <formula1>$U$2:$U$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:L7">
+      <formula1>$U$2:$U$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:L4">
-      <formula1>$T$2:$T$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:L5">
+      <formula1>$T$2:$T$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:L7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:L8">
       <formula1>$V$2:$V$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:R7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:R8">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7603,8 +6784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:V1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7617,7 +6798,7 @@
     <col min="11" max="11" width="11.42578125" style="89"/>
     <col min="13" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="33.5703125" style="89" customWidth="1"/>
-    <col min="20" max="22" width="22.28515625" style="89" customWidth="1"/>
+    <col min="20" max="22" width="22.28515625" style="89" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -7649,13 +6830,13 @@
         <v>36</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="91" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M1" s="91" t="s">
         <v>37</v>
@@ -7673,22 +6854,22 @@
         <v>41</v>
       </c>
       <c r="R1" s="90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S1" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V1" s="87" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="106" t="s">
         <v>19</v>
       </c>
@@ -7696,12 +6877,12 @@
         <v>20</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77"/>
       <c r="F2" s="60" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>74</v>
@@ -7727,6 +6908,9 @@
       <c r="P2" s="53"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="25"/>
+      <c r="S2" s="95" t="s">
+        <v>145</v>
+      </c>
       <c r="T2" s="102" t="s">
         <v>46</v>
       </c>
@@ -7745,7 +6929,7 @@
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" s="60" t="s">
         <v>74</v>
@@ -7775,7 +6959,7 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="25"/>
       <c r="S3" s="95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T3" s="103" t="s">
         <v>48</v>
@@ -7795,26 +6979,26 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="61" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" s="61" t="s">
         <v>48</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" s="61" t="s">
         <v>46</v>
@@ -7829,14 +7013,14 @@
         <v>74</v>
       </c>
       <c r="U4" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" s="89" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="107"/>
       <c r="B5" s="112" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C5" s="113"/>
       <c r="D5" s="113"/>
@@ -7869,11 +7053,11 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="25"/>
       <c r="T5" s="103" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V5" s="95"/>
     </row>
-    <row r="6" spans="1:22" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="108"/>
       <c r="B6" s="124" t="s">
         <v>47</v>
@@ -7882,17 +7066,19 @@
       <c r="D6" s="111"/>
       <c r="E6" s="125"/>
       <c r="F6" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="H6" s="84" t="s">
+        <v>146</v>
+      </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55"/>
       <c r="K6" s="84" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L6" s="84" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
@@ -7909,68 +7095,68 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="179" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:J3 L2:L3">
-    <cfRule type="cellIs" dxfId="178" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K3 K6">
-    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="cellIs" dxfId="175" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K5">
-    <cfRule type="cellIs" dxfId="174" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K3">
-    <cfRule type="cellIs" dxfId="172" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:L3">
-    <cfRule type="cellIs" dxfId="171" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="107" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="108" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="113" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:L4">
-    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="118" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="119" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:L5">
-    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7998,8 +7184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8015,7 +7201,7 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="25.28515625" style="89" customWidth="1"/>
-    <col min="20" max="22" width="22.28515625" style="89" customWidth="1"/>
+    <col min="20" max="22" width="22.28515625" style="89" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8047,13 +7233,13 @@
         <v>36</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="91" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M1" s="91" t="s">
         <v>37</v>
@@ -8071,19 +7257,19 @@
         <v>41</v>
       </c>
       <c r="R1" s="90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S1" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V1" s="87" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.25">
@@ -8098,7 +7284,7 @@
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>46</v>
@@ -8145,7 +7331,7 @@
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="60" t="s">
         <v>74</v>
@@ -8223,7 +7409,7 @@
         <v>74</v>
       </c>
       <c r="U4" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V4" s="95"/>
     </row>
@@ -8263,7 +7449,7 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="25"/>
       <c r="T5" s="103" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V5" s="95"/>
     </row>
@@ -8288,13 +7474,13 @@
         <v>48</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -8303,15 +7489,15 @@
       <c r="Q6" s="61"/>
       <c r="R6" s="25"/>
       <c r="S6" s="95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="89" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="107"/>
       <c r="B7" s="93"/>
       <c r="C7" s="92"/>
       <c r="D7" s="92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="61" t="s">
@@ -8327,13 +7513,13 @@
         <v>48</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
@@ -8341,14 +7527,12 @@
       <c r="P7" s="54"/>
       <c r="Q7" s="61"/>
       <c r="R7" s="25"/>
-      <c r="S7" s="95" t="s">
-        <v>116</v>
-      </c>
+      <c r="S7" s="95"/>
     </row>
-    <row r="8" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="89" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="107"/>
       <c r="B8" s="112" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C8" s="113"/>
       <c r="D8" s="113"/>
@@ -8366,13 +7550,13 @@
         <v>48</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="54"/>
       <c r="N8" s="54"/>
@@ -8380,7 +7564,9 @@
       <c r="P8" s="54"/>
       <c r="Q8" s="61"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="95"/>
+      <c r="S8" s="95" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="108"/>
@@ -8395,10 +7581,10 @@
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
       <c r="J9" s="84" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K9" s="84" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L9" s="84"/>
       <c r="M9" s="55"/>
@@ -8416,40 +7602,40 @@
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="163" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:L4">
-    <cfRule type="cellIs" dxfId="162" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+      <formula>$T$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="125" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="126" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="137" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="4" operator="equal">
-      <formula>$T$5</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:L7">
-    <cfRule type="cellIs" dxfId="158" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="131" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="132" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="3" operator="equal">
-      <formula>$U$2</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:L8">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8477,18 +7663,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="89"/>
+    <col min="6" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="89" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
     <col min="13" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.28515625" style="89" customWidth="1"/>
-    <col min="20" max="22" width="22.28515625" style="89" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="89" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="89" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" style="89" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8520,13 +7710,13 @@
         <v>36</v>
       </c>
       <c r="J1" s="91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="91" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M1" s="91" t="s">
         <v>37</v>
@@ -8544,19 +7734,19 @@
         <v>41</v>
       </c>
       <c r="R1" s="90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S1" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V1" s="87" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
@@ -8567,11 +7757,11 @@
         <v>33</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>46</v>
@@ -8601,7 +7791,7 @@
       <c r="Q2" s="60"/>
       <c r="R2" s="25"/>
       <c r="S2" s="95" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="T2" s="102" t="s">
         <v>46</v>
@@ -8621,28 +7811,28 @@
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="F3" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="192" t="s">
+        <v>129</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -8699,7 +7889,7 @@
         <v>74</v>
       </c>
       <c r="U4" s="103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V4" s="95"/>
     </row>
@@ -8742,14 +7932,14 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="25"/>
       <c r="T5" s="103" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="107"/>
       <c r="B6" s="112" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
@@ -8764,16 +7954,16 @@
         <v>48</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -8813,98 +8003,98 @@
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D5 M2:R6">
-    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="35" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:J7 L7:R7">
-    <cfRule type="cellIs" dxfId="57" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5 M2:R6">
-    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="52" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5 D7:E7">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:L5">
-    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:L3">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>$T$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$T$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$T$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
       <formula>$T$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:L6">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8986,19 +8176,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="126">
+      <c r="E2" s="138">
         <v>3</v>
       </c>
       <c r="F2" s="56" t="s">
@@ -9022,16 +8212,16 @@
       <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="138" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="57" t="s">
         <v>53</v>
       </c>
@@ -9051,33 +8241,33 @@
       <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="127"/>
+      <c r="M3" s="139"/>
     </row>
     <row r="4" spans="1:13" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="127"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="57"/>
       <c r="G4" s="99" t="s">
         <v>75</v>
       </c>
       <c r="H4" s="99"/>
       <c r="I4" s="57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="127"/>
+      <c r="M4" s="139"/>
     </row>
     <row r="5" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="9" t="s">
         <v>51</v>
       </c>
@@ -9099,14 +8289,14 @@
       <c r="L5" s="2">
         <v>6</v>
       </c>
-      <c r="M5" s="127"/>
+      <c r="M5" s="139"/>
     </row>
     <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="9" t="s">
         <v>51</v>
       </c>
@@ -9128,14 +8318,14 @@
       <c r="L6" s="2">
         <v>9</v>
       </c>
-      <c r="M6" s="127"/>
+      <c r="M6" s="139"/>
     </row>
     <row r="7" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="10" t="s">
         <v>51</v>
       </c>
@@ -9155,7 +8345,7 @@
       <c r="L7" s="5">
         <v>27</v>
       </c>
-      <c r="M7" s="128"/>
+      <c r="M7" s="140"/>
     </row>
     <row r="8" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -9167,33 +8357,33 @@
       <c r="C8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
       <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="138">
         <v>2</v>
       </c>
       <c r="F9" s="57" t="s">
@@ -9215,16 +8405,16 @@
       <c r="L9" s="2">
         <v>3</v>
       </c>
-      <c r="M9" s="126" t="s">
+      <c r="M9" s="138" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
       <c r="F10" s="47" t="s">
         <v>57</v>
       </c>
@@ -9244,14 +8434,14 @@
       <c r="L10" s="2">
         <v>2</v>
       </c>
-      <c r="M10" s="127"/>
+      <c r="M10" s="139"/>
     </row>
     <row r="11" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="47" t="s">
         <v>81</v>
       </c>
@@ -9271,14 +8461,14 @@
       <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="127"/>
+      <c r="M11" s="139"/>
     </row>
     <row r="12" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
       <c r="F12" s="48" t="s">
         <v>51</v>
       </c>
@@ -9300,14 +8490,14 @@
       <c r="L12" s="2">
         <v>3</v>
       </c>
-      <c r="M12" s="127"/>
+      <c r="M12" s="139"/>
     </row>
     <row r="13" spans="1:13" s="89" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="96"/>
       <c r="G13" s="97" t="s">
         <v>76</v>
@@ -9316,19 +8506,19 @@
         <v>55</v>
       </c>
       <c r="I13" s="96" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="127"/>
+      <c r="M13" s="139"/>
     </row>
     <row r="14" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="57" t="s">
         <v>51</v>
       </c>
@@ -9344,7 +8534,7 @@
       <c r="L14" s="5">
         <v>11</v>
       </c>
-      <c r="M14" s="128"/>
+      <c r="M14" s="140"/>
     </row>
     <row r="15" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
@@ -9356,33 +8546,33 @@
       <c r="C15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="50"/>
       <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="179" t="s">
+      <c r="D16" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="182">
+      <c r="E16" s="155">
         <v>1</v>
       </c>
       <c r="F16" s="57" t="s">
@@ -9405,16 +8595,16 @@
         <f>K16*E16</f>
         <v>1</v>
       </c>
-      <c r="M16" s="185" t="s">
+      <c r="M16" s="158" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="147"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="183"/>
+      <c r="A17" s="174"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="47" t="s">
         <v>63</v>
       </c>
@@ -9435,16 +8625,16 @@
         <f>K17*E16</f>
         <v>0</v>
       </c>
-      <c r="M17" s="186"/>
+      <c r="M17" s="159"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="147"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="183"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="156"/>
       <c r="F18" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="47" t="s">
         <v>76</v>
@@ -9462,14 +8652,14 @@
         <f>K18*E16</f>
         <v>2</v>
       </c>
-      <c r="M18" s="186"/>
+      <c r="M18" s="159"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="147"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="183"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="156"/>
       <c r="F19" s="48" t="s">
         <v>51</v>
       </c>
@@ -9486,14 +8676,14 @@
         <f>K19*E16</f>
         <v>3</v>
       </c>
-      <c r="M19" s="186"/>
+      <c r="M19" s="159"/>
     </row>
     <row r="20" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="184"/>
+      <c r="A20" s="175"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="157"/>
       <c r="F20" s="57" t="s">
         <v>51</v>
       </c>
@@ -9510,7 +8700,7 @@
         <f>SUM(L16:L19)</f>
         <v>6</v>
       </c>
-      <c r="M20" s="187"/>
+      <c r="M20" s="160"/>
     </row>
     <row r="21" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
@@ -9522,33 +8712,33 @@
       <c r="C21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
       <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="158" t="s">
+      <c r="C22" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="129">
         <v>3</v>
       </c>
       <c r="F22" s="57" t="s">
@@ -9568,16 +8758,16 @@
       <c r="L22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="176" t="s">
+      <c r="M22" s="149" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="162"/>
+      <c r="A23" s="183"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="130"/>
       <c r="F23" s="47" t="s">
         <v>64</v>
       </c>
@@ -9595,14 +8785,14 @@
       <c r="L23" s="5">
         <v>6</v>
       </c>
-      <c r="M23" s="177"/>
+      <c r="M23" s="150"/>
     </row>
     <row r="24" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="162"/>
+      <c r="A24" s="183"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="47" t="s">
         <v>65</v>
       </c>
@@ -9620,14 +8810,14 @@
       <c r="L24" s="5">
         <v>6</v>
       </c>
-      <c r="M24" s="177"/>
+      <c r="M24" s="150"/>
     </row>
     <row r="25" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="156"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="162"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="130"/>
       <c r="F25" s="48" t="s">
         <v>51</v>
       </c>
@@ -9647,14 +8837,14 @@
       <c r="L25" s="5">
         <v>6</v>
       </c>
-      <c r="M25" s="177"/>
+      <c r="M25" s="150"/>
     </row>
     <row r="26" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="163"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="131"/>
       <c r="F26" s="57" t="s">
         <v>51</v>
       </c>
@@ -9672,7 +8862,7 @@
       <c r="L26" s="5">
         <v>24</v>
       </c>
-      <c r="M26" s="178"/>
+      <c r="M26" s="151"/>
     </row>
     <row r="27" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
@@ -9684,40 +8874,40 @@
       <c r="C27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="188" t="s">
+      <c r="D27" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="189"/>
-      <c r="M27" s="190"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="163"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
     </row>
     <row r="28" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="143" t="s">
+      <c r="C28" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="170" t="s">
+      <c r="D28" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="173">
+      <c r="E28" s="146">
         <v>3</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G28" s="57" t="s">
         <v>77</v>
@@ -9734,7 +8924,7 @@
         <f>E28*K28</f>
         <v>9</v>
       </c>
-      <c r="M28" s="164" t="s">
+      <c r="M28" s="132" t="s">
         <v>17</v>
       </c>
       <c r="N28" s="25"/>
@@ -9742,11 +8932,11 @@
       <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="138"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="174"/>
+      <c r="A29" s="165"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="147"/>
       <c r="F29" s="47" t="s">
         <v>66</v>
       </c>
@@ -9765,14 +8955,14 @@
         <f>E28*K29</f>
         <v>6</v>
       </c>
-      <c r="M29" s="165"/>
+      <c r="M29" s="133"/>
     </row>
     <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="138"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="174"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="147"/>
       <c r="F30" s="47" t="s">
         <v>51</v>
       </c>
@@ -9793,14 +8983,14 @@
         <f>E28*K30</f>
         <v>9</v>
       </c>
-      <c r="M30" s="165"/>
+      <c r="M30" s="133"/>
     </row>
     <row r="31" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="138"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="174"/>
+      <c r="A31" s="165"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="147"/>
       <c r="F31" s="48" t="s">
         <v>51</v>
       </c>
@@ -9821,14 +9011,14 @@
         <f>E28*K31</f>
         <v>9</v>
       </c>
-      <c r="M31" s="165"/>
+      <c r="M31" s="133"/>
     </row>
     <row r="32" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="139"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="175"/>
+      <c r="A32" s="166"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="57" t="s">
         <v>51</v>
       </c>
@@ -9845,7 +9035,7 @@
         <f>SUM(L28:L31)</f>
         <v>33</v>
       </c>
-      <c r="M32" s="166"/>
+      <c r="M32" s="134"/>
     </row>
     <row r="33" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
@@ -9857,21 +9047,42 @@
       <c r="C33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="167" t="s">
+      <c r="D33" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="169"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="M28:M32"/>
@@ -9886,29 +9097,84 @@
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="M16:M20"/>
     <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="89" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="95"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="95"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="95"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$W$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690" activeTab="4"/>
+    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="R22" sheetId="10" r:id="rId4"/>
     <sheet name="R23" sheetId="11" r:id="rId5"/>
     <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId6"/>
-    <sheet name="leyenda" sheetId="12" r:id="rId7"/>
+    <sheet name="Consolidado" sheetId="13" r:id="rId7"/>
+    <sheet name="leyenda" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1755,7 +1756,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="174">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -2200,13 +2201,91 @@
   </si>
   <si>
     <t>Hubo una mejora considerable en la integración con respecto al ciclo 1.</t>
+  </si>
+  <si>
+    <t>Si se realizo. Los resultados de las pruebas se verbalizaron pero no quedaron consignados en un documento.</t>
+  </si>
+  <si>
+    <t>REGISTRO DE RIESGOS</t>
+  </si>
+  <si>
+    <t>ACCIÓN DE TRATAMIENTO</t>
+  </si>
+  <si>
+    <t>ESTADO-ACCIÓN DE TRATAMIENTO</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Transferir</t>
+  </si>
+  <si>
+    <t>Mitigar / Reducir</t>
+  </si>
+  <si>
+    <t>Aceptar / Asumir</t>
+  </si>
+  <si>
+    <t>Eliminar / Evitar</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>En Retraso / Vencida</t>
+  </si>
+  <si>
+    <t>Cerrada / sin Ejecución</t>
+  </si>
+  <si>
+    <t>Abierta</t>
+  </si>
+  <si>
+    <t>En ejecución</t>
+  </si>
+  <si>
+    <t>ESTADO DEL RIESGO</t>
+  </si>
+  <si>
+    <t>Cant.</t>
+  </si>
+  <si>
+    <t>Materializado</t>
+  </si>
+  <si>
+    <t>Cerrado sin mitigación</t>
+  </si>
+  <si>
+    <t>Aceptado</t>
+  </si>
+  <si>
+    <t>Mitigado</t>
+  </si>
+  <si>
+    <t>Mejorado</t>
+  </si>
+  <si>
+    <t>Latente</t>
+  </si>
+  <si>
+    <t>Cerrada</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2271,8 +2350,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2333,8 +2420,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="71">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -3178,11 +3271,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -3475,6 +3658,78 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3535,12 +3790,108 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3571,21 +3922,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3649,98 +3985,65 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="172">
+  <dxfs count="171">
     <dxf>
       <fill>
         <patternFill>
@@ -4935,13 +5238,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5244,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -5335,19 +5631,19 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="str">
+      <c r="A2" s="130" t="str">
         <f>'Detalles plan de riesgo'!A2:A7</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="133" t="str">
         <f>'Detalles plan de riesgo'!B2:B7</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
-      <c r="C2" s="121" t="str">
-        <f>'Detalles plan de riesgo'!F2</f>
+      <c r="C2" s="145" t="str">
+        <f>'Detalles plan de riesgo'!H2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
       </c>
-      <c r="D2" s="117"/>
+      <c r="D2" s="141"/>
       <c r="E2" s="77" t="s">
         <v>115</v>
       </c>
@@ -5392,10 +5688,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="89" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="118"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="142"/>
       <c r="E3" s="78" t="s">
         <v>114</v>
       </c>
@@ -5440,13 +5736,13 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="72" t="str">
-        <f>'Detalles plan de riesgo'!F3</f>
+        <f>'Detalles plan de riesgo'!H3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
       </c>
-      <c r="D4" s="118"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="78" t="s">
         <v>91</v>
       </c>
@@ -5489,16 +5785,16 @@
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="115" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
+      <c r="A5" s="131"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="139" t="str">
+        <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="119"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="61" t="s">
         <v>46</v>
       </c>
@@ -5543,13 +5839,13 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="115"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="119"/>
+      <c r="E6" s="143"/>
       <c r="F6" s="61" t="s">
         <v>48</v>
       </c>
@@ -5591,13 +5887,13 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="115"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="119"/>
+      <c r="E7" s="143"/>
       <c r="F7" s="61" t="s">
         <v>48</v>
       </c>
@@ -5639,13 +5935,13 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="120"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="61" t="s">
         <v>48</v>
       </c>
@@ -5687,13 +5983,13 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="89" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="114"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
       <c r="F9" s="61" t="s">
         <v>48</v>
       </c>
@@ -5726,13 +6022,13 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
-      <c r="B10" s="112" t="s">
+      <c r="A10" s="132"/>
+      <c r="B10" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
       <c r="F10" s="71" t="s">
         <v>72</v>
       </c>
@@ -5975,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6066,10 +6362,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="146" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="75" t="s">
@@ -6118,8 +6414,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="123"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="72" t="s">
         <v>57</v>
       </c>
@@ -6166,9 +6462,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="89" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="131"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="139" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="73"/>
@@ -6210,9 +6506,9 @@
       <c r="V4" s="102"/>
     </row>
     <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="115"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="73"/>
       <c r="E5" s="78" t="s">
         <v>138</v>
@@ -6256,10 +6552,10 @@
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="123"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="72" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
+        <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="72" t="s">
@@ -6293,7 +6589,7 @@
       <c r="P6" s="54"/>
       <c r="Q6" s="61"/>
       <c r="R6" s="25"/>
-      <c r="S6" s="191" t="s">
+      <c r="S6" s="128" t="s">
         <v>142</v>
       </c>
       <c r="T6" s="103" t="s">
@@ -6301,10 +6597,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="123"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="72" t="str">
-        <f>'Detalles plan de riesgo'!F6</f>
+        <f>'Detalles plan de riesgo'!H6</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="85" t="s">
@@ -6340,13 +6636,13 @@
       <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="138"/>
       <c r="F8" s="61" t="s">
         <v>48</v>
       </c>
@@ -6376,13 +6672,13 @@
       <c r="R8" s="25"/>
     </row>
     <row r="9" spans="1:22" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="124" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="149"/>
       <c r="F9" s="71" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6870,10 +7166,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="146" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="75" t="s">
@@ -6922,8 +7218,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="123"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="72" t="s">
         <v>63</v>
       </c>
@@ -6932,25 +7228,25 @@
         <v>96</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -6972,10 +7268,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="123"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="72" t="str">
-        <f>'Detalles plan de riesgo'!F6</f>
+        <f>'Detalles plan de riesgo'!H6</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="72" t="s">
@@ -7018,13 +7314,13 @@
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" s="89" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="112" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
       <c r="F5" s="61" t="s">
         <v>48</v>
       </c>
@@ -7058,13 +7354,13 @@
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
-      <c r="B6" s="124" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="125"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="71" t="s">
         <v>107</v>
       </c>
@@ -7184,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7273,10 +7569,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="146" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="98" t="s">
@@ -7324,8 +7620,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="123"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="94" t="s">
         <v>64</v>
       </c>
@@ -7352,7 +7648,7 @@
         <v>74</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -7360,6 +7656,9 @@
       <c r="P3" s="54"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="25"/>
+      <c r="S3" s="89" t="s">
+        <v>148</v>
+      </c>
       <c r="T3" s="103" t="s">
         <v>48</v>
       </c>
@@ -7371,8 +7670,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="123"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="94" t="s">
         <v>65</v>
       </c>
@@ -7414,8 +7713,8 @@
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="92"/>
       <c r="D5" s="92" t="s">
         <v>86</v>
@@ -7454,8 +7753,8 @@
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="123"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92" t="s">
         <v>69</v>
@@ -7493,7 +7792,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="93"/>
       <c r="C7" s="92"/>
       <c r="D7" s="92" t="s">
@@ -7530,13 +7829,13 @@
       <c r="S7" s="95"/>
     </row>
     <row r="8" spans="1:22" s="89" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="138"/>
       <c r="F8" s="61" t="s">
         <v>48</v>
       </c>
@@ -7569,11 +7868,11 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="124" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="111"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="82"/>
       <c r="E9" s="80"/>
       <c r="F9" s="64"/>
@@ -7663,7 +7962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:K7"/>
     </sheetView>
   </sheetViews>
@@ -7750,10 +8049,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="146" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -7803,9 +8102,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="123"/>
+    <row r="3" spans="1:22" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="131"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="94" t="s">
         <v>66</v>
       </c>
@@ -7813,25 +8112,25 @@
       <c r="E3" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="192" t="s">
+      <c r="F3" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="192" t="s">
+      <c r="G3" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="192" t="s">
+      <c r="H3" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="192" t="s">
+      <c r="I3" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="192" t="s">
+      <c r="J3" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="192" t="s">
+      <c r="K3" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="192" t="s">
+      <c r="L3" s="129" t="s">
         <v>129</v>
       </c>
       <c r="M3" s="54"/>
@@ -7851,8 +8150,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="123"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="72"/>
       <c r="D4" s="74" t="s">
         <v>68</v>
@@ -7894,10 +8193,10 @@
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="72" t="str">
-        <f>'Detalles plan de riesgo'!F5</f>
+        <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="74" t="s">
@@ -7937,13 +8236,13 @@
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="112" t="s">
+      <c r="A6" s="131"/>
+      <c r="B6" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="114"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="61" t="s">
         <v>48</v>
       </c>
@@ -7974,11 +8273,11 @@
       <c r="V6" s="95"/>
     </row>
     <row r="7" spans="1:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
-      <c r="B7" s="124" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="81"/>
       <c r="E7" s="80"/>
       <c r="F7" s="64"/>
@@ -8116,987 +8415,1135 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C26"/>
+    <sheetView topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="89" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="89"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="89" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="I1" s="221"/>
+      <c r="J1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="K1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="L1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="E2" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="138">
+      <c r="F2" s="109"/>
+      <c r="G2" s="150">
         <v>3</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="H2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="222"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="L2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2">
+      <c r="N2" s="2">
         <v>3</v>
       </c>
-      <c r="L2" s="2">
+      <c r="O2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="138" t="s">
+      <c r="P2" s="150" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="139"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="57" t="s">
+    <row r="3" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="151"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="2">
+      <c r="O3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="139"/>
-    </row>
-    <row r="4" spans="1:13" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="139"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="99" t="s">
+      <c r="P3" s="151"/>
+    </row>
+    <row r="4" spans="1:16" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="151"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="57" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="139"/>
-    </row>
-    <row r="5" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="9" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="151"/>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="151"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="I5" s="110"/>
+      <c r="J5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="L5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="O5" s="2">
         <v>6</v>
       </c>
-      <c r="M5" s="139"/>
-    </row>
-    <row r="6" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="139"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="9" t="s">
+      <c r="P5" s="151"/>
+    </row>
+    <row r="6" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="151"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="I6" s="110"/>
+      <c r="J6" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="L6" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="2">
+      <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="O6" s="2">
         <v>9</v>
       </c>
-      <c r="M6" s="139"/>
-    </row>
-    <row r="7" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="10" t="s">
+      <c r="P6" s="151"/>
+    </row>
+    <row r="7" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="152"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="I7" s="111"/>
+      <c r="J7" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="L7" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5">
+      <c r="N7" s="4"/>
+      <c r="O7" s="5">
         <v>27</v>
       </c>
-      <c r="M7" s="140"/>
-    </row>
-    <row r="8" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="152"/>
+    </row>
+    <row r="8" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="E8" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="51"/>
+    </row>
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="188" t="s">
+      <c r="C9" s="125"/>
+      <c r="D9" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="E9" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="138">
+      <c r="F9" s="109"/>
+      <c r="G9" s="150">
         <v>2</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="H9" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="I9" s="57"/>
+      <c r="J9" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="2">
+      <c r="N9" s="2">
         <v>3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="M9" s="138" t="s">
+      <c r="P9" s="150" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="47" t="s">
+    <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="151"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="I10" s="110"/>
+      <c r="J10" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="2">
+      <c r="N10" s="2">
         <v>2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="M10" s="139"/>
-    </row>
-    <row r="11" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="139"/>
-      <c r="B11" s="186"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="47" t="s">
+      <c r="P10" s="151"/>
+    </row>
+    <row r="11" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="151"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="I11" s="110"/>
+      <c r="J11" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="2">
+      <c r="N11" s="2">
         <v>3</v>
       </c>
-      <c r="L11" s="2">
+      <c r="O11" s="2">
         <v>3</v>
       </c>
-      <c r="M11" s="139"/>
-    </row>
-    <row r="12" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="139"/>
-      <c r="B12" s="186"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="48" t="s">
+      <c r="P11" s="151"/>
+    </row>
+    <row r="12" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="151"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="I12" s="111"/>
+      <c r="J12" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="2">
+      <c r="N12" s="2">
         <v>3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="O12" s="2">
         <v>3</v>
       </c>
-      <c r="M12" s="139"/>
-    </row>
-    <row r="13" spans="1:13" s="89" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139"/>
-      <c r="B13" s="186"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97" t="s">
+      <c r="P12" s="151"/>
+    </row>
+    <row r="13" spans="1:16" s="89" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="151"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="K13" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="96" t="s">
+      <c r="L13" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="139"/>
-    </row>
-    <row r="14" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="57" t="s">
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="151"/>
+    </row>
+    <row r="14" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="152"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="I14" s="57"/>
+      <c r="J14" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5">
+      <c r="N14" s="4"/>
+      <c r="O14" s="5">
         <v>11</v>
       </c>
-      <c r="M14" s="140"/>
-    </row>
-    <row r="15" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="152"/>
+    </row>
+    <row r="15" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="141" t="s">
+      <c r="E15" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="173" t="s">
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="121"/>
+      <c r="D16" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="E16" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="155">
+      <c r="F16" s="115"/>
+      <c r="G16" s="206">
         <v>1</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="H16" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="I16" s="57"/>
+      <c r="J16" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="K16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19" t="s">
+      <c r="L16" s="24"/>
+      <c r="M16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="20">
+      <c r="N16" s="20">
         <v>1</v>
       </c>
-      <c r="L16" s="20">
-        <f>K16*E16</f>
+      <c r="O16" s="20">
+        <f>N16*G16</f>
         <v>1</v>
       </c>
-      <c r="M16" s="158" t="s">
+      <c r="P16" s="209" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="47" t="s">
+    <row r="17" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="171"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="I17" s="110"/>
+      <c r="J17" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="K17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="12" t="s">
+      <c r="L17" s="17"/>
+      <c r="M17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="13">
+      <c r="N17" s="13">
         <v>0</v>
       </c>
-      <c r="L17" s="13">
-        <f>K17*E16</f>
+      <c r="O17" s="13">
+        <f>N17*G16</f>
         <v>0</v>
       </c>
-      <c r="M17" s="159"/>
-    </row>
-    <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="174"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="47" t="s">
+      <c r="P17" s="210"/>
+    </row>
+    <row r="18" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="171"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="I18" s="110"/>
+      <c r="J18" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="K18" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="13">
+      <c r="N18" s="13">
         <v>2</v>
       </c>
-      <c r="L18" s="13">
-        <f>K18*E16</f>
+      <c r="O18" s="13">
+        <f>N18*G16</f>
         <v>2</v>
       </c>
-      <c r="M18" s="159"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="174"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="48" t="s">
+      <c r="P18" s="210"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="171"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="12" t="s">
+      <c r="I19" s="111"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="13">
+      <c r="N19" s="13">
         <v>3</v>
       </c>
-      <c r="L19" s="13">
-        <f>K19*E16</f>
+      <c r="O19" s="13">
+        <f>N19*G16</f>
         <v>3</v>
       </c>
-      <c r="M19" s="159"/>
-    </row>
-    <row r="20" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="57" t="s">
+      <c r="P19" s="210"/>
+    </row>
+    <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="172"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="I20" s="57"/>
+      <c r="J20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="14" t="s">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16">
-        <f>SUM(L16:L19)</f>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16">
+        <f>SUM(O16:O19)</f>
         <v>6</v>
       </c>
-      <c r="M20" s="160"/>
-    </row>
-    <row r="21" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="211"/>
+    </row>
+    <row r="21" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="E21" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="182" t="s">
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
+    </row>
+    <row r="22" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="124"/>
+      <c r="D22" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="126" t="s">
+      <c r="E22" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="129">
+      <c r="F22" s="106"/>
+      <c r="G22" s="185">
         <v>3</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="H22" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="I22" s="57"/>
+      <c r="J22" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="7">
+      <c r="N22" s="7">
         <v>2</v>
       </c>
-      <c r="L22" s="5">
+      <c r="O22" s="5">
         <v>6</v>
       </c>
-      <c r="M22" s="149" t="s">
+      <c r="P22" s="200" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="183"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="47" t="s">
+    <row r="23" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="180"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="7">
+      <c r="N23" s="7">
         <v>2</v>
       </c>
-      <c r="L23" s="5">
+      <c r="O23" s="5">
         <v>6</v>
       </c>
-      <c r="M23" s="150"/>
-    </row>
-    <row r="24" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="183"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="47" t="s">
+      <c r="P23" s="201"/>
+    </row>
+    <row r="24" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="180"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="I24" s="110"/>
+      <c r="J24" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="7">
+      <c r="N24" s="7">
         <v>2</v>
       </c>
-      <c r="L24" s="5">
+      <c r="O24" s="5">
         <v>6</v>
       </c>
-      <c r="M24" s="150"/>
-    </row>
-    <row r="25" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="183"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="48" t="s">
+      <c r="P24" s="201"/>
+    </row>
+    <row r="25" spans="1:19" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="180"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="I25" s="111"/>
+      <c r="J25" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69" t="s">
+      <c r="K25" s="69"/>
+      <c r="L25" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="7">
+      <c r="N25" s="7">
         <v>2</v>
       </c>
-      <c r="L25" s="5">
+      <c r="O25" s="5">
         <v>6</v>
       </c>
-      <c r="M25" s="150"/>
-    </row>
-    <row r="26" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="183"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="57" t="s">
+      <c r="P25" s="201"/>
+    </row>
+    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="180"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="I26" s="57"/>
+      <c r="J26" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69" t="s">
+      <c r="K26" s="69"/>
+      <c r="L26" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5">
+      <c r="N26" s="4"/>
+      <c r="O26" s="5">
         <v>24</v>
       </c>
-      <c r="M26" s="151"/>
-    </row>
-    <row r="27" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="202"/>
+    </row>
+    <row r="27" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="161" t="s">
+      <c r="E27" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-    </row>
-    <row r="28" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="164" t="s">
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
+      <c r="O27" s="213"/>
+      <c r="P27" s="214"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="167" t="s">
+      <c r="B28" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="118"/>
+      <c r="D28" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="143" t="s">
+      <c r="E28" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="146">
+      <c r="F28" s="112"/>
+      <c r="G28" s="197">
         <v>3</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="H28" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="I28" s="57"/>
+      <c r="J28" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="26" t="s">
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="27">
+      <c r="N28" s="27">
         <v>3</v>
       </c>
-      <c r="L28" s="28">
-        <f>E28*K28</f>
+      <c r="O28" s="28">
+        <f>G28*N28</f>
         <v>9</v>
       </c>
-      <c r="M28" s="132" t="s">
+      <c r="P28" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-    </row>
-    <row r="29" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="165"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="47" t="s">
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="162"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="I29" s="110"/>
+      <c r="J29" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="29" t="s">
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="30">
+      <c r="N29" s="30">
         <v>2</v>
       </c>
-      <c r="L29" s="31">
-        <f>E28*K29</f>
+      <c r="O29" s="31">
+        <f>G28*N29</f>
         <v>6</v>
       </c>
-      <c r="M29" s="133"/>
-    </row>
-    <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="165"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="47" t="s">
+      <c r="P29" s="189"/>
+    </row>
+    <row r="30" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="162"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="I30" s="110"/>
+      <c r="J30" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="70" t="s">
+      <c r="K30" s="44"/>
+      <c r="L30" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="M30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="33">
+      <c r="N30" s="33">
         <v>3</v>
       </c>
-      <c r="L30" s="34">
-        <f>E28*K30</f>
+      <c r="O30" s="34">
+        <f>G28*N30</f>
         <v>9</v>
       </c>
-      <c r="M30" s="133"/>
-    </row>
-    <row r="31" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="165"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="48" t="s">
+      <c r="P30" s="189"/>
+    </row>
+    <row r="31" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="162"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="I31" s="111"/>
+      <c r="J31" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="70" t="s">
+      <c r="K31" s="44"/>
+      <c r="L31" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="M31" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="35">
+      <c r="N31" s="35">
         <v>3</v>
       </c>
-      <c r="L31" s="31">
-        <f>E28*K31</f>
+      <c r="O31" s="31">
+        <f>G28*N31</f>
         <v>9</v>
       </c>
-      <c r="M31" s="133"/>
-    </row>
-    <row r="32" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="166"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="57" t="s">
+      <c r="P31" s="189"/>
+    </row>
+    <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="163"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="I32" s="57"/>
+      <c r="J32" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="36" t="s">
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38">
-        <f>SUM(L28:L31)</f>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38">
+        <f>SUM(O28:O31)</f>
         <v>33</v>
       </c>
-      <c r="M32" s="134"/>
-    </row>
-    <row r="33" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="190"/>
+    </row>
+    <row r="33" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="223"/>
+      <c r="D33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="135" t="s">
+      <c r="E33" s="191" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="137"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="192"/>
+      <c r="N33" s="192"/>
+      <c r="O33" s="192"/>
+      <c r="P33" s="193"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="89"/>
+      <c r="J35" s="224"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="89"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="89"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="89"/>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="89"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="89"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="89"/>
+      <c r="I41"/>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="89"/>
+      <c r="I42"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="89"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="89"/>
+      <c r="I44"/>
+      <c r="K44" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="E33:P33"/>
+    <mergeCell ref="P9:P14"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="P22:P26"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="P16:P20"/>
+    <mergeCell ref="E27:P27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="P2:P7"/>
+    <mergeCell ref="E8:L8"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="M9:M14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="M22:M26"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="M16:M20"/>
-    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="G2:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9104,6 +9551,230 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="89" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="215" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="216"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="215" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="216"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="215" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="K2" s="215" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="216"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="230" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="235">
+        <v>4</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="227" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="235">
+        <v>0</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="226" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="235">
+        <v>0</v>
+      </c>
+      <c r="K3" s="217"/>
+      <c r="L3" s="238" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="231" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="235">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="227" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="235">
+        <v>0</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="226" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="235">
+        <v>0</v>
+      </c>
+      <c r="K4" s="226" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="232" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="235">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="228" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="235">
+        <v>5</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="227" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="235">
+        <v>0</v>
+      </c>
+      <c r="K5" s="226" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="233" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="235">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="225" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="235">
+        <v>0</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="225" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="235">
+        <v>5</v>
+      </c>
+      <c r="K6" s="227" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="234" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="236">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="218" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="219"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="229" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="237">
+        <v>0</v>
+      </c>
+      <c r="K7" s="228" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="220"/>
+      <c r="G8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="K8" s="228" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="K9" s="225" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="89"/>
+      <c r="K10" s="218" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="89"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>

--- a/Seguimiento/Riesgos.xlsx
+++ b/Seguimiento/Riesgos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690"/>
+    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -3730,267 +3730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4037,6 +3776,267 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5540,7 +5540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -5631,19 +5631,19 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="str">
+      <c r="A2" s="152" t="str">
         <f>'Detalles plan de riesgo'!A2:A7</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="133" t="str">
+      <c r="B2" s="155" t="str">
         <f>'Detalles plan de riesgo'!B2:B7</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
-      <c r="C2" s="145" t="str">
+      <c r="C2" s="167" t="str">
         <f>'Detalles plan de riesgo'!H2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
       </c>
-      <c r="D2" s="141"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="77" t="s">
         <v>115</v>
       </c>
@@ -5688,10 +5688,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="89" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="142"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="164"/>
       <c r="E3" s="78" t="s">
         <v>114</v>
       </c>
@@ -5736,13 +5736,13 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="72" t="str">
         <f>'Detalles plan de riesgo'!H3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
       </c>
-      <c r="D4" s="142"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="78" t="s">
         <v>91</v>
       </c>
@@ -5785,16 +5785,16 @@
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="139" t="str">
+      <c r="A5" s="153"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="161" t="str">
         <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="143"/>
+      <c r="E5" s="165"/>
       <c r="F5" s="61" t="s">
         <v>46</v>
       </c>
@@ -5839,13 +5839,13 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="139"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="161"/>
       <c r="D6" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="143"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="61" t="s">
         <v>48</v>
       </c>
@@ -5887,13 +5887,13 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="131"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="139"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="161"/>
       <c r="D7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="143"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="61" t="s">
         <v>48</v>
       </c>
@@ -5935,13 +5935,13 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="140"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="144"/>
+      <c r="E8" s="166"/>
       <c r="F8" s="61" t="s">
         <v>48</v>
       </c>
@@ -5983,13 +5983,13 @@
       </c>
     </row>
     <row r="9" spans="1:22" s="89" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="131"/>
-      <c r="B9" s="136" t="s">
+      <c r="A9" s="153"/>
+      <c r="B9" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="160"/>
       <c r="F9" s="61" t="s">
         <v>48</v>
       </c>
@@ -6022,13 +6022,13 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
-      <c r="B10" s="136" t="s">
+      <c r="A10" s="154"/>
+      <c r="B10" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
       <c r="F10" s="71" t="s">
         <v>72</v>
       </c>
@@ -6362,10 +6362,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="168" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="75" t="s">
@@ -6414,8 +6414,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="147"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="72" t="s">
         <v>57</v>
       </c>
@@ -6462,9 +6462,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="89" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="139" t="s">
+      <c r="A4" s="153"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="161" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="73"/>
@@ -6506,9 +6506,9 @@
       <c r="V4" s="102"/>
     </row>
     <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="139"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="161"/>
       <c r="D5" s="73"/>
       <c r="E5" s="78" t="s">
         <v>138</v>
@@ -6552,8 +6552,8 @@
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="147"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="72" t="str">
         <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
@@ -6597,8 +6597,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
-      <c r="B7" s="147"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="72" t="str">
         <f>'Detalles plan de riesgo'!H6</f>
         <v xml:space="preserve"> </v>
@@ -6636,13 +6636,13 @@
       <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="136" t="s">
+      <c r="A8" s="153"/>
+      <c r="B8" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="160"/>
       <c r="F8" s="61" t="s">
         <v>48</v>
       </c>
@@ -6672,13 +6672,13 @@
       <c r="R8" s="25"/>
     </row>
     <row r="9" spans="1:22" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="148" t="s">
+      <c r="A9" s="154"/>
+      <c r="B9" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="149"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="171"/>
       <c r="F9" s="71" t="s">
         <v>73</v>
       </c>
@@ -7166,10 +7166,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="168" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="75" t="s">
@@ -7218,8 +7218,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="147"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="72" t="s">
         <v>63</v>
       </c>
@@ -7268,8 +7268,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
-      <c r="B4" s="147"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="72" t="str">
         <f>'Detalles plan de riesgo'!H6</f>
         <v xml:space="preserve"> </v>
@@ -7314,13 +7314,13 @@
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" s="89" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="131"/>
-      <c r="B5" s="136" t="s">
+      <c r="A5" s="153"/>
+      <c r="B5" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="160"/>
       <c r="F5" s="61" t="s">
         <v>48</v>
       </c>
@@ -7354,13 +7354,13 @@
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
-      <c r="B6" s="148" t="s">
+      <c r="A6" s="154"/>
+      <c r="B6" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="149"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="71" t="s">
         <v>107</v>
       </c>
@@ -7569,10 +7569,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="168" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="98" t="s">
@@ -7620,8 +7620,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="147"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="94" t="s">
         <v>64</v>
       </c>
@@ -7670,8 +7670,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="147"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="94" t="s">
         <v>65</v>
       </c>
@@ -7713,8 +7713,8 @@
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="147"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="92"/>
       <c r="D5" s="92" t="s">
         <v>86</v>
@@ -7753,8 +7753,8 @@
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="147"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92" t="s">
         <v>69</v>
@@ -7792,7 +7792,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="93"/>
       <c r="C7" s="92"/>
       <c r="D7" s="92" t="s">
@@ -7829,13 +7829,13 @@
       <c r="S7" s="95"/>
     </row>
     <row r="8" spans="1:22" s="89" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="136" t="s">
+      <c r="A8" s="153"/>
+      <c r="B8" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="160"/>
       <c r="F8" s="61" t="s">
         <v>48</v>
       </c>
@@ -7868,11 +7868,11 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="148" t="s">
+      <c r="A9" s="154"/>
+      <c r="B9" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="157"/>
       <c r="D9" s="82"/>
       <c r="E9" s="80"/>
       <c r="F9" s="64"/>
@@ -8049,10 +8049,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="168" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -8103,8 +8103,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="147"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="94" t="s">
         <v>66</v>
       </c>
@@ -8150,8 +8150,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="147"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="72"/>
       <c r="D4" s="74" t="s">
         <v>68</v>
@@ -8193,8 +8193,8 @@
       <c r="V4" s="95"/>
     </row>
     <row r="5" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="131"/>
-      <c r="B5" s="147"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="72" t="str">
         <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
@@ -8236,13 +8236,13 @@
       <c r="V5" s="95"/>
     </row>
     <row r="6" spans="1:22" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
-      <c r="B6" s="136" t="s">
+      <c r="A6" s="153"/>
+      <c r="B6" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="160"/>
       <c r="F6" s="61" t="s">
         <v>48</v>
       </c>
@@ -8273,11 +8273,11 @@
       <c r="V6" s="95"/>
     </row>
     <row r="7" spans="1:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
-      <c r="B7" s="148" t="s">
+      <c r="A7" s="154"/>
+      <c r="B7" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="135"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="81"/>
       <c r="E7" s="80"/>
       <c r="F7" s="64"/>
@@ -8417,8 +8417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8457,7 +8457,7 @@
       <c r="H1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="221"/>
+      <c r="I1" s="134"/>
       <c r="J1" s="42" t="s">
         <v>43</v>
       </c>
@@ -8481,27 +8481,27 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="231" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="125"/>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="234" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="184" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="109"/>
-      <c r="G2" s="150">
+      <c r="G2" s="184">
         <v>3</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="222"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
@@ -8520,18 +8520,18 @@
       <c r="O2" s="2">
         <v>9</v>
       </c>
-      <c r="P2" s="150" t="s">
+      <c r="P2" s="184" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="156"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="126"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="151"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="185"/>
       <c r="F3" s="110"/>
-      <c r="G3" s="151"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="57" t="s">
         <v>53</v>
       </c>
@@ -8552,16 +8552,16 @@
       <c r="O3" s="2">
         <v>3</v>
       </c>
-      <c r="P3" s="151"/>
+      <c r="P3" s="185"/>
     </row>
     <row r="4" spans="1:16" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="151"/>
-      <c r="B4" s="156"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="126"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="151"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="185"/>
       <c r="F4" s="110"/>
-      <c r="G4" s="151"/>
+      <c r="G4" s="185"/>
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="99" t="s">
@@ -8574,16 +8574,16 @@
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="151"/>
+      <c r="P4" s="185"/>
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="151"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="126"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="151"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="185"/>
       <c r="F5" s="110"/>
-      <c r="G5" s="151"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="9" t="s">
         <v>51</v>
       </c>
@@ -8606,16 +8606,16 @@
       <c r="O5" s="2">
         <v>6</v>
       </c>
-      <c r="P5" s="151"/>
+      <c r="P5" s="185"/>
     </row>
     <row r="6" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="156"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="232"/>
       <c r="C6" s="126"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="151"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="185"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="151"/>
+      <c r="G6" s="185"/>
       <c r="H6" s="9" t="s">
         <v>51</v>
       </c>
@@ -8638,16 +8638,16 @@
       <c r="O6" s="2">
         <v>9</v>
       </c>
-      <c r="P6" s="151"/>
+      <c r="P6" s="185"/>
     </row>
     <row r="7" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
-      <c r="B7" s="157"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="233"/>
       <c r="C7" s="127"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="152"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="186"/>
       <c r="F7" s="111"/>
-      <c r="G7" s="152"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="10" t="s">
         <v>51</v>
       </c>
@@ -8668,7 +8668,7 @@
       <c r="O7" s="5">
         <v>27</v>
       </c>
-      <c r="P7" s="152"/>
+      <c r="P7" s="186"/>
     </row>
     <row r="8" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -8681,37 +8681,37 @@
       <c r="D8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="231" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="125"/>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="150" t="s">
+      <c r="E9" s="184" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="109"/>
-      <c r="G9" s="150">
+      <c r="G9" s="184">
         <v>2</v>
       </c>
       <c r="H9" s="57" t="s">
@@ -8734,18 +8734,18 @@
       <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="150" t="s">
+      <c r="P9" s="184" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="151"/>
-      <c r="B10" s="156"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="126"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="151"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="185"/>
       <c r="F10" s="110"/>
-      <c r="G10" s="151"/>
+      <c r="G10" s="185"/>
       <c r="H10" s="47" t="s">
         <v>57</v>
       </c>
@@ -8766,16 +8766,16 @@
       <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="P10" s="151"/>
+      <c r="P10" s="185"/>
     </row>
     <row r="11" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="151"/>
-      <c r="B11" s="156"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="232"/>
       <c r="C11" s="126"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="151"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="185"/>
       <c r="F11" s="110"/>
-      <c r="G11" s="151"/>
+      <c r="G11" s="185"/>
       <c r="H11" s="47" t="s">
         <v>81</v>
       </c>
@@ -8796,16 +8796,16 @@
       <c r="O11" s="2">
         <v>3</v>
       </c>
-      <c r="P11" s="151"/>
+      <c r="P11" s="185"/>
     </row>
     <row r="12" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
-      <c r="B12" s="156"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="232"/>
       <c r="C12" s="126"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="151"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="185"/>
       <c r="F12" s="110"/>
-      <c r="G12" s="151"/>
+      <c r="G12" s="185"/>
       <c r="H12" s="48" t="s">
         <v>51</v>
       </c>
@@ -8828,16 +8828,16 @@
       <c r="O12" s="2">
         <v>3</v>
       </c>
-      <c r="P12" s="151"/>
+      <c r="P12" s="185"/>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
-      <c r="B13" s="156"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="232"/>
       <c r="C13" s="126"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="151"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="185"/>
       <c r="F13" s="110"/>
-      <c r="G13" s="151"/>
+      <c r="G13" s="185"/>
       <c r="H13" s="96"/>
       <c r="I13" s="110"/>
       <c r="J13" s="97" t="s">
@@ -8852,16 +8852,16 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="151"/>
+      <c r="P13" s="185"/>
     </row>
     <row r="14" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
-      <c r="B14" s="157"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="233"/>
       <c r="C14" s="127"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="152"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="186"/>
       <c r="F14" s="111"/>
-      <c r="G14" s="152"/>
+      <c r="G14" s="186"/>
       <c r="H14" s="57" t="s">
         <v>51</v>
       </c>
@@ -8878,7 +8878,7 @@
       <c r="O14" s="5">
         <v>11</v>
       </c>
-      <c r="P14" s="152"/>
+      <c r="P14" s="186"/>
     </row>
     <row r="15" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
@@ -8891,37 +8891,37 @@
       <c r="D15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="153" t="s">
+      <c r="E15" s="187" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="222" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="121"/>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="203" t="s">
+      <c r="E16" s="198" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="115"/>
-      <c r="G16" s="206">
+      <c r="G16" s="201">
         <v>1</v>
       </c>
       <c r="H16" s="57" t="s">
@@ -8945,18 +8945,18 @@
         <f>N16*G16</f>
         <v>1</v>
       </c>
-      <c r="P16" s="209" t="s">
+      <c r="P16" s="204" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="171"/>
-      <c r="B17" s="174"/>
+      <c r="A17" s="220"/>
+      <c r="B17" s="223"/>
       <c r="C17" s="122"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="204"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="199"/>
       <c r="F17" s="116"/>
-      <c r="G17" s="207"/>
+      <c r="G17" s="202"/>
       <c r="H17" s="47" t="s">
         <v>63</v>
       </c>
@@ -8978,16 +8978,16 @@
         <f>N17*G16</f>
         <v>0</v>
       </c>
-      <c r="P17" s="210"/>
+      <c r="P17" s="205"/>
     </row>
     <row r="18" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="171"/>
-      <c r="B18" s="174"/>
+      <c r="A18" s="220"/>
+      <c r="B18" s="223"/>
       <c r="C18" s="122"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="204"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="199"/>
       <c r="F18" s="116"/>
-      <c r="G18" s="207"/>
+      <c r="G18" s="202"/>
       <c r="H18" s="47" t="s">
         <v>109</v>
       </c>
@@ -9008,16 +9008,16 @@
         <f>N18*G16</f>
         <v>2</v>
       </c>
-      <c r="P18" s="210"/>
+      <c r="P18" s="205"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="171"/>
-      <c r="B19" s="174"/>
+      <c r="A19" s="220"/>
+      <c r="B19" s="223"/>
       <c r="C19" s="122"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="204"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="199"/>
       <c r="F19" s="116"/>
-      <c r="G19" s="207"/>
+      <c r="G19" s="202"/>
       <c r="H19" s="48" t="s">
         <v>51</v>
       </c>
@@ -9035,16 +9035,16 @@
         <f>N19*G16</f>
         <v>3</v>
       </c>
-      <c r="P19" s="210"/>
+      <c r="P19" s="205"/>
     </row>
     <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
-      <c r="B20" s="175"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="224"/>
       <c r="C20" s="123"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="205"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="200"/>
       <c r="F20" s="117"/>
-      <c r="G20" s="208"/>
+      <c r="G20" s="203"/>
       <c r="H20" s="57" t="s">
         <v>51</v>
       </c>
@@ -9062,7 +9062,7 @@
         <f>SUM(O16:O19)</f>
         <v>6</v>
       </c>
-      <c r="P20" s="211"/>
+      <c r="P20" s="206"/>
     </row>
     <row r="21" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
@@ -9075,37 +9075,37 @@
       <c r="D21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="153" t="s">
+      <c r="E21" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="188"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="51"/>
     </row>
     <row r="22" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="181" t="s">
+      <c r="B22" s="230" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="124"/>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="183" t="s">
+      <c r="E22" s="172" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="106"/>
-      <c r="G22" s="185">
+      <c r="G22" s="175">
         <v>3</v>
       </c>
       <c r="H22" s="57" t="s">
@@ -9126,18 +9126,18 @@
       <c r="O22" s="5">
         <v>6</v>
       </c>
-      <c r="P22" s="200" t="s">
+      <c r="P22" s="195" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="180"/>
-      <c r="B23" s="181"/>
+      <c r="A23" s="229"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="124"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
       <c r="F23" s="107"/>
-      <c r="G23" s="186"/>
+      <c r="G23" s="176"/>
       <c r="H23" s="47" t="s">
         <v>64</v>
       </c>
@@ -9156,16 +9156,16 @@
       <c r="O23" s="5">
         <v>6</v>
       </c>
-      <c r="P23" s="201"/>
+      <c r="P23" s="196"/>
     </row>
     <row r="24" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="180"/>
-      <c r="B24" s="181"/>
+      <c r="A24" s="229"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="124"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="186"/>
+      <c r="G24" s="176"/>
       <c r="H24" s="47" t="s">
         <v>65</v>
       </c>
@@ -9184,16 +9184,16 @@
       <c r="O24" s="5">
         <v>6</v>
       </c>
-      <c r="P24" s="201"/>
+      <c r="P24" s="196"/>
     </row>
     <row r="25" spans="1:19" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="180"/>
-      <c r="B25" s="181"/>
+      <c r="A25" s="229"/>
+      <c r="B25" s="230"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
       <c r="F25" s="107"/>
-      <c r="G25" s="186"/>
+      <c r="G25" s="176"/>
       <c r="H25" s="48" t="s">
         <v>51</v>
       </c>
@@ -9214,16 +9214,16 @@
       <c r="O25" s="5">
         <v>6</v>
       </c>
-      <c r="P25" s="201"/>
+      <c r="P25" s="196"/>
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="180"/>
-      <c r="B26" s="181"/>
+      <c r="A26" s="229"/>
+      <c r="B26" s="230"/>
       <c r="C26" s="124"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="184"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
       <c r="F26" s="108"/>
-      <c r="G26" s="187"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="57" t="s">
         <v>51</v>
       </c>
@@ -9242,7 +9242,7 @@
       <c r="O26" s="5">
         <v>24</v>
       </c>
-      <c r="P26" s="202"/>
+      <c r="P26" s="197"/>
     </row>
     <row r="27" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
@@ -9255,40 +9255,40 @@
       <c r="D27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="212" t="s">
+      <c r="E27" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="213"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="213"/>
-      <c r="P27" s="214"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="208"/>
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="209"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="164" t="s">
+      <c r="B28" s="213" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="118"/>
-      <c r="D28" s="167" t="s">
+      <c r="D28" s="216" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="194" t="s">
+      <c r="E28" s="189" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="112"/>
-      <c r="G28" s="197">
+      <c r="G28" s="192">
         <v>3</v>
       </c>
       <c r="H28" s="57" t="s">
@@ -9310,7 +9310,7 @@
         <f>G28*N28</f>
         <v>9</v>
       </c>
-      <c r="P28" s="188" t="s">
+      <c r="P28" s="178" t="s">
         <v>17</v>
       </c>
       <c r="Q28" s="25"/>
@@ -9318,13 +9318,13 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="162"/>
-      <c r="B29" s="165"/>
+      <c r="A29" s="211"/>
+      <c r="B29" s="214"/>
       <c r="C29" s="119"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="195"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="190"/>
       <c r="F29" s="113"/>
-      <c r="G29" s="198"/>
+      <c r="G29" s="193"/>
       <c r="H29" s="47" t="s">
         <v>66</v>
       </c>
@@ -9344,16 +9344,16 @@
         <f>G28*N29</f>
         <v>6</v>
       </c>
-      <c r="P29" s="189"/>
+      <c r="P29" s="179"/>
     </row>
     <row r="30" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="162"/>
-      <c r="B30" s="165"/>
+      <c r="A30" s="211"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="119"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="195"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="190"/>
       <c r="F30" s="113"/>
-      <c r="G30" s="198"/>
+      <c r="G30" s="193"/>
       <c r="H30" s="47" t="s">
         <v>51</v>
       </c>
@@ -9375,16 +9375,16 @@
         <f>G28*N30</f>
         <v>9</v>
       </c>
-      <c r="P30" s="189"/>
+      <c r="P30" s="179"/>
     </row>
     <row r="31" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="165"/>
+      <c r="A31" s="211"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="119"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="195"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="190"/>
       <c r="F31" s="113"/>
-      <c r="G31" s="198"/>
+      <c r="G31" s="193"/>
       <c r="H31" s="48" t="s">
         <v>51</v>
       </c>
@@ -9406,16 +9406,16 @@
         <f>G28*N31</f>
         <v>9</v>
       </c>
-      <c r="P31" s="189"/>
+      <c r="P31" s="179"/>
     </row>
     <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="163"/>
-      <c r="B32" s="166"/>
+      <c r="A32" s="212"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="120"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="196"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="191"/>
       <c r="F32" s="114"/>
-      <c r="G32" s="199"/>
+      <c r="G32" s="194"/>
       <c r="H32" s="57" t="s">
         <v>51</v>
       </c>
@@ -9433,7 +9433,7 @@
         <f>SUM(O28:O31)</f>
         <v>33</v>
       </c>
-      <c r="P32" s="190"/>
+      <c r="P32" s="180"/>
     </row>
     <row r="33" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
@@ -9442,31 +9442,31 @@
       <c r="B33" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="191" t="s">
+      <c r="E33" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="192"/>
-      <c r="P33" s="193"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="183"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="89"/>
-      <c r="J35" s="224"/>
+      <c r="J35" s="137"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="89"/>
@@ -9509,6 +9509,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="P2:P7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="G22:G26"/>
     <mergeCell ref="P28:P32"/>
@@ -9523,27 +9544,6 @@
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="P16:P20"/>
     <mergeCell ref="E27:P27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="P2:P7"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="G2:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9572,188 +9572,188 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="215" t="s">
+      <c r="C2" s="238"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="237" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="216"/>
+      <c r="F2" s="238"/>
       <c r="G2" s="89"/>
-      <c r="H2" s="215" t="s">
+      <c r="H2" s="237" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="216"/>
-      <c r="K2" s="215" t="s">
+      <c r="I2" s="238"/>
+      <c r="K2" s="237" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="216"/>
+      <c r="L2" s="238"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="235">
+      <c r="C3" s="148">
         <v>4</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="227" t="s">
+      <c r="E3" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="235">
+      <c r="F3" s="148">
         <v>0</v>
       </c>
       <c r="G3" s="89"/>
-      <c r="H3" s="226" t="s">
+      <c r="H3" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="235">
+      <c r="I3" s="148">
         <v>0</v>
       </c>
-      <c r="K3" s="217"/>
-      <c r="L3" s="238" t="s">
+      <c r="K3" s="130"/>
+      <c r="L3" s="151" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="235">
+      <c r="C4" s="148">
         <v>0</v>
       </c>
       <c r="D4" s="25"/>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="235">
+      <c r="F4" s="148">
         <v>0</v>
       </c>
       <c r="G4" s="89"/>
-      <c r="H4" s="226" t="s">
+      <c r="H4" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="235">
+      <c r="I4" s="148">
         <v>0</v>
       </c>
-      <c r="K4" s="226" t="s">
+      <c r="K4" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="235">
+      <c r="L4" s="148">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="232" t="s">
+      <c r="B5" s="145" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="235">
+      <c r="C5" s="148">
         <v>1</v>
       </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="228" t="s">
+      <c r="E5" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="235">
+      <c r="F5" s="148">
         <v>5</v>
       </c>
       <c r="G5" s="89"/>
-      <c r="H5" s="227" t="s">
+      <c r="H5" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="235">
+      <c r="I5" s="148">
         <v>0</v>
       </c>
-      <c r="K5" s="226" t="s">
+      <c r="K5" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="L5" s="235">
+      <c r="L5" s="148">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="235">
+      <c r="C6" s="148">
         <v>0</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="138" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="235">
+      <c r="F6" s="148">
         <v>0</v>
       </c>
       <c r="G6" s="89"/>
-      <c r="H6" s="225" t="s">
+      <c r="H6" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="235">
+      <c r="I6" s="148">
         <v>5</v>
       </c>
-      <c r="K6" s="227" t="s">
+      <c r="K6" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="L6" s="235">
+      <c r="L6" s="148">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="236">
+      <c r="C7" s="149">
         <v>5</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="218" t="s">
+      <c r="E7" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="219"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="89"/>
-      <c r="H7" s="229" t="s">
+      <c r="H7" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="237">
+      <c r="I7" s="150">
         <v>0</v>
       </c>
-      <c r="K7" s="228" t="s">
+      <c r="K7" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="235">
+      <c r="L7" s="148">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="220"/>
+      <c r="D8" s="133"/>
       <c r="G8" s="89"/>
       <c r="I8" s="89"/>
-      <c r="K8" s="228" t="s">
+      <c r="K8" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="L8" s="235">
+      <c r="L8" s="148">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D9" s="89"/>
       <c r="G9" s="89"/>
-      <c r="K9" s="225" t="s">
+      <c r="K9" s="138" t="s">
         <v>171</v>
       </c>
-      <c r="L9" s="235">
+      <c r="L9" s="148">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="89"/>
-      <c r="K10" s="218" t="s">
+      <c r="K10" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="236">
+      <c r="L10" s="149">
         <v>5</v>
       </c>
     </row>
